--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CE35A4-C174-4C77-B275-AC53E015BD1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E877C1CA-453F-4EFA-AFD3-3A2AFA625A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F131" sqref="F131"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -744,7 +744,7 @@
     <col min="9" max="9" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -874,7 +874,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -940,7 +940,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F131" si="4">F67*2.25</f>
+        <f t="shared" ref="F68:F132" si="4">F67*2.25</f>
         <v>2.7045830036718591E+107</v>
       </c>
       <c r="G68">
@@ -3172,7 +3172,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3280,20 +3280,20 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B131" si="5">B67</f>
+        <f t="shared" ref="B72:B135" si="5">B67</f>
         <v>1-1</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" ref="C72:C131" si="6">C67</f>
+        <f t="shared" ref="C72:C135" si="6">C67</f>
         <v>9018</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D131" si="7">D67+1</f>
+        <f t="shared" ref="D72:D135" si="7">D67+1</f>
         <v>15</v>
       </c>
       <c r="E72">
@@ -3316,7 +3316,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>20800</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>24200</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5440,9 +5440,189 @@
         <v>27800</v>
       </c>
     </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C132" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132" s="2">
+        <f t="shared" si="4"/>
+        <v>9.3709036726298041E+129</v>
+      </c>
+      <c r="G132">
+        <v>1000</v>
+      </c>
+      <c r="H132">
+        <v>8</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C133" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E133">
+        <v>1</v>
+      </c>
+      <c r="F133" s="2">
+        <f t="shared" ref="F133:F136" si="8">F132*2.25</f>
+        <v>2.1084533263417059E+130</v>
+      </c>
+      <c r="G133">
+        <v>1000</v>
+      </c>
+      <c r="H133">
+        <v>8</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>28200</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C134" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134" s="2">
+        <f t="shared" si="8"/>
+        <v>4.7440199842688382E+130</v>
+      </c>
+      <c r="G134">
+        <v>1000</v>
+      </c>
+      <c r="H134">
+        <v>8</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>28400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C135" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="7"/>
+        <v>27</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0674044964604887E+131</v>
+      </c>
+      <c r="G135">
+        <v>1000</v>
+      </c>
+      <c r="H135">
+        <v>8</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>28600</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" s="1" t="str">
+        <f t="shared" ref="B136:C136" si="9">B131</f>
+        <v>1-2</v>
+      </c>
+      <c r="C136" s="3">
+        <f t="shared" si="9"/>
+        <v>9013</v>
+      </c>
+      <c r="D136">
+        <f t="shared" ref="D136" si="10">D131+1</f>
+        <v>28</v>
+      </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136" s="2">
+        <f t="shared" si="8"/>
+        <v>2.4016601170360997E+131</v>
+      </c>
+      <c r="G136">
+        <v>1000</v>
+      </c>
+      <c r="H136">
+        <v>8</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>28800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B131 D2:J131">
+  <conditionalFormatting sqref="A2:B136 D2:J136">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -5456,11 +5636,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18C141-318D-4E81-877F-8C05E69781EF}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="9" bestFit="1" customWidth="1"/>
@@ -5468,24 +5648,24 @@
     <col min="4" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -5495,7 +5675,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickTop="1">
+    <row r="8" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -5511,7 +5691,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -5527,7 +5707,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -5543,7 +5723,7 @@
         <v>000000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -5559,7 +5739,7 @@
         <v>0000000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
@@ -5575,7 +5755,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
@@ -5591,7 +5771,7 @@
         <v>1E+24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -5607,7 +5787,7 @@
         <v>1E+28</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
@@ -5623,7 +5803,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -5639,7 +5819,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -5655,7 +5835,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
@@ -5671,7 +5851,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
@@ -5687,7 +5867,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
@@ -5703,7 +5883,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
@@ -5719,7 +5899,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -5735,7 +5915,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
@@ -5751,7 +5931,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
@@ -5767,7 +5947,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
@@ -5783,7 +5963,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
@@ -5799,7 +5979,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
@@ -5815,7 +5995,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
@@ -5831,7 +6011,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
@@ -5847,7 +6027,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
@@ -5863,7 +6043,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>39</v>
       </c>
@@ -5879,13 +6059,13 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -5900,7 +6080,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -5915,7 +6095,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -5930,7 +6110,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -5945,7 +6125,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -5960,7 +6140,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -5975,7 +6155,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -5990,7 +6170,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -6003,7 +6183,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -6016,7 +6196,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -6029,7 +6209,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -6042,7 +6222,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -6055,7 +6235,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -6068,7 +6248,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -6081,7 +6261,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -6094,7 +6274,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -6107,7 +6287,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14">
+    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -6120,7 +6300,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="4:14">
+    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -6133,7 +6313,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14">
+    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -6146,7 +6326,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="4:14">
+    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -6159,7 +6339,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="4:14">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -6172,7 +6352,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="4:14">
+    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -6185,7 +6365,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="4:14">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -6198,7 +6378,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="4:14">
+    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -6211,7 +6391,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="4:14">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -6224,7 +6404,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="4:14">
+    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -6237,7 +6417,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="4:14">
+    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -6250,7 +6430,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="4:14">
+    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -6263,7 +6443,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="4:14">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -6276,7 +6456,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14">
+    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -6289,7 +6469,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="4:14">
+    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -6302,7 +6482,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="4:14">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -6315,7 +6495,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="4:14">
+    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -6328,7 +6508,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="4:14">
+    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E877C1CA-453F-4EFA-AFD3-3A2AFA625A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BA98D7-D3CF-454B-9BDD-91ACE80FB5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F134" sqref="F134"/>
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3285,15 +3285,15 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="str">
-        <f t="shared" ref="B72:B135" si="5">B67</f>
+        <f t="shared" ref="B72:B137" si="5">B67</f>
         <v>1-1</v>
       </c>
       <c r="C72" s="3">
-        <f t="shared" ref="C72:C135" si="6">C67</f>
+        <f t="shared" ref="C72:C137" si="6">C67</f>
         <v>9018</v>
       </c>
       <c r="D72">
-        <f t="shared" ref="D72:D135" si="7">D67+1</f>
+        <f t="shared" ref="D72:D137" si="7">D67+1</f>
         <v>15</v>
       </c>
       <c r="E72">
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F136" si="8">F132*2.25</f>
+        <f t="shared" ref="F133:F150" si="8">F132*2.25</f>
         <v>2.1084533263417059E+130</v>
       </c>
       <c r="G133">
@@ -5620,9 +5620,513 @@
         <v>28800</v>
       </c>
     </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>1-1</v>
+      </c>
+      <c r="C137" s="3">
+        <f t="shared" si="6"/>
+        <v>9018</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="E137">
+        <v>1</v>
+      </c>
+      <c r="F137" s="2">
+        <f t="shared" si="8"/>
+        <v>5.4037352633312247E+131</v>
+      </c>
+      <c r="G137">
+        <v>1000</v>
+      </c>
+      <c r="H137">
+        <v>8</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" s="1" t="str">
+        <f t="shared" ref="B138:C150" si="11">B133</f>
+        <v>1-1</v>
+      </c>
+      <c r="C138" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D138">
+        <f t="shared" ref="D138:D150" si="12">D133+1</f>
+        <v>28</v>
+      </c>
+      <c r="E138">
+        <v>1</v>
+      </c>
+      <c r="F138" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2158404342495255E+132</v>
+      </c>
+      <c r="G138">
+        <v>1000</v>
+      </c>
+      <c r="H138">
+        <v>8</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>29200</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C139" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E139">
+        <v>1</v>
+      </c>
+      <c r="F139" s="2">
+        <f t="shared" si="8"/>
+        <v>2.7356409770614324E+132</v>
+      </c>
+      <c r="G139">
+        <v>1000</v>
+      </c>
+      <c r="H139">
+        <v>8</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>29400</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C140" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="12"/>
+        <v>28</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140" s="2">
+        <f t="shared" si="8"/>
+        <v>6.1551921983882224E+132</v>
+      </c>
+      <c r="G140">
+        <v>1000</v>
+      </c>
+      <c r="H140">
+        <v>8</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>29600</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" s="1" t="str">
+        <f t="shared" ref="B141:C141" si="13">B136</f>
+        <v>1-2</v>
+      </c>
+      <c r="C141" s="3">
+        <f t="shared" si="13"/>
+        <v>9013</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E141">
+        <v>1</v>
+      </c>
+      <c r="F141" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3849182446373501E+133</v>
+      </c>
+      <c r="G141">
+        <v>1000</v>
+      </c>
+      <c r="H141">
+        <v>8</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C142" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E142">
+        <v>1</v>
+      </c>
+      <c r="F142" s="2">
+        <f t="shared" si="8"/>
+        <v>3.1160660504340378E+133</v>
+      </c>
+      <c r="G142">
+        <v>1000</v>
+      </c>
+      <c r="H142">
+        <v>8</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C143" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E143">
+        <v>1</v>
+      </c>
+      <c r="F143" s="2">
+        <f t="shared" si="8"/>
+        <v>7.0111486134765846E+133</v>
+      </c>
+      <c r="G143">
+        <v>1000</v>
+      </c>
+      <c r="H143">
+        <v>8</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C144" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5775084380322316E+134</v>
+      </c>
+      <c r="G144">
+        <v>1000</v>
+      </c>
+      <c r="H144">
+        <v>8</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>30400</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C145" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="12"/>
+        <v>29</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" s="2">
+        <f t="shared" si="8"/>
+        <v>3.5493939855725213E+134</v>
+      </c>
+      <c r="G145">
+        <v>1000</v>
+      </c>
+      <c r="H145">
+        <v>8</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>30600</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-2</v>
+      </c>
+      <c r="C146" s="3">
+        <f t="shared" si="11"/>
+        <v>9013</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" s="2">
+        <f t="shared" si="8"/>
+        <v>7.9861364675381733E+134</v>
+      </c>
+      <c r="G146">
+        <v>1000</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C147" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7968807051960888E+135</v>
+      </c>
+      <c r="G147">
+        <v>1000</v>
+      </c>
+      <c r="H147">
+        <v>8</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C148" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <f t="shared" si="8"/>
+        <v>4.0429815866912002E+135</v>
+      </c>
+      <c r="G148">
+        <v>1000</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C149" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <f t="shared" si="8"/>
+        <v>9.0967085700551998E+135</v>
+      </c>
+      <c r="G149">
+        <v>1000</v>
+      </c>
+      <c r="H149">
+        <v>8</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>31400</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="1" t="str">
+        <f t="shared" si="11"/>
+        <v>1-1</v>
+      </c>
+      <c r="C150" s="3">
+        <f t="shared" si="11"/>
+        <v>9018</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" s="2">
+        <f t="shared" si="8"/>
+        <v>2.04675942826242E+136</v>
+      </c>
+      <c r="G150">
+        <v>1000</v>
+      </c>
+      <c r="H150">
+        <v>8</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>31600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B136 D2:J136">
+  <conditionalFormatting sqref="A2:B150 D2:J150">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40BA98D7-D3CF-454B-9BDD-91ACE80FB5C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A4D1B4-FFE3-473D-B492-2C56446274CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I131" sqref="I131"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F150" si="8">F132*2.25</f>
+        <f t="shared" ref="F133:F160" si="8">F132*2.25</f>
         <v>2.1084533263417059E+130</v>
       </c>
       <c r="G133">
@@ -5669,7 +5669,7 @@
         <v>9018</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:D150" si="12">D133+1</f>
+        <f t="shared" ref="D138:D160" si="12">D133+1</f>
         <v>28</v>
       </c>
       <c r="E138">
@@ -6124,9 +6124,369 @@
         <v>31600</v>
       </c>
     </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" s="1" t="str">
+        <f t="shared" ref="B151:C151" si="14">B146</f>
+        <v>1-2</v>
+      </c>
+      <c r="C151" s="3">
+        <f t="shared" si="14"/>
+        <v>9013</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" s="2">
+        <f t="shared" si="8"/>
+        <v>4.6052087135904452E+136</v>
+      </c>
+      <c r="G151">
+        <v>1000</v>
+      </c>
+      <c r="H151">
+        <v>8</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>31800</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" s="1" t="str">
+        <f t="shared" ref="B152:C152" si="15">B147</f>
+        <v>1-1</v>
+      </c>
+      <c r="C152" s="3">
+        <f t="shared" si="15"/>
+        <v>9018</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0361719605578503E+137</v>
+      </c>
+      <c r="G152">
+        <v>1000</v>
+      </c>
+      <c r="H152">
+        <v>8</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" s="1" t="str">
+        <f t="shared" ref="B153:C153" si="16">B148</f>
+        <v>1-1</v>
+      </c>
+      <c r="C153" s="3">
+        <f t="shared" si="16"/>
+        <v>9018</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" s="2">
+        <f t="shared" si="8"/>
+        <v>2.3313869112551629E+137</v>
+      </c>
+      <c r="G153">
+        <v>1000</v>
+      </c>
+      <c r="H153">
+        <v>8</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>32200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" s="1" t="str">
+        <f t="shared" ref="B154:C154" si="17">B149</f>
+        <v>1-1</v>
+      </c>
+      <c r="C154" s="3">
+        <f t="shared" si="17"/>
+        <v>9018</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" s="2">
+        <f t="shared" si="8"/>
+        <v>5.2456205503241164E+137</v>
+      </c>
+      <c r="G154">
+        <v>1000</v>
+      </c>
+      <c r="H154">
+        <v>8</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>32400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" s="1" t="str">
+        <f t="shared" ref="B155:C155" si="18">B150</f>
+        <v>1-1</v>
+      </c>
+      <c r="C155" s="3">
+        <f t="shared" si="18"/>
+        <v>9018</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="12"/>
+        <v>31</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1802646238229263E+138</v>
+      </c>
+      <c r="G155">
+        <v>1000</v>
+      </c>
+      <c r="H155">
+        <v>8</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>32600</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" s="1" t="str">
+        <f t="shared" ref="B156:C156" si="19">B151</f>
+        <v>1-2</v>
+      </c>
+      <c r="C156" s="3">
+        <f t="shared" si="19"/>
+        <v>9013</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" s="2">
+        <f t="shared" si="8"/>
+        <v>2.655595403601584E+138</v>
+      </c>
+      <c r="G156">
+        <v>1000</v>
+      </c>
+      <c r="H156">
+        <v>8</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>32800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" s="1" t="str">
+        <f t="shared" ref="B157:C157" si="20">B152</f>
+        <v>1-1</v>
+      </c>
+      <c r="C157" s="3">
+        <f t="shared" si="20"/>
+        <v>9018</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" s="2">
+        <f t="shared" si="8"/>
+        <v>5.9750896581035639E+138</v>
+      </c>
+      <c r="G157">
+        <v>1000</v>
+      </c>
+      <c r="H157">
+        <v>8</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" s="1" t="str">
+        <f t="shared" ref="B158:C158" si="21">B153</f>
+        <v>1-1</v>
+      </c>
+      <c r="C158" s="3">
+        <f t="shared" si="21"/>
+        <v>9018</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3443951730733018E+139</v>
+      </c>
+      <c r="G158">
+        <v>1000</v>
+      </c>
+      <c r="H158">
+        <v>8</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>33200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" s="1" t="str">
+        <f t="shared" ref="B159:C160" si="22">B154</f>
+        <v>1-1</v>
+      </c>
+      <c r="C159" s="3">
+        <f t="shared" si="22"/>
+        <v>9018</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+      <c r="F159" s="2">
+        <f t="shared" si="8"/>
+        <v>3.0248891394149292E+139</v>
+      </c>
+      <c r="G159">
+        <v>1000</v>
+      </c>
+      <c r="H159">
+        <v>8</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>33400</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v>1-1</v>
+      </c>
+      <c r="C160" s="3">
+        <f t="shared" si="22"/>
+        <v>9018</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="12"/>
+        <v>32</v>
+      </c>
+      <c r="E160">
+        <v>1</v>
+      </c>
+      <c r="F160" s="2">
+        <f t="shared" si="8"/>
+        <v>6.8060005636835911E+139</v>
+      </c>
+      <c r="G160">
+        <v>1000</v>
+      </c>
+      <c r="H160">
+        <v>8</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>33600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B150 D2:J150">
+  <conditionalFormatting sqref="A2:B160 D2:J160">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -6140,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B18C141-318D-4E81-877F-8C05E69781EF}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:E31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A4D1B4-FFE3-473D-B492-2C56446274CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4CCEB-36CE-4709-A914-3C96183CED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J160"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D154" sqref="D154"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F160" si="8">F132*2.25</f>
+        <f t="shared" ref="F133:F171" si="8">F132*2.25</f>
         <v>2.1084533263417059E+130</v>
       </c>
       <c r="G133">
@@ -5669,7 +5669,7 @@
         <v>9018</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:D160" si="12">D133+1</f>
+        <f t="shared" ref="D138:D171" si="12">D133+1</f>
         <v>28</v>
       </c>
       <c r="E138">
@@ -6484,9 +6484,405 @@
         <v>33600</v>
       </c>
     </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" s="1" t="str">
+        <f t="shared" ref="B161:C161" si="23">B156</f>
+        <v>1-2</v>
+      </c>
+      <c r="C161" s="3">
+        <f t="shared" si="23"/>
+        <v>9013</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+      <c r="F161" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5313501268288081E+140</v>
+      </c>
+      <c r="G161">
+        <v>1000</v>
+      </c>
+      <c r="H161">
+        <v>8</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" s="1" t="str">
+        <f t="shared" ref="B162:C162" si="24">B157</f>
+        <v>1-1</v>
+      </c>
+      <c r="C162" s="3">
+        <f t="shared" si="24"/>
+        <v>9018</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="E162">
+        <v>1</v>
+      </c>
+      <c r="F162" s="2">
+        <f t="shared" si="8"/>
+        <v>3.4455377853648181E+140</v>
+      </c>
+      <c r="G162">
+        <v>1000</v>
+      </c>
+      <c r="H162">
+        <v>8</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" s="1" t="str">
+        <f t="shared" ref="B163:C163" si="25">B158</f>
+        <v>1-1</v>
+      </c>
+      <c r="C163" s="3">
+        <f t="shared" si="25"/>
+        <v>9018</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="E163">
+        <v>1</v>
+      </c>
+      <c r="F163" s="2">
+        <f t="shared" si="8"/>
+        <v>7.75246001707084E+140</v>
+      </c>
+      <c r="G163">
+        <v>1000</v>
+      </c>
+      <c r="H163">
+        <v>8</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164" s="1" t="str">
+        <f t="shared" ref="B164:C164" si="26">B159</f>
+        <v>1-1</v>
+      </c>
+      <c r="C164" s="3">
+        <f t="shared" si="26"/>
+        <v>9018</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="E164">
+        <v>1</v>
+      </c>
+      <c r="F164" s="2">
+        <f t="shared" si="8"/>
+        <v>1.7443035038409389E+141</v>
+      </c>
+      <c r="G164">
+        <v>1000</v>
+      </c>
+      <c r="H164">
+        <v>8</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>34400</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165" s="1" t="str">
+        <f t="shared" ref="B165:C165" si="27">B160</f>
+        <v>1-1</v>
+      </c>
+      <c r="C165" s="3">
+        <f t="shared" si="27"/>
+        <v>9018</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="12"/>
+        <v>33</v>
+      </c>
+      <c r="E165">
+        <v>1</v>
+      </c>
+      <c r="F165" s="2">
+        <f t="shared" si="8"/>
+        <v>3.9246828836421125E+141</v>
+      </c>
+      <c r="G165">
+        <v>1000</v>
+      </c>
+      <c r="H165">
+        <v>8</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>34600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166" s="1" t="str">
+        <f t="shared" ref="B166:C166" si="28">B161</f>
+        <v>1-2</v>
+      </c>
+      <c r="C166" s="3">
+        <f t="shared" si="28"/>
+        <v>9013</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="E166">
+        <v>1</v>
+      </c>
+      <c r="F166" s="2">
+        <f t="shared" si="8"/>
+        <v>8.8305364881947534E+141</v>
+      </c>
+      <c r="G166">
+        <v>1000</v>
+      </c>
+      <c r="H166">
+        <v>8</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167" s="1" t="str">
+        <f t="shared" ref="B167:C167" si="29">B162</f>
+        <v>1-1</v>
+      </c>
+      <c r="C167" s="3">
+        <f t="shared" si="29"/>
+        <v>9018</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+      <c r="F167" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9868707098438195E+142</v>
+      </c>
+      <c r="G167">
+        <v>1000</v>
+      </c>
+      <c r="H167">
+        <v>8</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168" s="1" t="str">
+        <f t="shared" ref="B168:C168" si="30">B163</f>
+        <v>1-1</v>
+      </c>
+      <c r="C168" s="3">
+        <f t="shared" si="30"/>
+        <v>9018</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168" s="2">
+        <f t="shared" si="8"/>
+        <v>4.4704590971485941E+142</v>
+      </c>
+      <c r="G168">
+        <v>1000</v>
+      </c>
+      <c r="H168">
+        <v>8</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>35200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169" s="1" t="str">
+        <f t="shared" ref="B169:C171" si="31">B164</f>
+        <v>1-1</v>
+      </c>
+      <c r="C169" s="3">
+        <f t="shared" si="31"/>
+        <v>9018</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="E169">
+        <v>1</v>
+      </c>
+      <c r="F169" s="2">
+        <f t="shared" si="8"/>
+        <v>1.0058532968584336E+143</v>
+      </c>
+      <c r="G169">
+        <v>1000</v>
+      </c>
+      <c r="H169">
+        <v>8</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>35400</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1-1</v>
+      </c>
+      <c r="C170" s="3">
+        <f t="shared" si="31"/>
+        <v>9018</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="12"/>
+        <v>34</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+      <c r="F170" s="2">
+        <f t="shared" si="8"/>
+        <v>2.2631699179314755E+143</v>
+      </c>
+      <c r="G170">
+        <v>1000</v>
+      </c>
+      <c r="H170">
+        <v>8</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>35600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171" s="1" t="str">
+        <f t="shared" si="31"/>
+        <v>1-2</v>
+      </c>
+      <c r="C171" s="3">
+        <f t="shared" si="31"/>
+        <v>9013</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171" s="2">
+        <f t="shared" si="8"/>
+        <v>5.09213231534582E+143</v>
+      </c>
+      <c r="G171">
+        <v>1000</v>
+      </c>
+      <c r="H171">
+        <v>8</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>35800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B160 D2:J160">
+  <conditionalFormatting sqref="A2:B171 D2:J171">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCD4CCEB-36CE-4709-A914-3C96183CED61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CCD595-CE86-4959-9A33-A604FB2EA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28770" yWindow="0" windowWidth="28830" windowHeight="15480" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -392,7 +392,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -725,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J171"/>
+  <dimension ref="A1:J183"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F156" sqref="F156"/>
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5496,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F171" si="8">F132*2.25</f>
+        <f t="shared" ref="F133:F184" si="8">F132*2.25</f>
         <v>2.1084533263417059E+130</v>
       </c>
       <c r="G133">
@@ -5669,7 +5691,7 @@
         <v>9018</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:D171" si="12">D133+1</f>
+        <f t="shared" ref="D138:D184" si="12">D133+1</f>
         <v>28</v>
       </c>
       <c r="E138">
@@ -6880,9 +6902,441 @@
         <v>35800</v>
       </c>
     </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172" s="1" t="str">
+        <f t="shared" ref="B172:C172" si="32">B167</f>
+        <v>1-1</v>
+      </c>
+      <c r="C172" s="3">
+        <f t="shared" si="32"/>
+        <v>9018</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1457297709528095E+144</v>
+      </c>
+      <c r="G172">
+        <v>1000</v>
+      </c>
+      <c r="H172">
+        <v>8</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173" s="1" t="str">
+        <f t="shared" ref="B173:C173" si="33">B168</f>
+        <v>1-1</v>
+      </c>
+      <c r="C173" s="3">
+        <f t="shared" si="33"/>
+        <v>9018</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E173">
+        <v>1</v>
+      </c>
+      <c r="F173" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5778919846438212E+144</v>
+      </c>
+      <c r="G173">
+        <v>1000</v>
+      </c>
+      <c r="H173">
+        <v>8</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174" s="1" t="str">
+        <f t="shared" ref="B174:C174" si="34">B169</f>
+        <v>1-1</v>
+      </c>
+      <c r="C174" s="3">
+        <f t="shared" si="34"/>
+        <v>9018</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174" s="2">
+        <f t="shared" si="8"/>
+        <v>5.8002569654485974E+144</v>
+      </c>
+      <c r="G174">
+        <v>1000</v>
+      </c>
+      <c r="H174">
+        <v>8</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>36400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175" s="1" t="str">
+        <f t="shared" ref="B175:C175" si="35">B170</f>
+        <v>1-1</v>
+      </c>
+      <c r="C175" s="3">
+        <f t="shared" si="35"/>
+        <v>9018</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="12"/>
+        <v>35</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
+      </c>
+      <c r="F175" s="2">
+        <f t="shared" si="8"/>
+        <v>1.3050578172259343E+145</v>
+      </c>
+      <c r="G175">
+        <v>1000</v>
+      </c>
+      <c r="H175">
+        <v>8</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>36600</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176" s="1" t="str">
+        <f t="shared" ref="B176:C176" si="36">B171</f>
+        <v>1-2</v>
+      </c>
+      <c r="C176" s="3">
+        <f t="shared" si="36"/>
+        <v>9013</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="E176">
+        <v>1</v>
+      </c>
+      <c r="F176" s="2">
+        <f t="shared" si="8"/>
+        <v>2.936380088758352E+145</v>
+      </c>
+      <c r="G176">
+        <v>1000</v>
+      </c>
+      <c r="H176">
+        <v>8</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>36800</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177" s="1" t="str">
+        <f t="shared" ref="B177:C177" si="37">B172</f>
+        <v>1-1</v>
+      </c>
+      <c r="C177" s="3">
+        <f t="shared" si="37"/>
+        <v>9018</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="E177">
+        <v>1</v>
+      </c>
+      <c r="F177" s="2">
+        <f t="shared" si="8"/>
+        <v>6.6068551997062918E+145</v>
+      </c>
+      <c r="G177">
+        <v>1000</v>
+      </c>
+      <c r="H177">
+        <v>8</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178" s="1" t="str">
+        <f t="shared" ref="B178:C178" si="38">B173</f>
+        <v>1-1</v>
+      </c>
+      <c r="C178" s="3">
+        <f t="shared" si="38"/>
+        <v>9018</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="E178">
+        <v>1</v>
+      </c>
+      <c r="F178" s="2">
+        <f t="shared" si="8"/>
+        <v>1.4865424199339157E+146</v>
+      </c>
+      <c r="G178">
+        <v>1000</v>
+      </c>
+      <c r="H178">
+        <v>8</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>37200</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179" s="1" t="str">
+        <f t="shared" ref="B179:C179" si="39">B174</f>
+        <v>1-1</v>
+      </c>
+      <c r="C179" s="3">
+        <f t="shared" si="39"/>
+        <v>9018</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="E179">
+        <v>1</v>
+      </c>
+      <c r="F179" s="2">
+        <f t="shared" si="8"/>
+        <v>3.3447204448513102E+146</v>
+      </c>
+      <c r="G179">
+        <v>1000</v>
+      </c>
+      <c r="H179">
+        <v>8</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180" s="1" t="str">
+        <f t="shared" ref="B180:C181" si="40">B175</f>
+        <v>1-1</v>
+      </c>
+      <c r="C180" s="3">
+        <f t="shared" si="40"/>
+        <v>9018</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="12"/>
+        <v>36</v>
+      </c>
+      <c r="E180">
+        <v>1</v>
+      </c>
+      <c r="F180" s="2">
+        <f t="shared" si="8"/>
+        <v>7.5256210009154483E+146</v>
+      </c>
+      <c r="G180">
+        <v>1000</v>
+      </c>
+      <c r="H180">
+        <v>8</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>37600</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181" s="1" t="str">
+        <f t="shared" si="40"/>
+        <v>1-2</v>
+      </c>
+      <c r="C181" s="3">
+        <f t="shared" si="40"/>
+        <v>9013</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181" s="2">
+        <f t="shared" si="8"/>
+        <v>1.6932647252059759E+147</v>
+      </c>
+      <c r="G181">
+        <v>1000</v>
+      </c>
+      <c r="H181">
+        <v>8</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182" s="1" t="str">
+        <f t="shared" ref="B182:C182" si="41">B177</f>
+        <v>1-1</v>
+      </c>
+      <c r="C182" s="3">
+        <f t="shared" si="41"/>
+        <v>9018</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182" s="2">
+        <f t="shared" si="8"/>
+        <v>3.8098456317134454E+147</v>
+      </c>
+      <c r="G182">
+        <v>1000</v>
+      </c>
+      <c r="H182">
+        <v>8</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183" s="1" t="str">
+        <f t="shared" ref="B183:C184" si="42">B178</f>
+        <v>1-1</v>
+      </c>
+      <c r="C183" s="3">
+        <f t="shared" si="42"/>
+        <v>9018</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183" s="2">
+        <f t="shared" si="8"/>
+        <v>8.5721526713552517E+147</v>
+      </c>
+      <c r="G183">
+        <v>1000</v>
+      </c>
+      <c r="H183">
+        <v>8</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>38200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B171 D2:J171">
+  <conditionalFormatting sqref="A2:B183 D2:J183">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48CCD595-CE86-4959-9A33-A604FB2EA033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10ADC3-9814-49E2-8EA4-D6EC50F9CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -392,29 +392,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -747,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J183"/>
+  <dimension ref="A1:J194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E176" sqref="E176"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5518,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F184" si="8">F132*2.25</f>
+        <f t="shared" ref="F133:F194" si="8">F132*2.25</f>
         <v>2.1084533263417059E+130</v>
       </c>
       <c r="G133">
@@ -5691,7 +5669,7 @@
         <v>9018</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:D184" si="12">D133+1</f>
+        <f t="shared" ref="D138:D194" si="12">D133+1</f>
         <v>28</v>
       </c>
       <c r="E138">
@@ -7303,7 +7281,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="str">
-        <f t="shared" ref="B183:C184" si="42">B178</f>
+        <f t="shared" ref="B183:C183" si="42">B178</f>
         <v>1-1</v>
       </c>
       <c r="C183" s="3">
@@ -7334,9 +7312,405 @@
         <v>38200</v>
       </c>
     </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184" s="1" t="str">
+        <f t="shared" ref="B184:C184" si="43">B179</f>
+        <v>1-1</v>
+      </c>
+      <c r="C184" s="3">
+        <f t="shared" si="43"/>
+        <v>9018</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E184">
+        <v>1</v>
+      </c>
+      <c r="F184" s="2">
+        <f t="shared" si="8"/>
+        <v>1.9287343510549317E+148</v>
+      </c>
+      <c r="G184">
+        <v>1000</v>
+      </c>
+      <c r="H184">
+        <v>8</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>38400</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185" s="1" t="str">
+        <f t="shared" ref="B185:C185" si="44">B180</f>
+        <v>1-1</v>
+      </c>
+      <c r="C185" s="3">
+        <f t="shared" si="44"/>
+        <v>9018</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="12"/>
+        <v>37</v>
+      </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185" s="2">
+        <f t="shared" si="8"/>
+        <v>4.3396522898735962E+148</v>
+      </c>
+      <c r="G185">
+        <v>1000</v>
+      </c>
+      <c r="H185">
+        <v>8</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>38600</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186" s="1" t="str">
+        <f t="shared" ref="B186:C186" si="45">B181</f>
+        <v>1-2</v>
+      </c>
+      <c r="C186" s="3">
+        <f t="shared" si="45"/>
+        <v>9013</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186" s="2">
+        <f t="shared" si="8"/>
+        <v>9.7642176522155919E+148</v>
+      </c>
+      <c r="G186">
+        <v>1000</v>
+      </c>
+      <c r="H186">
+        <v>8</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>38800</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187" s="1" t="str">
+        <f t="shared" ref="B187:C187" si="46">B182</f>
+        <v>1-1</v>
+      </c>
+      <c r="C187" s="3">
+        <f t="shared" si="46"/>
+        <v>9018</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="E187">
+        <v>1</v>
+      </c>
+      <c r="F187" s="2">
+        <f t="shared" si="8"/>
+        <v>2.1969489717485084E+149</v>
+      </c>
+      <c r="G187">
+        <v>1000</v>
+      </c>
+      <c r="H187">
+        <v>8</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188" s="1" t="str">
+        <f t="shared" ref="B188:C188" si="47">B183</f>
+        <v>1-1</v>
+      </c>
+      <c r="C188" s="3">
+        <f t="shared" si="47"/>
+        <v>9018</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188" s="2">
+        <f t="shared" si="8"/>
+        <v>4.9431351864341441E+149</v>
+      </c>
+      <c r="G188">
+        <v>1000</v>
+      </c>
+      <c r="H188">
+        <v>8</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>39200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189" s="1" t="str">
+        <f t="shared" ref="B189:C189" si="48">B184</f>
+        <v>1-1</v>
+      </c>
+      <c r="C189" s="3">
+        <f t="shared" si="48"/>
+        <v>9018</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189" s="2">
+        <f t="shared" si="8"/>
+        <v>1.1122054169476824E+150</v>
+      </c>
+      <c r="G189">
+        <v>1000</v>
+      </c>
+      <c r="H189">
+        <v>8</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>39400</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190" s="1" t="str">
+        <f t="shared" ref="B190:C190" si="49">B185</f>
+        <v>1-1</v>
+      </c>
+      <c r="C190" s="3">
+        <f t="shared" si="49"/>
+        <v>9018</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="12"/>
+        <v>38</v>
+      </c>
+      <c r="E190">
+        <v>1</v>
+      </c>
+      <c r="F190" s="2">
+        <f t="shared" si="8"/>
+        <v>2.5024621881322855E+150</v>
+      </c>
+      <c r="G190">
+        <v>1000</v>
+      </c>
+      <c r="H190">
+        <v>8</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>39600</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191" s="1" t="str">
+        <f t="shared" ref="B191:C191" si="50">B186</f>
+        <v>1-2</v>
+      </c>
+      <c r="C191" s="3">
+        <f t="shared" si="50"/>
+        <v>9013</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191" s="2">
+        <f t="shared" si="8"/>
+        <v>5.6305399232976427E+150</v>
+      </c>
+      <c r="G191">
+        <v>1000</v>
+      </c>
+      <c r="H191">
+        <v>8</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>39800</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192" s="1" t="str">
+        <f t="shared" ref="B192:C193" si="51">B187</f>
+        <v>1-1</v>
+      </c>
+      <c r="C192" s="3">
+        <f t="shared" si="51"/>
+        <v>9018</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192" s="2">
+        <f t="shared" si="8"/>
+        <v>1.2668714827419696E+151</v>
+      </c>
+      <c r="G192">
+        <v>1000</v>
+      </c>
+      <c r="H192">
+        <v>8</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193" s="1" t="str">
+        <f t="shared" si="51"/>
+        <v>1-1</v>
+      </c>
+      <c r="C193" s="3">
+        <f t="shared" si="51"/>
+        <v>9018</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E193">
+        <v>1</v>
+      </c>
+      <c r="F193" s="2">
+        <f t="shared" si="8"/>
+        <v>2.8504608361694319E+151</v>
+      </c>
+      <c r="G193">
+        <v>1000</v>
+      </c>
+      <c r="H193">
+        <v>8</v>
+      </c>
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="J193">
+        <v>40200</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194" s="1" t="str">
+        <f t="shared" ref="B194:C194" si="52">B189</f>
+        <v>1-1</v>
+      </c>
+      <c r="C194" s="3">
+        <f t="shared" si="52"/>
+        <v>9018</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194" s="2">
+        <f t="shared" si="8"/>
+        <v>6.4135368813812221E+151</v>
+      </c>
+      <c r="G194">
+        <v>1000</v>
+      </c>
+      <c r="H194">
+        <v>8</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>40400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B183 D2:J183">
+  <conditionalFormatting sqref="A2:B194 D2:J194">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10ADC3-9814-49E2-8EA4-D6EC50F9CD2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C616635-3940-4837-9E20-EA07FFB7EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J194"/>
+  <dimension ref="A1:J205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I178" sqref="I178"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5496,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F194" si="8">F132*2.25</f>
+        <f t="shared" ref="F133:F196" si="8">F132*2.25</f>
         <v>2.1084533263417059E+130</v>
       </c>
       <c r="G133">
@@ -5669,7 +5669,7 @@
         <v>9018</v>
       </c>
       <c r="D138">
-        <f t="shared" ref="D138:D194" si="12">D133+1</f>
+        <f t="shared" ref="D138:D201" si="12">D133+1</f>
         <v>28</v>
       </c>
       <c r="E138">
@@ -7708,9 +7708,405 @@
         <v>40400</v>
       </c>
     </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195" s="1" t="str">
+        <f t="shared" ref="B195:C195" si="53">B190</f>
+        <v>1-1</v>
+      </c>
+      <c r="C195" s="3">
+        <f t="shared" si="53"/>
+        <v>9018</v>
+      </c>
+      <c r="D195">
+        <f t="shared" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="E195">
+        <v>1</v>
+      </c>
+      <c r="F195" s="2">
+        <f t="shared" si="8"/>
+        <v>1.443045798310775E+152</v>
+      </c>
+      <c r="G195">
+        <v>1000</v>
+      </c>
+      <c r="H195">
+        <v>8</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>40600</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196" s="1" t="str">
+        <f t="shared" ref="B196:C196" si="54">B191</f>
+        <v>1-2</v>
+      </c>
+      <c r="C196" s="3">
+        <f t="shared" si="54"/>
+        <v>9013</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196" s="2">
+        <f t="shared" si="8"/>
+        <v>3.2468530461992435E+152</v>
+      </c>
+      <c r="G196">
+        <v>1000</v>
+      </c>
+      <c r="H196">
+        <v>8</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>40800</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197" s="1" t="str">
+        <f t="shared" ref="B197:C197" si="55">B192</f>
+        <v>1-1</v>
+      </c>
+      <c r="C197" s="3">
+        <f t="shared" si="55"/>
+        <v>9018</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E197">
+        <v>1</v>
+      </c>
+      <c r="F197" s="2">
+        <f t="shared" ref="F197:F205" si="56">F196*2.25</f>
+        <v>7.3054193539482981E+152</v>
+      </c>
+      <c r="G197">
+        <v>1000</v>
+      </c>
+      <c r="H197">
+        <v>8</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198" s="1" t="str">
+        <f t="shared" ref="B198:C198" si="57">B193</f>
+        <v>1-1</v>
+      </c>
+      <c r="C198" s="3">
+        <f t="shared" si="57"/>
+        <v>9018</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E198">
+        <v>1</v>
+      </c>
+      <c r="F198" s="2">
+        <f t="shared" si="56"/>
+        <v>1.643719354638367E+153</v>
+      </c>
+      <c r="G198">
+        <v>1000</v>
+      </c>
+      <c r="H198">
+        <v>8</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>41200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199" s="1" t="str">
+        <f t="shared" ref="B199:C199" si="58">B194</f>
+        <v>1-1</v>
+      </c>
+      <c r="C199" s="3">
+        <f t="shared" si="58"/>
+        <v>9018</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199" s="2">
+        <f t="shared" si="56"/>
+        <v>3.6983685479363257E+153</v>
+      </c>
+      <c r="G199">
+        <v>1000</v>
+      </c>
+      <c r="H199">
+        <v>8</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>41400</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200" s="1" t="str">
+        <f t="shared" ref="B200:C200" si="59">B195</f>
+        <v>1-1</v>
+      </c>
+      <c r="C200" s="3">
+        <f t="shared" si="59"/>
+        <v>9018</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="12"/>
+        <v>40</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
+      <c r="F200" s="2">
+        <f t="shared" si="56"/>
+        <v>8.3213292328567333E+153</v>
+      </c>
+      <c r="G200">
+        <v>1000</v>
+      </c>
+      <c r="H200">
+        <v>8</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200">
+        <v>41600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201" s="1" t="str">
+        <f t="shared" ref="B201:C201" si="60">B196</f>
+        <v>1-2</v>
+      </c>
+      <c r="C201" s="3">
+        <f t="shared" si="60"/>
+        <v>9013</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="12"/>
+        <v>41</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
+      <c r="F201" s="2">
+        <f t="shared" si="56"/>
+        <v>1.8722990773927651E+154</v>
+      </c>
+      <c r="G201">
+        <v>1000</v>
+      </c>
+      <c r="H201">
+        <v>8</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>41800</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202" s="1" t="str">
+        <f t="shared" ref="B202:C202" si="61">B197</f>
+        <v>1-1</v>
+      </c>
+      <c r="C202" s="3">
+        <f t="shared" si="61"/>
+        <v>9018</v>
+      </c>
+      <c r="D202">
+        <f t="shared" ref="D202:D205" si="62">D197+1</f>
+        <v>41</v>
+      </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202" s="2">
+        <f t="shared" si="56"/>
+        <v>4.2126729241337217E+154</v>
+      </c>
+      <c r="G202">
+        <v>1000</v>
+      </c>
+      <c r="H202">
+        <v>8</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203" s="1" t="str">
+        <f t="shared" ref="B203:C203" si="63">B198</f>
+        <v>1-1</v>
+      </c>
+      <c r="C203" s="3">
+        <f t="shared" si="63"/>
+        <v>9018</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="62"/>
+        <v>41</v>
+      </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203" s="2">
+        <f t="shared" si="56"/>
+        <v>9.4785140793008735E+154</v>
+      </c>
+      <c r="G203">
+        <v>1000</v>
+      </c>
+      <c r="H203">
+        <v>8</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>42200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204" s="1" t="str">
+        <f t="shared" ref="B204:C204" si="64">B199</f>
+        <v>1-1</v>
+      </c>
+      <c r="C204" s="3">
+        <f t="shared" si="64"/>
+        <v>9018</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="62"/>
+        <v>41</v>
+      </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204" s="2">
+        <f t="shared" si="56"/>
+        <v>2.1326656678426964E+155</v>
+      </c>
+      <c r="G204">
+        <v>1000</v>
+      </c>
+      <c r="H204">
+        <v>8</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204">
+        <v>42400</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205" s="1" t="str">
+        <f t="shared" ref="B205:C205" si="65">B200</f>
+        <v>1-1</v>
+      </c>
+      <c r="C205" s="3">
+        <f t="shared" si="65"/>
+        <v>9018</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="62"/>
+        <v>41</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205" s="2">
+        <f t="shared" si="56"/>
+        <v>4.7984977526460673E+155</v>
+      </c>
+      <c r="G205">
+        <v>1000</v>
+      </c>
+      <c r="H205">
+        <v>8</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>42600</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B194 D2:J194">
+  <conditionalFormatting sqref="A2:B205 D2:J205">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C616635-3940-4837-9E20-EA07FFB7EC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EBDAD2-0D7C-4D34-AEFE-B094B31012C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J205"/>
+  <dimension ref="A1:J217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F198" sqref="F198"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" ref="F197:F205" si="56">F196*2.25</f>
+        <f t="shared" ref="F197:F217" si="56">F196*2.25</f>
         <v>7.3054193539482981E+152</v>
       </c>
       <c r="G197">
@@ -7973,7 +7973,7 @@
         <v>9018</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D205" si="62">D197+1</f>
+        <f t="shared" ref="D202:D217" si="62">D197+1</f>
         <v>41</v>
       </c>
       <c r="E202">
@@ -8104,9 +8104,441 @@
         <v>42600</v>
       </c>
     </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206" s="1" t="str">
+        <f t="shared" ref="B206:C206" si="66">B201</f>
+        <v>1-2</v>
+      </c>
+      <c r="C206" s="3">
+        <f t="shared" si="66"/>
+        <v>9013</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206" s="2">
+        <f t="shared" si="56"/>
+        <v>1.0796619943453651E+156</v>
+      </c>
+      <c r="G206">
+        <v>1000</v>
+      </c>
+      <c r="H206">
+        <v>8</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207" s="1" t="str">
+        <f t="shared" ref="B207:C207" si="67">B202</f>
+        <v>1-1</v>
+      </c>
+      <c r="C207" s="3">
+        <f t="shared" si="67"/>
+        <v>9018</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207" s="2">
+        <f t="shared" si="56"/>
+        <v>2.4292394872770713E+156</v>
+      </c>
+      <c r="G207">
+        <v>1000</v>
+      </c>
+      <c r="H207">
+        <v>8</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208" s="1" t="str">
+        <f t="shared" ref="B208:C208" si="68">B203</f>
+        <v>1-1</v>
+      </c>
+      <c r="C208" s="3">
+        <f t="shared" si="68"/>
+        <v>9018</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208" s="2">
+        <f t="shared" si="56"/>
+        <v>5.4657888463734103E+156</v>
+      </c>
+      <c r="G208">
+        <v>1000</v>
+      </c>
+      <c r="H208">
+        <v>8</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>43200</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209" s="1" t="str">
+        <f t="shared" ref="B209:C209" si="69">B204</f>
+        <v>1-1</v>
+      </c>
+      <c r="C209" s="3">
+        <f t="shared" si="69"/>
+        <v>9018</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209" s="2">
+        <f t="shared" si="56"/>
+        <v>1.2298024904340173E+157</v>
+      </c>
+      <c r="G209">
+        <v>1000</v>
+      </c>
+      <c r="H209">
+        <v>8</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>43400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210" s="1" t="str">
+        <f t="shared" ref="B210:C210" si="70">B205</f>
+        <v>1-1</v>
+      </c>
+      <c r="C210" s="3">
+        <f t="shared" si="70"/>
+        <v>9018</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="62"/>
+        <v>42</v>
+      </c>
+      <c r="E210">
+        <v>1</v>
+      </c>
+      <c r="F210" s="2">
+        <f t="shared" si="56"/>
+        <v>2.7670556034765388E+157</v>
+      </c>
+      <c r="G210">
+        <v>1000</v>
+      </c>
+      <c r="H210">
+        <v>8</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+      <c r="J210">
+        <v>43600</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211" s="1" t="str">
+        <f t="shared" ref="B211:C211" si="71">B206</f>
+        <v>1-2</v>
+      </c>
+      <c r="C211" s="3">
+        <f t="shared" si="71"/>
+        <v>9013</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="62"/>
+        <v>43</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+      <c r="F211" s="2">
+        <f t="shared" si="56"/>
+        <v>6.2258751078222122E+157</v>
+      </c>
+      <c r="G211">
+        <v>1000</v>
+      </c>
+      <c r="H211">
+        <v>8</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+      <c r="J211">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212" s="1" t="str">
+        <f t="shared" ref="B212:C212" si="72">B207</f>
+        <v>1-1</v>
+      </c>
+      <c r="C212" s="3">
+        <f t="shared" si="72"/>
+        <v>9018</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="62"/>
+        <v>43</v>
+      </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212" s="2">
+        <f t="shared" si="56"/>
+        <v>1.4008218992599976E+158</v>
+      </c>
+      <c r="G212">
+        <v>1000</v>
+      </c>
+      <c r="H212">
+        <v>8</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213" s="1" t="str">
+        <f t="shared" ref="B213:C213" si="73">B208</f>
+        <v>1-1</v>
+      </c>
+      <c r="C213" s="3">
+        <f t="shared" si="73"/>
+        <v>9018</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="62"/>
+        <v>43</v>
+      </c>
+      <c r="E213">
+        <v>1</v>
+      </c>
+      <c r="F213" s="2">
+        <f t="shared" si="56"/>
+        <v>3.1518492733349948E+158</v>
+      </c>
+      <c r="G213">
+        <v>1000</v>
+      </c>
+      <c r="H213">
+        <v>8</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+      <c r="J213">
+        <v>44200</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214" s="1" t="str">
+        <f t="shared" ref="B214:C214" si="74">B209</f>
+        <v>1-1</v>
+      </c>
+      <c r="C214" s="3">
+        <f t="shared" si="74"/>
+        <v>9018</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="62"/>
+        <v>43</v>
+      </c>
+      <c r="E214">
+        <v>1</v>
+      </c>
+      <c r="F214" s="2">
+        <f t="shared" si="56"/>
+        <v>7.0916608650037381E+158</v>
+      </c>
+      <c r="G214">
+        <v>1000</v>
+      </c>
+      <c r="H214">
+        <v>8</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>44400</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215" s="1" t="str">
+        <f t="shared" ref="B215:C215" si="75">B210</f>
+        <v>1-1</v>
+      </c>
+      <c r="C215" s="3">
+        <f t="shared" si="75"/>
+        <v>9018</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="62"/>
+        <v>43</v>
+      </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215" s="2">
+        <f t="shared" si="56"/>
+        <v>1.595623694625841E+159</v>
+      </c>
+      <c r="G215">
+        <v>1000</v>
+      </c>
+      <c r="H215">
+        <v>8</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>44600</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216" s="1" t="str">
+        <f t="shared" ref="B216:C216" si="76">B211</f>
+        <v>1-2</v>
+      </c>
+      <c r="C216" s="3">
+        <f t="shared" si="76"/>
+        <v>9013</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="62"/>
+        <v>44</v>
+      </c>
+      <c r="E216">
+        <v>1</v>
+      </c>
+      <c r="F216" s="2">
+        <f t="shared" si="56"/>
+        <v>3.590153312908142E+159</v>
+      </c>
+      <c r="G216">
+        <v>1000</v>
+      </c>
+      <c r="H216">
+        <v>8</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>44800</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217" s="1" t="str">
+        <f t="shared" ref="B217:C217" si="77">B212</f>
+        <v>1-1</v>
+      </c>
+      <c r="C217" s="3">
+        <f t="shared" si="77"/>
+        <v>9018</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="62"/>
+        <v>44</v>
+      </c>
+      <c r="E217">
+        <v>1</v>
+      </c>
+      <c r="F217" s="2">
+        <f t="shared" si="56"/>
+        <v>8.07784495404332E+159</v>
+      </c>
+      <c r="G217">
+        <v>1000</v>
+      </c>
+      <c r="H217">
+        <v>8</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="J217">
+        <v>45000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B205 D2:J205">
+  <conditionalFormatting sqref="A2:B217 D2:J217">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EBDAD2-0D7C-4D34-AEFE-B094B31012C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838BE7D4-EDB8-4B29-83B8-49910FC16EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J217"/>
+  <dimension ref="A1:J228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F214" sqref="F214"/>
+      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" ref="F197:F217" si="56">F196*2.25</f>
+        <f t="shared" ref="F197:F228" si="56">F196*2.25</f>
         <v>7.3054193539482981E+152</v>
       </c>
       <c r="G197">
@@ -7973,7 +7973,7 @@
         <v>9018</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D217" si="62">D197+1</f>
+        <f t="shared" ref="D202:D228" si="62">D197+1</f>
         <v>41</v>
       </c>
       <c r="E202">
@@ -8536,9 +8536,405 @@
         <v>45000</v>
       </c>
     </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218" s="1" t="str">
+        <f t="shared" ref="B218:C218" si="78">B213</f>
+        <v>1-1</v>
+      </c>
+      <c r="C218" s="3">
+        <f t="shared" si="78"/>
+        <v>9018</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="62"/>
+        <v>44</v>
+      </c>
+      <c r="E218">
+        <v>1</v>
+      </c>
+      <c r="F218" s="2">
+        <f t="shared" si="56"/>
+        <v>1.8175151146597471E+160</v>
+      </c>
+      <c r="G218">
+        <v>1000</v>
+      </c>
+      <c r="H218">
+        <v>8</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+      <c r="J218">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219" s="1" t="str">
+        <f t="shared" ref="B219:C219" si="79">B214</f>
+        <v>1-1</v>
+      </c>
+      <c r="C219" s="3">
+        <f t="shared" si="79"/>
+        <v>9018</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="62"/>
+        <v>44</v>
+      </c>
+      <c r="E219">
+        <v>1</v>
+      </c>
+      <c r="F219" s="2">
+        <f t="shared" si="56"/>
+        <v>4.0894090079844309E+160</v>
+      </c>
+      <c r="G219">
+        <v>1000</v>
+      </c>
+      <c r="H219">
+        <v>8</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220" s="1" t="str">
+        <f t="shared" ref="B220:C220" si="80">B215</f>
+        <v>1-1</v>
+      </c>
+      <c r="C220" s="3">
+        <f t="shared" si="80"/>
+        <v>9018</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="62"/>
+        <v>44</v>
+      </c>
+      <c r="E220">
+        <v>1</v>
+      </c>
+      <c r="F220" s="2">
+        <f t="shared" si="56"/>
+        <v>9.2011702679649691E+160</v>
+      </c>
+      <c r="G220">
+        <v>1000</v>
+      </c>
+      <c r="H220">
+        <v>8</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="J220">
+        <v>45600</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221" s="1" t="str">
+        <f t="shared" ref="B221:C221" si="81">B216</f>
+        <v>1-2</v>
+      </c>
+      <c r="C221" s="3">
+        <f t="shared" si="81"/>
+        <v>9013</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="E221">
+        <v>1</v>
+      </c>
+      <c r="F221" s="2">
+        <f t="shared" si="56"/>
+        <v>2.070263310292118E+161</v>
+      </c>
+      <c r="G221">
+        <v>1000</v>
+      </c>
+      <c r="H221">
+        <v>8</v>
+      </c>
+      <c r="I221">
+        <v>0</v>
+      </c>
+      <c r="J221">
+        <v>45800</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222" s="1" t="str">
+        <f t="shared" ref="B222:C222" si="82">B217</f>
+        <v>1-1</v>
+      </c>
+      <c r="C222" s="3">
+        <f t="shared" si="82"/>
+        <v>9018</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222" s="2">
+        <f t="shared" si="56"/>
+        <v>4.6580924481572654E+161</v>
+      </c>
+      <c r="G222">
+        <v>1000</v>
+      </c>
+      <c r="H222">
+        <v>8</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1" t="str">
+        <f t="shared" ref="B223:C223" si="83">B218</f>
+        <v>1-1</v>
+      </c>
+      <c r="C223" s="3">
+        <f t="shared" si="83"/>
+        <v>9018</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223" s="2">
+        <f t="shared" si="56"/>
+        <v>1.0480708008353847E+162</v>
+      </c>
+      <c r="G223">
+        <v>1000</v>
+      </c>
+      <c r="H223">
+        <v>8</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>46200</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224" s="1" t="str">
+        <f t="shared" ref="B224:C224" si="84">B219</f>
+        <v>1-1</v>
+      </c>
+      <c r="C224" s="3">
+        <f t="shared" si="84"/>
+        <v>9018</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224" s="2">
+        <f t="shared" si="56"/>
+        <v>2.3581593018796158E+162</v>
+      </c>
+      <c r="G224">
+        <v>1000</v>
+      </c>
+      <c r="H224">
+        <v>8</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225" s="1" t="str">
+        <f t="shared" ref="B225:C225" si="85">B220</f>
+        <v>1-1</v>
+      </c>
+      <c r="C225" s="3">
+        <f t="shared" si="85"/>
+        <v>9018</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="62"/>
+        <v>45</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225" s="2">
+        <f t="shared" si="56"/>
+        <v>5.3058584292291351E+162</v>
+      </c>
+      <c r="G225">
+        <v>1000</v>
+      </c>
+      <c r="H225">
+        <v>8</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>46600</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226" s="1" t="str">
+        <f t="shared" ref="B226:C226" si="86">B221</f>
+        <v>1-2</v>
+      </c>
+      <c r="C226" s="3">
+        <f t="shared" si="86"/>
+        <v>9013</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226" s="2">
+        <f t="shared" si="56"/>
+        <v>1.1938181465765553E+163</v>
+      </c>
+      <c r="G226">
+        <v>1000</v>
+      </c>
+      <c r="H226">
+        <v>8</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>46800</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227" s="1" t="str">
+        <f t="shared" ref="B227:C227" si="87">B222</f>
+        <v>1-1</v>
+      </c>
+      <c r="C227" s="3">
+        <f t="shared" si="87"/>
+        <v>9018</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227" s="2">
+        <f t="shared" si="56"/>
+        <v>2.6860908297972496E+163</v>
+      </c>
+      <c r="G227">
+        <v>1000</v>
+      </c>
+      <c r="H227">
+        <v>8</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228" s="1" t="str">
+        <f t="shared" ref="B228:C228" si="88">B223</f>
+        <v>1-1</v>
+      </c>
+      <c r="C228" s="3">
+        <f t="shared" si="88"/>
+        <v>9018</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228" s="2">
+        <f t="shared" si="56"/>
+        <v>6.043704367043811E+163</v>
+      </c>
+      <c r="G228">
+        <v>1000</v>
+      </c>
+      <c r="H228">
+        <v>8</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>47200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B217 D2:J217">
+  <conditionalFormatting sqref="A2:B228 D2:J228">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838BE7D4-EDB8-4B29-83B8-49910FC16EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396AB920-5223-41CB-8301-1EAAA5FC147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J228"/>
+  <dimension ref="A1:J239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E221" sqref="E221"/>
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" ref="F197:F228" si="56">F196*2.25</f>
+        <f t="shared" ref="F197:F239" si="56">F196*2.25</f>
         <v>7.3054193539482981E+152</v>
       </c>
       <c r="G197">
@@ -7973,7 +7973,7 @@
         <v>9018</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D228" si="62">D197+1</f>
+        <f t="shared" ref="D202:D239" si="62">D197+1</f>
         <v>41</v>
       </c>
       <c r="E202">
@@ -8932,9 +8932,405 @@
         <v>47200</v>
       </c>
     </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229" s="1" t="str">
+        <f t="shared" ref="B229:C229" si="89">B224</f>
+        <v>1-1</v>
+      </c>
+      <c r="C229" s="3">
+        <f t="shared" si="89"/>
+        <v>9018</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229" s="2">
+        <f t="shared" si="56"/>
+        <v>1.3598334825848575E+164</v>
+      </c>
+      <c r="G229">
+        <v>1000</v>
+      </c>
+      <c r="H229">
+        <v>8</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230" s="1" t="str">
+        <f t="shared" ref="B230:C230" si="90">B225</f>
+        <v>1-1</v>
+      </c>
+      <c r="C230" s="3">
+        <f t="shared" si="90"/>
+        <v>9018</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="62"/>
+        <v>46</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230" s="2">
+        <f t="shared" si="56"/>
+        <v>3.0596253358159293E+164</v>
+      </c>
+      <c r="G230">
+        <v>1000</v>
+      </c>
+      <c r="H230">
+        <v>8</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>47600</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231" s="1" t="str">
+        <f t="shared" ref="B231:C231" si="91">B226</f>
+        <v>1-2</v>
+      </c>
+      <c r="C231" s="3">
+        <f t="shared" si="91"/>
+        <v>9013</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231" s="2">
+        <f t="shared" si="56"/>
+        <v>6.8841570055858412E+164</v>
+      </c>
+      <c r="G231">
+        <v>1000</v>
+      </c>
+      <c r="H231">
+        <v>8</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>47800</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232" s="1" t="str">
+        <f t="shared" ref="B232:C232" si="92">B227</f>
+        <v>1-1</v>
+      </c>
+      <c r="C232" s="3">
+        <f t="shared" si="92"/>
+        <v>9018</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232" s="2">
+        <f t="shared" si="56"/>
+        <v>1.5489353262568144E+165</v>
+      </c>
+      <c r="G232">
+        <v>1000</v>
+      </c>
+      <c r="H232">
+        <v>8</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233" s="1" t="str">
+        <f t="shared" ref="B233:C233" si="93">B228</f>
+        <v>1-1</v>
+      </c>
+      <c r="C233" s="3">
+        <f t="shared" si="93"/>
+        <v>9018</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233" s="2">
+        <f t="shared" si="56"/>
+        <v>3.4851044840778322E+165</v>
+      </c>
+      <c r="G233">
+        <v>1000</v>
+      </c>
+      <c r="H233">
+        <v>8</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>48200</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234" s="1" t="str">
+        <f t="shared" ref="B234:C234" si="94">B229</f>
+        <v>1-1</v>
+      </c>
+      <c r="C234" s="3">
+        <f t="shared" si="94"/>
+        <v>9018</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="E234">
+        <v>1</v>
+      </c>
+      <c r="F234" s="2">
+        <f t="shared" si="56"/>
+        <v>7.8414850891751218E+165</v>
+      </c>
+      <c r="G234">
+        <v>1000</v>
+      </c>
+      <c r="H234">
+        <v>8</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>48400</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235" s="1" t="str">
+        <f t="shared" ref="B235:C235" si="95">B230</f>
+        <v>1-1</v>
+      </c>
+      <c r="C235" s="3">
+        <f t="shared" si="95"/>
+        <v>9018</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="62"/>
+        <v>47</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235" s="2">
+        <f t="shared" si="56"/>
+        <v>1.7643341450644026E+166</v>
+      </c>
+      <c r="G235">
+        <v>1000</v>
+      </c>
+      <c r="H235">
+        <v>8</v>
+      </c>
+      <c r="I235">
+        <v>0</v>
+      </c>
+      <c r="J235">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236" s="1" t="str">
+        <f t="shared" ref="B236:C236" si="96">B231</f>
+        <v>1-2</v>
+      </c>
+      <c r="C236" s="3">
+        <f t="shared" si="96"/>
+        <v>9013</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="62"/>
+        <v>48</v>
+      </c>
+      <c r="E236">
+        <v>1</v>
+      </c>
+      <c r="F236" s="2">
+        <f t="shared" si="56"/>
+        <v>3.969751826394906E+166</v>
+      </c>
+      <c r="G236">
+        <v>1000</v>
+      </c>
+      <c r="H236">
+        <v>8</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+      <c r="J236">
+        <v>48800</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237" s="1" t="str">
+        <f t="shared" ref="B237:C237" si="97">B232</f>
+        <v>1-1</v>
+      </c>
+      <c r="C237" s="3">
+        <f t="shared" si="97"/>
+        <v>9018</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="62"/>
+        <v>48</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237" s="2">
+        <f t="shared" si="56"/>
+        <v>8.9319416093885384E+166</v>
+      </c>
+      <c r="G237">
+        <v>1000</v>
+      </c>
+      <c r="H237">
+        <v>8</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238" s="1" t="str">
+        <f t="shared" ref="B238:C238" si="98">B233</f>
+        <v>1-1</v>
+      </c>
+      <c r="C238" s="3">
+        <f t="shared" si="98"/>
+        <v>9018</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="62"/>
+        <v>48</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238" s="2">
+        <f t="shared" si="56"/>
+        <v>2.0096868621124211E+167</v>
+      </c>
+      <c r="G238">
+        <v>1000</v>
+      </c>
+      <c r="H238">
+        <v>8</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239" s="1" t="str">
+        <f t="shared" ref="B239:C239" si="99">B234</f>
+        <v>1-1</v>
+      </c>
+      <c r="C239" s="3">
+        <f t="shared" si="99"/>
+        <v>9018</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="62"/>
+        <v>48</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239" s="2">
+        <f t="shared" si="56"/>
+        <v>4.5217954397529474E+167</v>
+      </c>
+      <c r="G239">
+        <v>1000</v>
+      </c>
+      <c r="H239">
+        <v>8</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>49400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B228 D2:J228">
+  <conditionalFormatting sqref="A2:B239 D2:J239">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396AB920-5223-41CB-8301-1EAAA5FC147D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC7768-CF6E-4EB4-AB16-C7C670D48C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J239"/>
+  <dimension ref="A1:J251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B233" sqref="B233"/>
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -744,7 +744,7 @@
     <col min="9" max="9" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -874,7 +874,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -940,7 +940,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>20800</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>24200</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>30200</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>32600</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>33200</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>33800</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>34400</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>34600</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>34800</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>35400</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>36200</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>36400</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>37600</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>38800</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>39200</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>39800</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" ref="F197:F239" si="56">F196*2.25</f>
+        <f t="shared" ref="F197:F251" si="56">F196*2.25</f>
         <v>7.3054193539482981E+152</v>
       </c>
       <c r="G197">
@@ -7816,7 +7816,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>9018</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D239" si="62">D197+1</f>
+        <f t="shared" ref="D202:D251" si="62">D197+1</f>
         <v>41</v>
       </c>
       <c r="E202">
@@ -7996,7 +7996,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>42400</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>46400</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>46800</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>47400</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>228</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>229</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>230</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>48200</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>48800</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10">
       <c r="A237">
         <v>235</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>49200</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9328,9 +9328,441 @@
         <v>49400</v>
       </c>
     </row>
+    <row r="240" spans="1:10">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240" s="1" t="str">
+        <f t="shared" ref="B240:C240" si="100">B235</f>
+        <v>1-1</v>
+      </c>
+      <c r="C240" s="3">
+        <f t="shared" si="100"/>
+        <v>9018</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="62"/>
+        <v>48</v>
+      </c>
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240" s="2">
+        <f t="shared" si="56"/>
+        <v>1.0174039739444131E+168</v>
+      </c>
+      <c r="G240">
+        <v>1000</v>
+      </c>
+      <c r="H240">
+        <v>8</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+      <c r="J240">
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241" s="1" t="str">
+        <f t="shared" ref="B241:C241" si="101">B236</f>
+        <v>1-2</v>
+      </c>
+      <c r="C241" s="3">
+        <f t="shared" si="101"/>
+        <v>9013</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="62"/>
+        <v>49</v>
+      </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241" s="2">
+        <f t="shared" si="56"/>
+        <v>2.2891589413749297E+168</v>
+      </c>
+      <c r="G241">
+        <v>1000</v>
+      </c>
+      <c r="H241">
+        <v>8</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="J241">
+        <v>49800</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242" s="1" t="str">
+        <f t="shared" ref="B242:C242" si="102">B237</f>
+        <v>1-1</v>
+      </c>
+      <c r="C242" s="3">
+        <f t="shared" si="102"/>
+        <v>9018</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="62"/>
+        <v>49</v>
+      </c>
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242" s="2">
+        <f t="shared" si="56"/>
+        <v>5.1506076180935915E+168</v>
+      </c>
+      <c r="G242">
+        <v>1000</v>
+      </c>
+      <c r="H242">
+        <v>8</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243" s="1" t="str">
+        <f t="shared" ref="B243:C243" si="103">B238</f>
+        <v>1-1</v>
+      </c>
+      <c r="C243" s="3">
+        <f t="shared" si="103"/>
+        <v>9018</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="62"/>
+        <v>49</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243" s="2">
+        <f t="shared" si="56"/>
+        <v>1.158886714071058E+169</v>
+      </c>
+      <c r="G243">
+        <v>1000</v>
+      </c>
+      <c r="H243">
+        <v>8</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>50200</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244" s="1" t="str">
+        <f t="shared" ref="B244:C244" si="104">B239</f>
+        <v>1-1</v>
+      </c>
+      <c r="C244" s="3">
+        <f t="shared" si="104"/>
+        <v>9018</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="62"/>
+        <v>49</v>
+      </c>
+      <c r="E244">
+        <v>1</v>
+      </c>
+      <c r="F244" s="2">
+        <f t="shared" si="56"/>
+        <v>2.6074951066598806E+169</v>
+      </c>
+      <c r="G244">
+        <v>1000</v>
+      </c>
+      <c r="H244">
+        <v>8</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>50400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245" s="1" t="str">
+        <f t="shared" ref="B245:C245" si="105">B240</f>
+        <v>1-1</v>
+      </c>
+      <c r="C245" s="3">
+        <f t="shared" si="105"/>
+        <v>9018</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="62"/>
+        <v>49</v>
+      </c>
+      <c r="E245">
+        <v>1</v>
+      </c>
+      <c r="F245" s="2">
+        <f t="shared" si="56"/>
+        <v>5.8668639899847315E+169</v>
+      </c>
+      <c r="G245">
+        <v>1000</v>
+      </c>
+      <c r="H245">
+        <v>8</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>50600</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246" s="1" t="str">
+        <f t="shared" ref="B246:C246" si="106">B241</f>
+        <v>1-2</v>
+      </c>
+      <c r="C246" s="3">
+        <f t="shared" si="106"/>
+        <v>9013</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="E246">
+        <v>1</v>
+      </c>
+      <c r="F246" s="2">
+        <f t="shared" si="56"/>
+        <v>1.3200443977465647E+170</v>
+      </c>
+      <c r="G246">
+        <v>1000</v>
+      </c>
+      <c r="H246">
+        <v>8</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>50800</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247" s="1" t="str">
+        <f t="shared" ref="B247:C247" si="107">B242</f>
+        <v>1-1</v>
+      </c>
+      <c r="C247" s="3">
+        <f t="shared" si="107"/>
+        <v>9018</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247" s="2">
+        <f t="shared" si="56"/>
+        <v>2.9700998949297708E+170</v>
+      </c>
+      <c r="G247">
+        <v>1000</v>
+      </c>
+      <c r="H247">
+        <v>8</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>51000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248" s="1" t="str">
+        <f t="shared" ref="B248:C248" si="108">B243</f>
+        <v>1-1</v>
+      </c>
+      <c r="C248" s="3">
+        <f t="shared" si="108"/>
+        <v>9018</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248" s="2">
+        <f t="shared" si="56"/>
+        <v>6.6827247635919842E+170</v>
+      </c>
+      <c r="G248">
+        <v>1000</v>
+      </c>
+      <c r="H248">
+        <v>8</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>51200</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249" s="1" t="str">
+        <f t="shared" ref="B249:C249" si="109">B244</f>
+        <v>1-1</v>
+      </c>
+      <c r="C249" s="3">
+        <f t="shared" si="109"/>
+        <v>9018</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249" s="2">
+        <f t="shared" si="56"/>
+        <v>1.5036130718081964E+171</v>
+      </c>
+      <c r="G249">
+        <v>1000</v>
+      </c>
+      <c r="H249">
+        <v>8</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>51400</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250" s="1" t="str">
+        <f t="shared" ref="B250:C251" si="110">B245</f>
+        <v>1-1</v>
+      </c>
+      <c r="C250" s="3">
+        <f t="shared" si="110"/>
+        <v>9018</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="62"/>
+        <v>50</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250" s="2">
+        <f t="shared" si="56"/>
+        <v>3.3831294115684418E+171</v>
+      </c>
+      <c r="G250">
+        <v>1000</v>
+      </c>
+      <c r="H250">
+        <v>8</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>51600</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251" s="1" t="str">
+        <f t="shared" si="110"/>
+        <v>1-2</v>
+      </c>
+      <c r="C251" s="3">
+        <f t="shared" si="110"/>
+        <v>9013</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="62"/>
+        <v>51</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251" s="2">
+        <f t="shared" si="56"/>
+        <v>7.6120411760289941E+171</v>
+      </c>
+      <c r="G251">
+        <v>1000</v>
+      </c>
+      <c r="H251">
+        <v>8</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>51800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B239 D2:J239">
+  <conditionalFormatting sqref="A2:B251 D2:J251">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9348,7 +9780,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="9" bestFit="1" customWidth="1"/>
@@ -9356,24 +9788,24 @@
     <col min="4" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -9383,7 +9815,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.25" thickTop="1">
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -9399,7 +9831,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -9415,7 +9847,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -9431,7 +9863,7 @@
         <v>000000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -9447,7 +9879,7 @@
         <v>0000000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
@@ -9463,7 +9895,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
@@ -9479,7 +9911,7 @@
         <v>1E+24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -9495,7 +9927,7 @@
         <v>1E+28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
@@ -9511,7 +9943,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -9527,7 +9959,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -9543,7 +9975,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
@@ -9559,7 +9991,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
@@ -9575,7 +10007,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
@@ -9591,7 +10023,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
@@ -9607,7 +10039,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -9623,7 +10055,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
@@ -9639,7 +10071,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
@@ -9655,7 +10087,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
@@ -9671,7 +10103,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
@@ -9687,7 +10119,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
@@ -9703,7 +10135,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
@@ -9719,7 +10151,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
@@ -9735,7 +10167,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
@@ -9751,7 +10183,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="B31" s="12" t="s">
         <v>39</v>
       </c>
@@ -9767,13 +10199,13 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -9788,7 +10220,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -9803,7 +10235,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -9818,7 +10250,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -9833,7 +10265,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -9848,7 +10280,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -9863,7 +10295,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -9878,7 +10310,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -9891,7 +10323,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -9904,7 +10336,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14">
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -9917,7 +10349,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -9930,7 +10362,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -9943,7 +10375,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -9956,7 +10388,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -9969,7 +10401,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -9982,7 +10414,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -9995,7 +10427,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:14">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -10008,7 +10440,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:14">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -10021,7 +10453,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:14">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -10034,7 +10466,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:14">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -10047,7 +10479,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:14">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -10060,7 +10492,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:14">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -10073,7 +10505,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:14">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -10086,7 +10518,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:14">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -10099,7 +10531,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:14">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -10112,7 +10544,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:14">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -10125,7 +10557,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:14">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -10138,7 +10570,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:14">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -10151,7 +10583,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:14">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -10164,7 +10596,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:14">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -10177,7 +10609,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:14">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -10190,7 +10622,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:14">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -10203,7 +10635,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:14">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -10216,7 +10648,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:14">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBC7768-CF6E-4EB4-AB16-C7C670D48C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C84E23-751D-465F-A70C-804951AE63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J251"/>
+  <dimension ref="A1:J274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C254" sqref="C254"/>
+      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -744,7 +744,7 @@
     <col min="9" max="9" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -808,7 +808,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -841,7 +841,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -874,7 +874,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -907,7 +907,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -940,7 +940,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -976,7 +976,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2416,7 +2416,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2452,7 +2452,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2668,7 +2668,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3532,7 +3532,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3892,7 +3892,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>89</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>20800</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4396,7 +4396,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="111" spans="1:10">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="112" spans="1:10">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>24200</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="123" spans="1:10">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5476,7 +5476,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="134" spans="1:10">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="135" spans="1:10">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="136" spans="1:10">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5836,7 +5836,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>30200</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6196,7 +6196,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6268,7 +6268,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>32600</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6412,7 +6412,7 @@
         <v>33200</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>33800</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>34400</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>34600</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>34800</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>35400</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="171" spans="1:10">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="172" spans="1:10">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="173" spans="1:10">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>36200</v>
       </c>
     </row>
-    <row r="174" spans="1:10">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6988,7 +6988,7 @@
         <v>36400</v>
       </c>
     </row>
-    <row r="175" spans="1:10">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="176" spans="1:10">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="177" spans="1:10">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="178" spans="1:10">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="179" spans="1:10">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="180" spans="1:10">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>37600</v>
       </c>
     </row>
-    <row r="181" spans="1:10">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="182" spans="1:10">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="183" spans="1:10">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7312,7 +7312,7 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="184" spans="1:10">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="185" spans="1:10">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="186" spans="1:10">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>38800</v>
       </c>
     </row>
-    <row r="187" spans="1:10">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7456,7 +7456,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="188" spans="1:10">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>39200</v>
       </c>
     </row>
-    <row r="189" spans="1:10">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="190" spans="1:10">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="191" spans="1:10">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>39800</v>
       </c>
     </row>
-    <row r="192" spans="1:10">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="193" spans="1:10">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="194" spans="1:10">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="195" spans="1:10">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="196" spans="1:10">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="197" spans="1:10">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>195</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" ref="F197:F251" si="56">F196*2.25</f>
+        <f t="shared" ref="F197:F260" si="56">F196*2.25</f>
         <v>7.3054193539482981E+152</v>
       </c>
       <c r="G197">
@@ -7816,7 +7816,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="198" spans="1:10">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="199" spans="1:10">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="200" spans="1:10">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="201" spans="1:10">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="202" spans="1:10">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>9018</v>
       </c>
       <c r="D202">
-        <f t="shared" ref="D202:D251" si="62">D197+1</f>
+        <f t="shared" ref="D202:D265" si="62">D197+1</f>
         <v>41</v>
       </c>
       <c r="E202">
@@ -7996,7 +7996,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="203" spans="1:10">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8032,7 +8032,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="204" spans="1:10">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>42400</v>
       </c>
     </row>
-    <row r="205" spans="1:10">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="206" spans="1:10">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="207" spans="1:10">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="208" spans="1:10">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="209" spans="1:10">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8248,7 +8248,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="210" spans="1:10">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="211" spans="1:10">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="212" spans="1:10">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="213" spans="1:10">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8392,7 +8392,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="214" spans="1:10">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="215" spans="1:10">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="216" spans="1:10">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="217" spans="1:10">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8536,7 +8536,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="218" spans="1:10">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8572,7 +8572,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8608,7 +8608,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="220" spans="1:10">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="221" spans="1:10">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="222" spans="1:10">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8716,7 +8716,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="223" spans="1:10">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="224" spans="1:10">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8788,7 +8788,7 @@
         <v>46400</v>
       </c>
     </row>
-    <row r="225" spans="1:10">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8824,7 +8824,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="226" spans="1:10">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>46800</v>
       </c>
     </row>
-    <row r="227" spans="1:10">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8896,7 +8896,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="228" spans="1:10">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="229" spans="1:10">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8968,7 +8968,7 @@
         <v>47400</v>
       </c>
     </row>
-    <row r="230" spans="1:10">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>228</v>
       </c>
@@ -9004,7 +9004,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="231" spans="1:10">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>229</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="232" spans="1:10">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>230</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="233" spans="1:10">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9112,7 +9112,7 @@
         <v>48200</v>
       </c>
     </row>
-    <row r="234" spans="1:10">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9148,7 +9148,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="235" spans="1:10">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="236" spans="1:10">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>48800</v>
       </c>
     </row>
-    <row r="237" spans="1:10">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>235</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="238" spans="1:10">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9292,7 +9292,7 @@
         <v>49200</v>
       </c>
     </row>
-    <row r="239" spans="1:10">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9328,7 +9328,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="240" spans="1:10">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>238</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="241" spans="1:10">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>239</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>49800</v>
       </c>
     </row>
-    <row r="242" spans="1:10">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="243" spans="1:10">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9472,7 +9472,7 @@
         <v>50200</v>
       </c>
     </row>
-    <row r="244" spans="1:10">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="245" spans="1:10">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="246" spans="1:10">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>50800</v>
       </c>
     </row>
-    <row r="247" spans="1:10">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9616,7 +9616,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="248" spans="1:10">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="249" spans="1:10">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>51400</v>
       </c>
     </row>
-    <row r="250" spans="1:10">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>51600</v>
       </c>
     </row>
-    <row r="251" spans="1:10">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9760,9 +9760,837 @@
         <v>51800</v>
       </c>
     </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252" s="1" t="str">
+        <f t="shared" ref="B252:C252" si="111">B247</f>
+        <v>1-1</v>
+      </c>
+      <c r="C252" s="3">
+        <f t="shared" si="111"/>
+        <v>9018</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="62"/>
+        <v>51</v>
+      </c>
+      <c r="E252">
+        <v>1</v>
+      </c>
+      <c r="F252" s="2">
+        <f t="shared" si="56"/>
+        <v>1.7127092646065238E+172</v>
+      </c>
+      <c r="G252">
+        <v>1000</v>
+      </c>
+      <c r="H252">
+        <v>8</v>
+      </c>
+      <c r="I252">
+        <v>0</v>
+      </c>
+      <c r="J252">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253" s="1" t="str">
+        <f t="shared" ref="B253:C253" si="112">B248</f>
+        <v>1-1</v>
+      </c>
+      <c r="C253" s="3">
+        <f t="shared" si="112"/>
+        <v>9018</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="62"/>
+        <v>51</v>
+      </c>
+      <c r="E253">
+        <v>1</v>
+      </c>
+      <c r="F253" s="2">
+        <f t="shared" si="56"/>
+        <v>3.8535958453646784E+172</v>
+      </c>
+      <c r="G253">
+        <v>1000</v>
+      </c>
+      <c r="H253">
+        <v>8</v>
+      </c>
+      <c r="I253">
+        <v>0</v>
+      </c>
+      <c r="J253">
+        <v>52200</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254" s="1" t="str">
+        <f t="shared" ref="B254:C254" si="113">B249</f>
+        <v>1-1</v>
+      </c>
+      <c r="C254" s="3">
+        <f t="shared" si="113"/>
+        <v>9018</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="62"/>
+        <v>51</v>
+      </c>
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254" s="2">
+        <f t="shared" si="56"/>
+        <v>8.6705906520705265E+172</v>
+      </c>
+      <c r="G254">
+        <v>1000</v>
+      </c>
+      <c r="H254">
+        <v>8</v>
+      </c>
+      <c r="I254">
+        <v>0</v>
+      </c>
+      <c r="J254">
+        <v>52400</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255" s="1" t="str">
+        <f t="shared" ref="B255:C255" si="114">B250</f>
+        <v>1-1</v>
+      </c>
+      <c r="C255" s="3">
+        <f t="shared" si="114"/>
+        <v>9018</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="62"/>
+        <v>51</v>
+      </c>
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255" s="2">
+        <f t="shared" si="56"/>
+        <v>1.9508828967158685E+173</v>
+      </c>
+      <c r="G255">
+        <v>1000</v>
+      </c>
+      <c r="H255">
+        <v>8</v>
+      </c>
+      <c r="I255">
+        <v>0</v>
+      </c>
+      <c r="J255">
+        <v>52600</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256" s="1" t="str">
+        <f t="shared" ref="B256:C256" si="115">B251</f>
+        <v>1-2</v>
+      </c>
+      <c r="C256" s="3">
+        <f t="shared" si="115"/>
+        <v>9013</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="62"/>
+        <v>52</v>
+      </c>
+      <c r="E256">
+        <v>1</v>
+      </c>
+      <c r="F256" s="2">
+        <f t="shared" si="56"/>
+        <v>4.3894865176107043E+173</v>
+      </c>
+      <c r="G256">
+        <v>1000</v>
+      </c>
+      <c r="H256">
+        <v>8</v>
+      </c>
+      <c r="I256">
+        <v>0</v>
+      </c>
+      <c r="J256">
+        <v>52800</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257" s="1" t="str">
+        <f t="shared" ref="B257:C257" si="116">B252</f>
+        <v>1-1</v>
+      </c>
+      <c r="C257" s="3">
+        <f t="shared" si="116"/>
+        <v>9018</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="62"/>
+        <v>52</v>
+      </c>
+      <c r="E257">
+        <v>1</v>
+      </c>
+      <c r="F257" s="2">
+        <f t="shared" si="56"/>
+        <v>9.8763446646240846E+173</v>
+      </c>
+      <c r="G257">
+        <v>1000</v>
+      </c>
+      <c r="H257">
+        <v>8</v>
+      </c>
+      <c r="I257">
+        <v>0</v>
+      </c>
+      <c r="J257">
+        <v>53000</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258" s="1" t="str">
+        <f t="shared" ref="B258:C258" si="117">B253</f>
+        <v>1-1</v>
+      </c>
+      <c r="C258" s="3">
+        <f t="shared" si="117"/>
+        <v>9018</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="62"/>
+        <v>52</v>
+      </c>
+      <c r="E258">
+        <v>1</v>
+      </c>
+      <c r="F258" s="2">
+        <f t="shared" si="56"/>
+        <v>2.2221775495404189E+174</v>
+      </c>
+      <c r="G258">
+        <v>1000</v>
+      </c>
+      <c r="H258">
+        <v>8</v>
+      </c>
+      <c r="I258">
+        <v>0</v>
+      </c>
+      <c r="J258">
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259" s="1" t="str">
+        <f t="shared" ref="B259:C259" si="118">B254</f>
+        <v>1-1</v>
+      </c>
+      <c r="C259" s="3">
+        <f t="shared" si="118"/>
+        <v>9018</v>
+      </c>
+      <c r="D259">
+        <f t="shared" si="62"/>
+        <v>52</v>
+      </c>
+      <c r="E259">
+        <v>1</v>
+      </c>
+      <c r="F259" s="2">
+        <f t="shared" si="56"/>
+        <v>4.9998994864659424E+174</v>
+      </c>
+      <c r="G259">
+        <v>1000</v>
+      </c>
+      <c r="H259">
+        <v>8</v>
+      </c>
+      <c r="I259">
+        <v>0</v>
+      </c>
+      <c r="J259">
+        <v>53400</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260" s="1" t="str">
+        <f t="shared" ref="B260:C260" si="119">B255</f>
+        <v>1-1</v>
+      </c>
+      <c r="C260" s="3">
+        <f t="shared" si="119"/>
+        <v>9018</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="62"/>
+        <v>52</v>
+      </c>
+      <c r="E260">
+        <v>1</v>
+      </c>
+      <c r="F260" s="2">
+        <f t="shared" si="56"/>
+        <v>1.1249773844548371E+175</v>
+      </c>
+      <c r="G260">
+        <v>1000</v>
+      </c>
+      <c r="H260">
+        <v>8</v>
+      </c>
+      <c r="I260">
+        <v>0</v>
+      </c>
+      <c r="J260">
+        <v>53600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261" s="1" t="str">
+        <f t="shared" ref="B261:C261" si="120">B256</f>
+        <v>1-2</v>
+      </c>
+      <c r="C261" s="3">
+        <f t="shared" si="120"/>
+        <v>9013</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="62"/>
+        <v>53</v>
+      </c>
+      <c r="E261">
+        <v>1</v>
+      </c>
+      <c r="F261" s="2">
+        <f t="shared" ref="F261:F274" si="121">F260*2.25</f>
+        <v>2.5311991150233836E+175</v>
+      </c>
+      <c r="G261">
+        <v>1000</v>
+      </c>
+      <c r="H261">
+        <v>8</v>
+      </c>
+      <c r="I261">
+        <v>0</v>
+      </c>
+      <c r="J261">
+        <v>53800</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262" s="1" t="str">
+        <f t="shared" ref="B262:C262" si="122">B257</f>
+        <v>1-1</v>
+      </c>
+      <c r="C262" s="3">
+        <f t="shared" si="122"/>
+        <v>9018</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="62"/>
+        <v>53</v>
+      </c>
+      <c r="E262">
+        <v>1</v>
+      </c>
+      <c r="F262" s="2">
+        <f t="shared" si="121"/>
+        <v>5.6951980088026133E+175</v>
+      </c>
+      <c r="G262">
+        <v>1000</v>
+      </c>
+      <c r="H262">
+        <v>8</v>
+      </c>
+      <c r="I262">
+        <v>0</v>
+      </c>
+      <c r="J262">
+        <v>54000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263" s="1" t="str">
+        <f t="shared" ref="B263:C263" si="123">B258</f>
+        <v>1-1</v>
+      </c>
+      <c r="C263" s="3">
+        <f t="shared" si="123"/>
+        <v>9018</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="62"/>
+        <v>53</v>
+      </c>
+      <c r="E263">
+        <v>1</v>
+      </c>
+      <c r="F263" s="2">
+        <f t="shared" si="121"/>
+        <v>1.281419551980588E+176</v>
+      </c>
+      <c r="G263">
+        <v>1000</v>
+      </c>
+      <c r="H263">
+        <v>8</v>
+      </c>
+      <c r="I263">
+        <v>0</v>
+      </c>
+      <c r="J263">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264" s="1" t="str">
+        <f t="shared" ref="B264:C264" si="124">B259</f>
+        <v>1-1</v>
+      </c>
+      <c r="C264" s="3">
+        <f t="shared" si="124"/>
+        <v>9018</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="62"/>
+        <v>53</v>
+      </c>
+      <c r="E264">
+        <v>1</v>
+      </c>
+      <c r="F264" s="2">
+        <f t="shared" si="121"/>
+        <v>2.883193991956323E+176</v>
+      </c>
+      <c r="G264">
+        <v>1000</v>
+      </c>
+      <c r="H264">
+        <v>8</v>
+      </c>
+      <c r="I264">
+        <v>0</v>
+      </c>
+      <c r="J264">
+        <v>54400</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1" t="str">
+        <f t="shared" ref="B265:C265" si="125">B260</f>
+        <v>1-1</v>
+      </c>
+      <c r="C265" s="3">
+        <f t="shared" si="125"/>
+        <v>9018</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="62"/>
+        <v>53</v>
+      </c>
+      <c r="E265">
+        <v>1</v>
+      </c>
+      <c r="F265" s="2">
+        <f t="shared" si="121"/>
+        <v>6.4871864819017261E+176</v>
+      </c>
+      <c r="G265">
+        <v>1000</v>
+      </c>
+      <c r="H265">
+        <v>8</v>
+      </c>
+      <c r="I265">
+        <v>0</v>
+      </c>
+      <c r="J265">
+        <v>54600</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1" t="str">
+        <f t="shared" ref="B266:C266" si="126">B261</f>
+        <v>1-2</v>
+      </c>
+      <c r="C266" s="3">
+        <f t="shared" si="126"/>
+        <v>9013</v>
+      </c>
+      <c r="D266">
+        <f t="shared" ref="D266:D274" si="127">D261+1</f>
+        <v>54</v>
+      </c>
+      <c r="E266">
+        <v>1</v>
+      </c>
+      <c r="F266" s="2">
+        <f t="shared" si="121"/>
+        <v>1.4596169584278884E+177</v>
+      </c>
+      <c r="G266">
+        <v>1000</v>
+      </c>
+      <c r="H266">
+        <v>8</v>
+      </c>
+      <c r="I266">
+        <v>0</v>
+      </c>
+      <c r="J266">
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1" t="str">
+        <f t="shared" ref="B267:C267" si="128">B262</f>
+        <v>1-1</v>
+      </c>
+      <c r="C267" s="3">
+        <f t="shared" si="128"/>
+        <v>9018</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="127"/>
+        <v>54</v>
+      </c>
+      <c r="E267">
+        <v>1</v>
+      </c>
+      <c r="F267" s="2">
+        <f t="shared" si="121"/>
+        <v>3.2841381564627487E+177</v>
+      </c>
+      <c r="G267">
+        <v>1000</v>
+      </c>
+      <c r="H267">
+        <v>8</v>
+      </c>
+      <c r="I267">
+        <v>0</v>
+      </c>
+      <c r="J267">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1" t="str">
+        <f t="shared" ref="B268:C268" si="129">B263</f>
+        <v>1-1</v>
+      </c>
+      <c r="C268" s="3">
+        <f t="shared" si="129"/>
+        <v>9018</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="127"/>
+        <v>54</v>
+      </c>
+      <c r="E268">
+        <v>1</v>
+      </c>
+      <c r="F268" s="2">
+        <f t="shared" si="121"/>
+        <v>7.3893108520411846E+177</v>
+      </c>
+      <c r="G268">
+        <v>1000</v>
+      </c>
+      <c r="H268">
+        <v>8</v>
+      </c>
+      <c r="I268">
+        <v>0</v>
+      </c>
+      <c r="J268">
+        <v>55200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1" t="str">
+        <f t="shared" ref="B269:C269" si="130">B264</f>
+        <v>1-1</v>
+      </c>
+      <c r="C269" s="3">
+        <f t="shared" si="130"/>
+        <v>9018</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="127"/>
+        <v>54</v>
+      </c>
+      <c r="E269">
+        <v>1</v>
+      </c>
+      <c r="F269" s="2">
+        <f t="shared" si="121"/>
+        <v>1.6625949417092666E+178</v>
+      </c>
+      <c r="G269">
+        <v>1000</v>
+      </c>
+      <c r="H269">
+        <v>8</v>
+      </c>
+      <c r="I269">
+        <v>0</v>
+      </c>
+      <c r="J269">
+        <v>55400</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1" t="str">
+        <f t="shared" ref="B270:C270" si="131">B265</f>
+        <v>1-1</v>
+      </c>
+      <c r="C270" s="3">
+        <f t="shared" si="131"/>
+        <v>9018</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="127"/>
+        <v>54</v>
+      </c>
+      <c r="E270">
+        <v>1</v>
+      </c>
+      <c r="F270" s="2">
+        <f t="shared" si="121"/>
+        <v>3.7408386188458502E+178</v>
+      </c>
+      <c r="G270">
+        <v>1000</v>
+      </c>
+      <c r="H270">
+        <v>8</v>
+      </c>
+      <c r="I270">
+        <v>0</v>
+      </c>
+      <c r="J270">
+        <v>55600</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1" t="str">
+        <f t="shared" ref="B271:C271" si="132">B266</f>
+        <v>1-2</v>
+      </c>
+      <c r="C271" s="3">
+        <f t="shared" si="132"/>
+        <v>9013</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="127"/>
+        <v>55</v>
+      </c>
+      <c r="E271">
+        <v>1</v>
+      </c>
+      <c r="F271" s="2">
+        <f t="shared" si="121"/>
+        <v>8.4168868924031633E+178</v>
+      </c>
+      <c r="G271">
+        <v>1000</v>
+      </c>
+      <c r="H271">
+        <v>8</v>
+      </c>
+      <c r="I271">
+        <v>0</v>
+      </c>
+      <c r="J271">
+        <v>55800</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1" t="str">
+        <f t="shared" ref="B272:C272" si="133">B267</f>
+        <v>1-1</v>
+      </c>
+      <c r="C272" s="3">
+        <f t="shared" si="133"/>
+        <v>9018</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="127"/>
+        <v>55</v>
+      </c>
+      <c r="E272">
+        <v>1</v>
+      </c>
+      <c r="F272" s="2">
+        <f t="shared" si="121"/>
+        <v>1.8937995507907117E+179</v>
+      </c>
+      <c r="G272">
+        <v>1000</v>
+      </c>
+      <c r="H272">
+        <v>8</v>
+      </c>
+      <c r="I272">
+        <v>0</v>
+      </c>
+      <c r="J272">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1" t="str">
+        <f t="shared" ref="B273:C273" si="134">B268</f>
+        <v>1-1</v>
+      </c>
+      <c r="C273" s="3">
+        <f t="shared" si="134"/>
+        <v>9018</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="127"/>
+        <v>55</v>
+      </c>
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273" s="2">
+        <f t="shared" si="121"/>
+        <v>4.2610489892791011E+179</v>
+      </c>
+      <c r="G273">
+        <v>1000</v>
+      </c>
+      <c r="H273">
+        <v>8</v>
+      </c>
+      <c r="I273">
+        <v>0</v>
+      </c>
+      <c r="J273">
+        <v>56200</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1" t="str">
+        <f t="shared" ref="B274:C274" si="135">B269</f>
+        <v>1-1</v>
+      </c>
+      <c r="C274" s="3">
+        <f t="shared" si="135"/>
+        <v>9018</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="127"/>
+        <v>55</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274" s="2">
+        <f t="shared" si="121"/>
+        <v>9.5873602258779775E+179</v>
+      </c>
+      <c r="G274">
+        <v>1000</v>
+      </c>
+      <c r="H274">
+        <v>8</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>56400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B251 D2:J251">
+  <conditionalFormatting sqref="A2:B274 D2:J274">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -9780,7 +10608,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="9" bestFit="1" customWidth="1"/>
@@ -9788,24 +10616,24 @@
     <col min="4" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -9815,7 +10643,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickTop="1">
+    <row r="8" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -9831,7 +10659,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -9847,7 +10675,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -9863,7 +10691,7 @@
         <v>000000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -9879,7 +10707,7 @@
         <v>0000000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
@@ -9895,7 +10723,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
@@ -9911,7 +10739,7 @@
         <v>1E+24</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -9927,7 +10755,7 @@
         <v>1E+28</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
@@ -9943,7 +10771,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -9959,7 +10787,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -9975,7 +10803,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
@@ -9991,7 +10819,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
@@ -10007,7 +10835,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
@@ -10023,7 +10851,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
@@ -10039,7 +10867,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -10055,7 +10883,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
@@ -10071,7 +10899,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
@@ -10087,7 +10915,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
@@ -10103,7 +10931,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
@@ -10119,7 +10947,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
@@ -10135,7 +10963,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
@@ -10151,7 +10979,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
@@ -10167,7 +10995,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
@@ -10183,7 +11011,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="12" t="s">
         <v>39</v>
       </c>
@@ -10199,13 +11027,13 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -10220,7 +11048,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -10235,7 +11063,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -10250,7 +11078,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -10265,7 +11093,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -10280,7 +11108,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -10295,7 +11123,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -10310,7 +11138,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -10323,7 +11151,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -10336,7 +11164,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -10349,7 +11177,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -10362,7 +11190,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -10375,7 +11203,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -10388,7 +11216,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -10401,7 +11229,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -10414,7 +11242,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -10427,7 +11255,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14">
+    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -10440,7 +11268,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="4:14">
+    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -10453,7 +11281,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14">
+    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -10466,7 +11294,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="4:14">
+    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -10479,7 +11307,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="4:14">
+    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -10492,7 +11320,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="4:14">
+    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -10505,7 +11333,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="4:14">
+    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -10518,7 +11346,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="4:14">
+    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -10531,7 +11359,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="4:14">
+    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -10544,7 +11372,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="4:14">
+    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -10557,7 +11385,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="4:14">
+    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -10570,7 +11398,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="4:14">
+    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -10583,7 +11411,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="4:14">
+    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -10596,7 +11424,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14">
+    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -10609,7 +11437,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="4:14">
+    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -10622,7 +11450,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="4:14">
+    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -10635,7 +11463,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="4:14">
+    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -10648,7 +11476,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="4:14">
+    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C84E23-751D-465F-A70C-804951AE63CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE547B9-D4D5-44C2-8D26-890A9A28622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J274"/>
+  <dimension ref="A1:J296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A253" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E269" sqref="E269"/>
+      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10104,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" ref="F261:F274" si="121">F260*2.25</f>
+        <f t="shared" ref="F261:F296" si="121">F260*2.25</f>
         <v>2.5311991150233836E+175</v>
       </c>
       <c r="G261">
@@ -10277,7 +10277,7 @@
         <v>9013</v>
       </c>
       <c r="D266">
-        <f t="shared" ref="D266:D274" si="127">D261+1</f>
+        <f t="shared" ref="D266:D296" si="127">D261+1</f>
         <v>54</v>
       </c>
       <c r="E266">
@@ -10588,9 +10588,801 @@
         <v>56400</v>
       </c>
     </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1" t="str">
+        <f t="shared" ref="B275:C275" si="136">B270</f>
+        <v>1-1</v>
+      </c>
+      <c r="C275" s="3">
+        <f t="shared" si="136"/>
+        <v>9018</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="127"/>
+        <v>55</v>
+      </c>
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275" s="2">
+        <f t="shared" si="121"/>
+        <v>2.157156050822545E+180</v>
+      </c>
+      <c r="G275">
+        <v>1000</v>
+      </c>
+      <c r="H275">
+        <v>8</v>
+      </c>
+      <c r="I275">
+        <v>0</v>
+      </c>
+      <c r="J275">
+        <v>56600</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1" t="str">
+        <f t="shared" ref="B276:C276" si="137">B271</f>
+        <v>1-2</v>
+      </c>
+      <c r="C276" s="3">
+        <f t="shared" si="137"/>
+        <v>9013</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="127"/>
+        <v>56</v>
+      </c>
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276" s="2">
+        <f t="shared" si="121"/>
+        <v>4.8536011143507263E+180</v>
+      </c>
+      <c r="G276">
+        <v>1000</v>
+      </c>
+      <c r="H276">
+        <v>8</v>
+      </c>
+      <c r="I276">
+        <v>0</v>
+      </c>
+      <c r="J276">
+        <v>56800</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1" t="str">
+        <f t="shared" ref="B277:C277" si="138">B272</f>
+        <v>1-1</v>
+      </c>
+      <c r="C277" s="3">
+        <f t="shared" si="138"/>
+        <v>9018</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="127"/>
+        <v>56</v>
+      </c>
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277" s="2">
+        <f t="shared" si="121"/>
+        <v>1.0920602507289134E+181</v>
+      </c>
+      <c r="G277">
+        <v>1000</v>
+      </c>
+      <c r="H277">
+        <v>8</v>
+      </c>
+      <c r="I277">
+        <v>0</v>
+      </c>
+      <c r="J277">
+        <v>57000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1" t="str">
+        <f t="shared" ref="B278:C278" si="139">B273</f>
+        <v>1-1</v>
+      </c>
+      <c r="C278" s="3">
+        <f t="shared" si="139"/>
+        <v>9018</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="127"/>
+        <v>56</v>
+      </c>
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278" s="2">
+        <f t="shared" si="121"/>
+        <v>2.4571355641400551E+181</v>
+      </c>
+      <c r="G278">
+        <v>1000</v>
+      </c>
+      <c r="H278">
+        <v>8</v>
+      </c>
+      <c r="I278">
+        <v>0</v>
+      </c>
+      <c r="J278">
+        <v>57200</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1" t="str">
+        <f t="shared" ref="B279:C279" si="140">B274</f>
+        <v>1-1</v>
+      </c>
+      <c r="C279" s="3">
+        <f t="shared" si="140"/>
+        <v>9018</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="127"/>
+        <v>56</v>
+      </c>
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279" s="2">
+        <f t="shared" si="121"/>
+        <v>5.528555019315124E+181</v>
+      </c>
+      <c r="G279">
+        <v>1000</v>
+      </c>
+      <c r="H279">
+        <v>8</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>57400</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1" t="str">
+        <f t="shared" ref="B280:C280" si="141">B275</f>
+        <v>1-1</v>
+      </c>
+      <c r="C280" s="3">
+        <f t="shared" si="141"/>
+        <v>9018</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="127"/>
+        <v>56</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280" s="2">
+        <f t="shared" si="121"/>
+        <v>1.2439248793459029E+182</v>
+      </c>
+      <c r="G280">
+        <v>1000</v>
+      </c>
+      <c r="H280">
+        <v>8</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>57600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1" t="str">
+        <f t="shared" ref="B281:C281" si="142">B276</f>
+        <v>1-2</v>
+      </c>
+      <c r="C281" s="3">
+        <f t="shared" si="142"/>
+        <v>9013</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="127"/>
+        <v>57</v>
+      </c>
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281" s="2">
+        <f t="shared" si="121"/>
+        <v>2.7988309785282818E+182</v>
+      </c>
+      <c r="G281">
+        <v>1000</v>
+      </c>
+      <c r="H281">
+        <v>8</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>57800</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1" t="str">
+        <f t="shared" ref="B282:C282" si="143">B277</f>
+        <v>1-1</v>
+      </c>
+      <c r="C282" s="3">
+        <f t="shared" si="143"/>
+        <v>9018</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="127"/>
+        <v>57</v>
+      </c>
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282" s="2">
+        <f t="shared" si="121"/>
+        <v>6.2973697016886343E+182</v>
+      </c>
+      <c r="G282">
+        <v>1000</v>
+      </c>
+      <c r="H282">
+        <v>8</v>
+      </c>
+      <c r="I282">
+        <v>0</v>
+      </c>
+      <c r="J282">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1" t="str">
+        <f t="shared" ref="B283:C283" si="144">B278</f>
+        <v>1-1</v>
+      </c>
+      <c r="C283" s="3">
+        <f t="shared" si="144"/>
+        <v>9018</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="127"/>
+        <v>57</v>
+      </c>
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" s="2">
+        <f t="shared" si="121"/>
+        <v>1.4169081828799427E+183</v>
+      </c>
+      <c r="G283">
+        <v>1000</v>
+      </c>
+      <c r="H283">
+        <v>8</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>58200</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1" t="str">
+        <f t="shared" ref="B284:C284" si="145">B279</f>
+        <v>1-1</v>
+      </c>
+      <c r="C284" s="3">
+        <f t="shared" si="145"/>
+        <v>9018</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="127"/>
+        <v>57</v>
+      </c>
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" s="2">
+        <f t="shared" si="121"/>
+        <v>3.1880434114798712E+183</v>
+      </c>
+      <c r="G284">
+        <v>1000</v>
+      </c>
+      <c r="H284">
+        <v>8</v>
+      </c>
+      <c r="I284">
+        <v>0</v>
+      </c>
+      <c r="J284">
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1" t="str">
+        <f t="shared" ref="B285:C285" si="146">B280</f>
+        <v>1-1</v>
+      </c>
+      <c r="C285" s="3">
+        <f t="shared" si="146"/>
+        <v>9018</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="127"/>
+        <v>57</v>
+      </c>
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" s="2">
+        <f t="shared" si="121"/>
+        <v>7.1730976758297101E+183</v>
+      </c>
+      <c r="G285">
+        <v>1000</v>
+      </c>
+      <c r="H285">
+        <v>8</v>
+      </c>
+      <c r="I285">
+        <v>0</v>
+      </c>
+      <c r="J285">
+        <v>58600</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1" t="str">
+        <f t="shared" ref="B286:C286" si="147">B281</f>
+        <v>1-2</v>
+      </c>
+      <c r="C286" s="3">
+        <f t="shared" si="147"/>
+        <v>9013</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="127"/>
+        <v>58</v>
+      </c>
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" s="2">
+        <f t="shared" si="121"/>
+        <v>1.6139469770616848E+184</v>
+      </c>
+      <c r="G286">
+        <v>1000</v>
+      </c>
+      <c r="H286">
+        <v>8</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>58800</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1" t="str">
+        <f t="shared" ref="B287:C287" si="148">B282</f>
+        <v>1-1</v>
+      </c>
+      <c r="C287" s="3">
+        <f t="shared" si="148"/>
+        <v>9018</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="127"/>
+        <v>58</v>
+      </c>
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" s="2">
+        <f t="shared" si="121"/>
+        <v>3.6313806983887906E+184</v>
+      </c>
+      <c r="G287">
+        <v>1000</v>
+      </c>
+      <c r="H287">
+        <v>8</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>59000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1" t="str">
+        <f t="shared" ref="B288:C288" si="149">B283</f>
+        <v>1-1</v>
+      </c>
+      <c r="C288" s="3">
+        <f t="shared" si="149"/>
+        <v>9018</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="127"/>
+        <v>58</v>
+      </c>
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" s="2">
+        <f t="shared" si="121"/>
+        <v>8.1706065713747789E+184</v>
+      </c>
+      <c r="G288">
+        <v>1000</v>
+      </c>
+      <c r="H288">
+        <v>8</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>59200</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1" t="str">
+        <f t="shared" ref="B289:C289" si="150">B284</f>
+        <v>1-1</v>
+      </c>
+      <c r="C289" s="3">
+        <f t="shared" si="150"/>
+        <v>9018</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="127"/>
+        <v>58</v>
+      </c>
+      <c r="E289">
+        <v>1</v>
+      </c>
+      <c r="F289" s="2">
+        <f t="shared" si="121"/>
+        <v>1.8383864785593253E+185</v>
+      </c>
+      <c r="G289">
+        <v>1000</v>
+      </c>
+      <c r="H289">
+        <v>8</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>59400</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1" t="str">
+        <f t="shared" ref="B290:C290" si="151">B285</f>
+        <v>1-1</v>
+      </c>
+      <c r="C290" s="3">
+        <f t="shared" si="151"/>
+        <v>9018</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="127"/>
+        <v>58</v>
+      </c>
+      <c r="E290">
+        <v>1</v>
+      </c>
+      <c r="F290" s="2">
+        <f t="shared" si="121"/>
+        <v>4.136369576758482E+185</v>
+      </c>
+      <c r="G290">
+        <v>1000</v>
+      </c>
+      <c r="H290">
+        <v>8</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>59600</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1" t="str">
+        <f t="shared" ref="B291:C291" si="152">B286</f>
+        <v>1-2</v>
+      </c>
+      <c r="C291" s="3">
+        <f t="shared" si="152"/>
+        <v>9013</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="127"/>
+        <v>59</v>
+      </c>
+      <c r="E291">
+        <v>1</v>
+      </c>
+      <c r="F291" s="2">
+        <f t="shared" si="121"/>
+        <v>9.3068315477065851E+185</v>
+      </c>
+      <c r="G291">
+        <v>1000</v>
+      </c>
+      <c r="H291">
+        <v>8</v>
+      </c>
+      <c r="I291">
+        <v>0</v>
+      </c>
+      <c r="J291">
+        <v>59800</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1" t="str">
+        <f t="shared" ref="B292:C292" si="153">B287</f>
+        <v>1-1</v>
+      </c>
+      <c r="C292" s="3">
+        <f t="shared" si="153"/>
+        <v>9018</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="127"/>
+        <v>59</v>
+      </c>
+      <c r="E292">
+        <v>1</v>
+      </c>
+      <c r="F292" s="2">
+        <f t="shared" si="121"/>
+        <v>2.0940370982339816E+186</v>
+      </c>
+      <c r="G292">
+        <v>1000</v>
+      </c>
+      <c r="H292">
+        <v>8</v>
+      </c>
+      <c r="I292">
+        <v>0</v>
+      </c>
+      <c r="J292">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1" t="str">
+        <f t="shared" ref="B293:C293" si="154">B288</f>
+        <v>1-1</v>
+      </c>
+      <c r="C293" s="3">
+        <f t="shared" si="154"/>
+        <v>9018</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="127"/>
+        <v>59</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293" s="2">
+        <f t="shared" si="121"/>
+        <v>4.7115834710264586E+186</v>
+      </c>
+      <c r="G293">
+        <v>1000</v>
+      </c>
+      <c r="H293">
+        <v>8</v>
+      </c>
+      <c r="I293">
+        <v>0</v>
+      </c>
+      <c r="J293">
+        <v>60200</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1" t="str">
+        <f t="shared" ref="B294:C294" si="155">B289</f>
+        <v>1-1</v>
+      </c>
+      <c r="C294" s="3">
+        <f t="shared" si="155"/>
+        <v>9018</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="127"/>
+        <v>59</v>
+      </c>
+      <c r="E294">
+        <v>1</v>
+      </c>
+      <c r="F294" s="2">
+        <f t="shared" si="121"/>
+        <v>1.0601062809809532E+187</v>
+      </c>
+      <c r="G294">
+        <v>1000</v>
+      </c>
+      <c r="H294">
+        <v>8</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>60400</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1" t="str">
+        <f t="shared" ref="B295:C295" si="156">B290</f>
+        <v>1-1</v>
+      </c>
+      <c r="C295" s="3">
+        <f t="shared" si="156"/>
+        <v>9018</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="127"/>
+        <v>59</v>
+      </c>
+      <c r="E295">
+        <v>1</v>
+      </c>
+      <c r="F295" s="2">
+        <f t="shared" si="121"/>
+        <v>2.3852391322071447E+187</v>
+      </c>
+      <c r="G295">
+        <v>1000</v>
+      </c>
+      <c r="H295">
+        <v>8</v>
+      </c>
+      <c r="I295">
+        <v>0</v>
+      </c>
+      <c r="J295">
+        <v>60600</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1" t="str">
+        <f t="shared" ref="B296:C296" si="157">B291</f>
+        <v>1-2</v>
+      </c>
+      <c r="C296" s="3">
+        <f t="shared" si="157"/>
+        <v>9013</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="127"/>
+        <v>60</v>
+      </c>
+      <c r="E296">
+        <v>1</v>
+      </c>
+      <c r="F296" s="2">
+        <f t="shared" si="121"/>
+        <v>5.3667880474660756E+187</v>
+      </c>
+      <c r="G296">
+        <v>1000</v>
+      </c>
+      <c r="H296">
+        <v>8</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>60800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B274 D2:J274">
+  <conditionalFormatting sqref="A2:B296 D2:J296">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE547B9-D4D5-44C2-8D26-890A9A28622F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C19D3-869B-4A37-8185-FD056C5B6F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -392,7 +392,29 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="dashed">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="dashed">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -725,11 +747,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J296"/>
+  <dimension ref="A1:J308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E292" sqref="E292"/>
+      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I303" sqref="I303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10104,7 +10126,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" ref="F261:F296" si="121">F260*2.25</f>
+        <f t="shared" ref="F261:F309" si="121">F260*2.25</f>
         <v>2.5311991150233836E+175</v>
       </c>
       <c r="G261">
@@ -10277,7 +10299,7 @@
         <v>9013</v>
       </c>
       <c r="D266">
-        <f t="shared" ref="D266:D296" si="127">D261+1</f>
+        <f t="shared" ref="D266:D309" si="127">D261+1</f>
         <v>54</v>
       </c>
       <c r="E266">
@@ -11380,9 +11402,441 @@
         <v>60800</v>
       </c>
     </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1" t="str">
+        <f t="shared" ref="B297:C297" si="158">B292</f>
+        <v>1-1</v>
+      </c>
+      <c r="C297" s="3">
+        <f t="shared" si="158"/>
+        <v>9018</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="127"/>
+        <v>60</v>
+      </c>
+      <c r="E297">
+        <v>1</v>
+      </c>
+      <c r="F297" s="2">
+        <f t="shared" si="121"/>
+        <v>1.207527310679867E+188</v>
+      </c>
+      <c r="G297">
+        <v>1000</v>
+      </c>
+      <c r="H297">
+        <v>8</v>
+      </c>
+      <c r="I297">
+        <v>0</v>
+      </c>
+      <c r="J297">
+        <v>61000</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1" t="str">
+        <f t="shared" ref="B298:C298" si="159">B293</f>
+        <v>1-1</v>
+      </c>
+      <c r="C298" s="3">
+        <f t="shared" si="159"/>
+        <v>9018</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="127"/>
+        <v>60</v>
+      </c>
+      <c r="E298">
+        <v>1</v>
+      </c>
+      <c r="F298" s="2">
+        <f t="shared" si="121"/>
+        <v>2.7169364490297008E+188</v>
+      </c>
+      <c r="G298">
+        <v>1000</v>
+      </c>
+      <c r="H298">
+        <v>8</v>
+      </c>
+      <c r="I298">
+        <v>0</v>
+      </c>
+      <c r="J298">
+        <v>61200</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1" t="str">
+        <f t="shared" ref="B299:C299" si="160">B294</f>
+        <v>1-1</v>
+      </c>
+      <c r="C299" s="3">
+        <f t="shared" si="160"/>
+        <v>9018</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="127"/>
+        <v>60</v>
+      </c>
+      <c r="E299">
+        <v>1</v>
+      </c>
+      <c r="F299" s="2">
+        <f t="shared" si="121"/>
+        <v>6.1131070103168272E+188</v>
+      </c>
+      <c r="G299">
+        <v>1000</v>
+      </c>
+      <c r="H299">
+        <v>8</v>
+      </c>
+      <c r="I299">
+        <v>0</v>
+      </c>
+      <c r="J299">
+        <v>61400</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1" t="str">
+        <f t="shared" ref="B300:C300" si="161">B295</f>
+        <v>1-1</v>
+      </c>
+      <c r="C300" s="3">
+        <f t="shared" si="161"/>
+        <v>9018</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="127"/>
+        <v>60</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300" s="2">
+        <f t="shared" si="121"/>
+        <v>1.3754490773212862E+189</v>
+      </c>
+      <c r="G300">
+        <v>1000</v>
+      </c>
+      <c r="H300">
+        <v>8</v>
+      </c>
+      <c r="I300">
+        <v>0</v>
+      </c>
+      <c r="J300">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1" t="str">
+        <f t="shared" ref="B301:C301" si="162">B296</f>
+        <v>1-2</v>
+      </c>
+      <c r="C301" s="3">
+        <f t="shared" si="162"/>
+        <v>9013</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="127"/>
+        <v>61</v>
+      </c>
+      <c r="E301">
+        <v>1</v>
+      </c>
+      <c r="F301" s="2">
+        <f t="shared" si="121"/>
+        <v>3.094760423972894E+189</v>
+      </c>
+      <c r="G301">
+        <v>1000</v>
+      </c>
+      <c r="H301">
+        <v>8</v>
+      </c>
+      <c r="I301">
+        <v>0</v>
+      </c>
+      <c r="J301">
+        <v>61800</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1" t="str">
+        <f t="shared" ref="B302:C302" si="163">B297</f>
+        <v>1-1</v>
+      </c>
+      <c r="C302" s="3">
+        <f t="shared" si="163"/>
+        <v>9018</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="127"/>
+        <v>61</v>
+      </c>
+      <c r="E302">
+        <v>1</v>
+      </c>
+      <c r="F302" s="2">
+        <f t="shared" si="121"/>
+        <v>6.9632109539390116E+189</v>
+      </c>
+      <c r="G302">
+        <v>1000</v>
+      </c>
+      <c r="H302">
+        <v>8</v>
+      </c>
+      <c r="I302">
+        <v>0</v>
+      </c>
+      <c r="J302">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1" t="str">
+        <f t="shared" ref="B303:C304" si="164">B298</f>
+        <v>1-1</v>
+      </c>
+      <c r="C303" s="3">
+        <f t="shared" si="164"/>
+        <v>9018</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="127"/>
+        <v>61</v>
+      </c>
+      <c r="E303">
+        <v>1</v>
+      </c>
+      <c r="F303" s="2">
+        <f t="shared" si="121"/>
+        <v>1.5667224646362776E+190</v>
+      </c>
+      <c r="G303">
+        <v>1000</v>
+      </c>
+      <c r="H303">
+        <v>8</v>
+      </c>
+      <c r="I303">
+        <v>0</v>
+      </c>
+      <c r="J303">
+        <v>62200</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1" t="str">
+        <f t="shared" si="164"/>
+        <v>1-1</v>
+      </c>
+      <c r="C304" s="3">
+        <f t="shared" si="164"/>
+        <v>9018</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="127"/>
+        <v>61</v>
+      </c>
+      <c r="E304">
+        <v>1</v>
+      </c>
+      <c r="F304" s="2">
+        <f t="shared" si="121"/>
+        <v>3.5251255454316246E+190</v>
+      </c>
+      <c r="G304">
+        <v>1000</v>
+      </c>
+      <c r="H304">
+        <v>8</v>
+      </c>
+      <c r="I304">
+        <v>0</v>
+      </c>
+      <c r="J304">
+        <v>62400</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1" t="str">
+        <f t="shared" ref="B305:C305" si="165">B300</f>
+        <v>1-1</v>
+      </c>
+      <c r="C305" s="3">
+        <f t="shared" si="165"/>
+        <v>9018</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="127"/>
+        <v>61</v>
+      </c>
+      <c r="E305">
+        <v>1</v>
+      </c>
+      <c r="F305" s="2">
+        <f t="shared" si="121"/>
+        <v>7.9315324772211548E+190</v>
+      </c>
+      <c r="G305">
+        <v>1000</v>
+      </c>
+      <c r="H305">
+        <v>8</v>
+      </c>
+      <c r="I305">
+        <v>0</v>
+      </c>
+      <c r="J305">
+        <v>62600</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1" t="str">
+        <f t="shared" ref="B306:C306" si="166">B301</f>
+        <v>1-2</v>
+      </c>
+      <c r="C306" s="3">
+        <f t="shared" si="166"/>
+        <v>9013</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="127"/>
+        <v>62</v>
+      </c>
+      <c r="E306">
+        <v>1</v>
+      </c>
+      <c r="F306" s="2">
+        <f t="shared" si="121"/>
+        <v>1.78459480737476E+191</v>
+      </c>
+      <c r="G306">
+        <v>1000</v>
+      </c>
+      <c r="H306">
+        <v>8</v>
+      </c>
+      <c r="I306">
+        <v>0</v>
+      </c>
+      <c r="J306">
+        <v>62800</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1" t="str">
+        <f t="shared" ref="B307:C307" si="167">B302</f>
+        <v>1-1</v>
+      </c>
+      <c r="C307" s="3">
+        <f t="shared" si="167"/>
+        <v>9018</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="127"/>
+        <v>62</v>
+      </c>
+      <c r="E307">
+        <v>1</v>
+      </c>
+      <c r="F307" s="2">
+        <f t="shared" si="121"/>
+        <v>4.0153383165932103E+191</v>
+      </c>
+      <c r="G307">
+        <v>1000</v>
+      </c>
+      <c r="H307">
+        <v>8</v>
+      </c>
+      <c r="I307">
+        <v>0</v>
+      </c>
+      <c r="J307">
+        <v>63000</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1" t="str">
+        <f t="shared" ref="B308:C309" si="168">B303</f>
+        <v>1-1</v>
+      </c>
+      <c r="C308" s="3">
+        <f t="shared" si="168"/>
+        <v>9018</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="127"/>
+        <v>62</v>
+      </c>
+      <c r="E308">
+        <v>1</v>
+      </c>
+      <c r="F308" s="2">
+        <f t="shared" si="121"/>
+        <v>9.0345112123347228E+191</v>
+      </c>
+      <c r="G308">
+        <v>1000</v>
+      </c>
+      <c r="H308">
+        <v>8</v>
+      </c>
+      <c r="I308">
+        <v>0</v>
+      </c>
+      <c r="J308">
+        <v>63200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B296 D2:J296">
+  <conditionalFormatting sqref="A2:B308 D2:J308">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7C19D3-869B-4A37-8185-FD056C5B6F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EEBA8-22C8-49BC-BB8C-891A5AD5AA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -392,29 +392,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>
@@ -747,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J308"/>
+  <dimension ref="A1:J319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A292" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I303" sqref="I303"/>
+      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G317" sqref="G317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10126,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" ref="F261:F309" si="121">F260*2.25</f>
+        <f t="shared" ref="F261:F319" si="121">F260*2.25</f>
         <v>2.5311991150233836E+175</v>
       </c>
       <c r="G261">
@@ -10299,7 +10277,7 @@
         <v>9013</v>
       </c>
       <c r="D266">
-        <f t="shared" ref="D266:D309" si="127">D261+1</f>
+        <f t="shared" ref="D266:D319" si="127">D261+1</f>
         <v>54</v>
       </c>
       <c r="E266">
@@ -11803,7 +11781,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="1" t="str">
-        <f t="shared" ref="B308:C309" si="168">B303</f>
+        <f t="shared" ref="B308:C308" si="168">B303</f>
         <v>1-1</v>
       </c>
       <c r="C308" s="3">
@@ -11834,9 +11812,405 @@
         <v>63200</v>
       </c>
     </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1" t="str">
+        <f t="shared" ref="B309:C309" si="169">B304</f>
+        <v>1-1</v>
+      </c>
+      <c r="C309" s="3">
+        <f t="shared" si="169"/>
+        <v>9018</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="127"/>
+        <v>62</v>
+      </c>
+      <c r="E309">
+        <v>1</v>
+      </c>
+      <c r="F309" s="2">
+        <f t="shared" si="121"/>
+        <v>2.0327650227753127E+192</v>
+      </c>
+      <c r="G309">
+        <v>1000</v>
+      </c>
+      <c r="H309">
+        <v>8</v>
+      </c>
+      <c r="I309">
+        <v>0</v>
+      </c>
+      <c r="J309">
+        <v>63400</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1" t="str">
+        <f t="shared" ref="B310:C310" si="170">B305</f>
+        <v>1-1</v>
+      </c>
+      <c r="C310" s="3">
+        <f t="shared" si="170"/>
+        <v>9018</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="127"/>
+        <v>62</v>
+      </c>
+      <c r="E310">
+        <v>1</v>
+      </c>
+      <c r="F310" s="2">
+        <f t="shared" si="121"/>
+        <v>4.5737213012444532E+192</v>
+      </c>
+      <c r="G310">
+        <v>1000</v>
+      </c>
+      <c r="H310">
+        <v>8</v>
+      </c>
+      <c r="I310">
+        <v>0</v>
+      </c>
+      <c r="J310">
+        <v>63600</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1" t="str">
+        <f t="shared" ref="B311:C311" si="171">B306</f>
+        <v>1-2</v>
+      </c>
+      <c r="C311" s="3">
+        <f t="shared" si="171"/>
+        <v>9013</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="127"/>
+        <v>63</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311" s="2">
+        <f t="shared" si="121"/>
+        <v>1.029087292780002E+193</v>
+      </c>
+      <c r="G311">
+        <v>1000</v>
+      </c>
+      <c r="H311">
+        <v>8</v>
+      </c>
+      <c r="I311">
+        <v>0</v>
+      </c>
+      <c r="J311">
+        <v>63800</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1" t="str">
+        <f t="shared" ref="B312:C312" si="172">B307</f>
+        <v>1-1</v>
+      </c>
+      <c r="C312" s="3">
+        <f t="shared" si="172"/>
+        <v>9018</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="127"/>
+        <v>63</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312" s="2">
+        <f t="shared" si="121"/>
+        <v>2.3154464087550047E+193</v>
+      </c>
+      <c r="G312">
+        <v>1000</v>
+      </c>
+      <c r="H312">
+        <v>8</v>
+      </c>
+      <c r="I312">
+        <v>0</v>
+      </c>
+      <c r="J312">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1" t="str">
+        <f t="shared" ref="B313:C313" si="173">B308</f>
+        <v>1-1</v>
+      </c>
+      <c r="C313" s="3">
+        <f t="shared" si="173"/>
+        <v>9018</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="127"/>
+        <v>63</v>
+      </c>
+      <c r="E313">
+        <v>1</v>
+      </c>
+      <c r="F313" s="2">
+        <f t="shared" si="121"/>
+        <v>5.2097544196987607E+193</v>
+      </c>
+      <c r="G313">
+        <v>1000</v>
+      </c>
+      <c r="H313">
+        <v>8</v>
+      </c>
+      <c r="I313">
+        <v>0</v>
+      </c>
+      <c r="J313">
+        <v>64200</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1" t="str">
+        <f t="shared" ref="B314:C314" si="174">B309</f>
+        <v>1-1</v>
+      </c>
+      <c r="C314" s="3">
+        <f t="shared" si="174"/>
+        <v>9018</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="127"/>
+        <v>63</v>
+      </c>
+      <c r="E314">
+        <v>1</v>
+      </c>
+      <c r="F314" s="2">
+        <f t="shared" si="121"/>
+        <v>1.1721947444322212E+194</v>
+      </c>
+      <c r="G314">
+        <v>1000</v>
+      </c>
+      <c r="H314">
+        <v>8</v>
+      </c>
+      <c r="I314">
+        <v>0</v>
+      </c>
+      <c r="J314">
+        <v>64400</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1" t="str">
+        <f t="shared" ref="B315:C315" si="175">B310</f>
+        <v>1-1</v>
+      </c>
+      <c r="C315" s="3">
+        <f t="shared" si="175"/>
+        <v>9018</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="127"/>
+        <v>63</v>
+      </c>
+      <c r="E315">
+        <v>1</v>
+      </c>
+      <c r="F315" s="2">
+        <f t="shared" si="121"/>
+        <v>2.6374381749724978E+194</v>
+      </c>
+      <c r="G315">
+        <v>1000</v>
+      </c>
+      <c r="H315">
+        <v>8</v>
+      </c>
+      <c r="I315">
+        <v>0</v>
+      </c>
+      <c r="J315">
+        <v>64600</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1" t="str">
+        <f t="shared" ref="B316:C316" si="176">B311</f>
+        <v>1-2</v>
+      </c>
+      <c r="C316" s="3">
+        <f t="shared" si="176"/>
+        <v>9013</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="127"/>
+        <v>64</v>
+      </c>
+      <c r="E316">
+        <v>1</v>
+      </c>
+      <c r="F316" s="2">
+        <f t="shared" si="121"/>
+        <v>5.9342358936881207E+194</v>
+      </c>
+      <c r="G316">
+        <v>1000</v>
+      </c>
+      <c r="H316">
+        <v>8</v>
+      </c>
+      <c r="I316">
+        <v>0</v>
+      </c>
+      <c r="J316">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1" t="str">
+        <f t="shared" ref="B317:C317" si="177">B312</f>
+        <v>1-1</v>
+      </c>
+      <c r="C317" s="3">
+        <f t="shared" si="177"/>
+        <v>9018</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="127"/>
+        <v>64</v>
+      </c>
+      <c r="E317">
+        <v>1</v>
+      </c>
+      <c r="F317" s="2">
+        <f t="shared" si="121"/>
+        <v>1.3352030760798272E+195</v>
+      </c>
+      <c r="G317">
+        <v>1000</v>
+      </c>
+      <c r="H317">
+        <v>8</v>
+      </c>
+      <c r="I317">
+        <v>0</v>
+      </c>
+      <c r="J317">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1" t="str">
+        <f t="shared" ref="B318:C318" si="178">B313</f>
+        <v>1-1</v>
+      </c>
+      <c r="C318" s="3">
+        <f t="shared" si="178"/>
+        <v>9018</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="127"/>
+        <v>64</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318" s="2">
+        <f t="shared" si="121"/>
+        <v>3.0042069211796114E+195</v>
+      </c>
+      <c r="G318">
+        <v>1000</v>
+      </c>
+      <c r="H318">
+        <v>8</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>65200</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1" t="str">
+        <f t="shared" ref="B319:C319" si="179">B314</f>
+        <v>1-1</v>
+      </c>
+      <c r="C319" s="3">
+        <f t="shared" si="179"/>
+        <v>9018</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="127"/>
+        <v>64</v>
+      </c>
+      <c r="E319">
+        <v>1</v>
+      </c>
+      <c r="F319" s="2">
+        <f t="shared" si="121"/>
+        <v>6.7594655726541257E+195</v>
+      </c>
+      <c r="G319">
+        <v>1000</v>
+      </c>
+      <c r="H319">
+        <v>8</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319">
+        <v>65400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B308 D2:J308">
+  <conditionalFormatting sqref="A2:B319 D2:J319">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159EEBA8-22C8-49BC-BB8C-891A5AD5AA1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA98059-3D48-4DB9-BCEC-391799CE68E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J319"/>
+  <dimension ref="A1:J342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G317" sqref="G317"/>
+      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10104,7 +10104,7 @@
         <v>1</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" ref="F261:F319" si="121">F260*2.25</f>
+        <f t="shared" ref="F261:F324" si="121">F260*2.25</f>
         <v>2.5311991150233836E+175</v>
       </c>
       <c r="G261">
@@ -10277,7 +10277,7 @@
         <v>9013</v>
       </c>
       <c r="D266">
-        <f t="shared" ref="D266:D319" si="127">D261+1</f>
+        <f t="shared" ref="D266:D329" si="127">D261+1</f>
         <v>54</v>
       </c>
       <c r="E266">
@@ -12208,9 +12208,837 @@
         <v>65400</v>
       </c>
     </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1" t="str">
+        <f t="shared" ref="B320:C320" si="180">B315</f>
+        <v>1-1</v>
+      </c>
+      <c r="C320" s="3">
+        <f t="shared" si="180"/>
+        <v>9018</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="127"/>
+        <v>64</v>
+      </c>
+      <c r="E320">
+        <v>1</v>
+      </c>
+      <c r="F320" s="2">
+        <f t="shared" si="121"/>
+        <v>1.5208797538471783E+196</v>
+      </c>
+      <c r="G320">
+        <v>1000</v>
+      </c>
+      <c r="H320">
+        <v>8</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>65600</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1" t="str">
+        <f t="shared" ref="B321:C321" si="181">B316</f>
+        <v>1-2</v>
+      </c>
+      <c r="C321" s="3">
+        <f t="shared" si="181"/>
+        <v>9013</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="127"/>
+        <v>65</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321" s="2">
+        <f t="shared" si="121"/>
+        <v>3.4219794461561512E+196</v>
+      </c>
+      <c r="G321">
+        <v>1000</v>
+      </c>
+      <c r="H321">
+        <v>8</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>65800</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1" t="str">
+        <f t="shared" ref="B322:C322" si="182">B317</f>
+        <v>1-1</v>
+      </c>
+      <c r="C322" s="3">
+        <f t="shared" si="182"/>
+        <v>9018</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="127"/>
+        <v>65</v>
+      </c>
+      <c r="E322">
+        <v>1</v>
+      </c>
+      <c r="F322" s="2">
+        <f t="shared" si="121"/>
+        <v>7.69945375385134E+196</v>
+      </c>
+      <c r="G322">
+        <v>1000</v>
+      </c>
+      <c r="H322">
+        <v>8</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1" t="str">
+        <f t="shared" ref="B323:C323" si="183">B318</f>
+        <v>1-1</v>
+      </c>
+      <c r="C323" s="3">
+        <f t="shared" si="183"/>
+        <v>9018</v>
+      </c>
+      <c r="D323">
+        <f t="shared" si="127"/>
+        <v>65</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323" s="2">
+        <f t="shared" si="121"/>
+        <v>1.7323770946165516E+197</v>
+      </c>
+      <c r="G323">
+        <v>1000</v>
+      </c>
+      <c r="H323">
+        <v>8</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>66200</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1" t="str">
+        <f t="shared" ref="B324:C324" si="184">B319</f>
+        <v>1-1</v>
+      </c>
+      <c r="C324" s="3">
+        <f t="shared" si="184"/>
+        <v>9018</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="127"/>
+        <v>65</v>
+      </c>
+      <c r="E324">
+        <v>1</v>
+      </c>
+      <c r="F324" s="2">
+        <f t="shared" si="121"/>
+        <v>3.897848462887241E+197</v>
+      </c>
+      <c r="G324">
+        <v>1000</v>
+      </c>
+      <c r="H324">
+        <v>8</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324">
+        <v>66400</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1" t="str">
+        <f t="shared" ref="B325:C325" si="185">B320</f>
+        <v>1-1</v>
+      </c>
+      <c r="C325" s="3">
+        <f t="shared" si="185"/>
+        <v>9018</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="127"/>
+        <v>65</v>
+      </c>
+      <c r="E325">
+        <v>1</v>
+      </c>
+      <c r="F325" s="2">
+        <f t="shared" ref="F325:F342" si="186">F324*2.25</f>
+        <v>8.7701590414962922E+197</v>
+      </c>
+      <c r="G325">
+        <v>1000</v>
+      </c>
+      <c r="H325">
+        <v>8</v>
+      </c>
+      <c r="I325">
+        <v>0</v>
+      </c>
+      <c r="J325">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1" t="str">
+        <f t="shared" ref="B326:C326" si="187">B321</f>
+        <v>1-2</v>
+      </c>
+      <c r="C326" s="3">
+        <f t="shared" si="187"/>
+        <v>9013</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="127"/>
+        <v>66</v>
+      </c>
+      <c r="E326">
+        <v>1</v>
+      </c>
+      <c r="F326" s="2">
+        <f t="shared" si="186"/>
+        <v>1.9732857843366657E+198</v>
+      </c>
+      <c r="G326">
+        <v>1000</v>
+      </c>
+      <c r="H326">
+        <v>8</v>
+      </c>
+      <c r="I326">
+        <v>0</v>
+      </c>
+      <c r="J326">
+        <v>66800</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1" t="str">
+        <f t="shared" ref="B327:C327" si="188">B322</f>
+        <v>1-1</v>
+      </c>
+      <c r="C327" s="3">
+        <f t="shared" si="188"/>
+        <v>9018</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="127"/>
+        <v>66</v>
+      </c>
+      <c r="E327">
+        <v>1</v>
+      </c>
+      <c r="F327" s="2">
+        <f t="shared" si="186"/>
+        <v>4.4398930147574977E+198</v>
+      </c>
+      <c r="G327">
+        <v>1000</v>
+      </c>
+      <c r="H327">
+        <v>8</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327">
+        <v>67000</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1" t="str">
+        <f t="shared" ref="B328:C328" si="189">B323</f>
+        <v>1-1</v>
+      </c>
+      <c r="C328" s="3">
+        <f t="shared" si="189"/>
+        <v>9018</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="127"/>
+        <v>66</v>
+      </c>
+      <c r="E328">
+        <v>1</v>
+      </c>
+      <c r="F328" s="2">
+        <f t="shared" si="186"/>
+        <v>9.9897592832043688E+198</v>
+      </c>
+      <c r="G328">
+        <v>1000</v>
+      </c>
+      <c r="H328">
+        <v>8</v>
+      </c>
+      <c r="I328">
+        <v>0</v>
+      </c>
+      <c r="J328">
+        <v>67200</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1" t="str">
+        <f t="shared" ref="B329:C329" si="190">B324</f>
+        <v>1-1</v>
+      </c>
+      <c r="C329" s="3">
+        <f t="shared" si="190"/>
+        <v>9018</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="127"/>
+        <v>66</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329" s="2">
+        <f t="shared" si="186"/>
+        <v>2.2476958387209832E+199</v>
+      </c>
+      <c r="G329">
+        <v>1000</v>
+      </c>
+      <c r="H329">
+        <v>8</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329">
+        <v>67400</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1" t="str">
+        <f t="shared" ref="B330:C330" si="191">B325</f>
+        <v>1-1</v>
+      </c>
+      <c r="C330" s="3">
+        <f t="shared" si="191"/>
+        <v>9018</v>
+      </c>
+      <c r="D330">
+        <f t="shared" ref="D330:D342" si="192">D325+1</f>
+        <v>66</v>
+      </c>
+      <c r="E330">
+        <v>1</v>
+      </c>
+      <c r="F330" s="2">
+        <f t="shared" si="186"/>
+        <v>5.057315637122212E+199</v>
+      </c>
+      <c r="G330">
+        <v>1000</v>
+      </c>
+      <c r="H330">
+        <v>8</v>
+      </c>
+      <c r="I330">
+        <v>0</v>
+      </c>
+      <c r="J330">
+        <v>67600</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1" t="str">
+        <f t="shared" ref="B331:C331" si="193">B326</f>
+        <v>1-2</v>
+      </c>
+      <c r="C331" s="3">
+        <f t="shared" si="193"/>
+        <v>9013</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="192"/>
+        <v>67</v>
+      </c>
+      <c r="E331">
+        <v>1</v>
+      </c>
+      <c r="F331" s="2">
+        <f t="shared" si="186"/>
+        <v>1.1378960183524977E+200</v>
+      </c>
+      <c r="G331">
+        <v>1000</v>
+      </c>
+      <c r="H331">
+        <v>8</v>
+      </c>
+      <c r="I331">
+        <v>0</v>
+      </c>
+      <c r="J331">
+        <v>67800</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1" t="str">
+        <f t="shared" ref="B332:C332" si="194">B327</f>
+        <v>1-1</v>
+      </c>
+      <c r="C332" s="3">
+        <f t="shared" si="194"/>
+        <v>9018</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="192"/>
+        <v>67</v>
+      </c>
+      <c r="E332">
+        <v>1</v>
+      </c>
+      <c r="F332" s="2">
+        <f t="shared" si="186"/>
+        <v>2.5602660412931199E+200</v>
+      </c>
+      <c r="G332">
+        <v>1000</v>
+      </c>
+      <c r="H332">
+        <v>8</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333" s="1" t="str">
+        <f t="shared" ref="B333:C333" si="195">B328</f>
+        <v>1-1</v>
+      </c>
+      <c r="C333" s="3">
+        <f t="shared" si="195"/>
+        <v>9018</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="192"/>
+        <v>67</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333" s="2">
+        <f t="shared" si="186"/>
+        <v>5.7605985929095196E+200</v>
+      </c>
+      <c r="G333">
+        <v>1000</v>
+      </c>
+      <c r="H333">
+        <v>8</v>
+      </c>
+      <c r="I333">
+        <v>0</v>
+      </c>
+      <c r="J333">
+        <v>68200</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334" s="1" t="str">
+        <f t="shared" ref="B334:C334" si="196">B329</f>
+        <v>1-1</v>
+      </c>
+      <c r="C334" s="3">
+        <f t="shared" si="196"/>
+        <v>9018</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="192"/>
+        <v>67</v>
+      </c>
+      <c r="E334">
+        <v>1</v>
+      </c>
+      <c r="F334" s="2">
+        <f t="shared" si="186"/>
+        <v>1.296134683404642E+201</v>
+      </c>
+      <c r="G334">
+        <v>1000</v>
+      </c>
+      <c r="H334">
+        <v>8</v>
+      </c>
+      <c r="I334">
+        <v>0</v>
+      </c>
+      <c r="J334">
+        <v>68400</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335" s="1" t="str">
+        <f t="shared" ref="B335:C335" si="197">B330</f>
+        <v>1-1</v>
+      </c>
+      <c r="C335" s="3">
+        <f t="shared" si="197"/>
+        <v>9018</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="192"/>
+        <v>67</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335" s="2">
+        <f t="shared" si="186"/>
+        <v>2.9163030376604447E+201</v>
+      </c>
+      <c r="G335">
+        <v>1000</v>
+      </c>
+      <c r="H335">
+        <v>8</v>
+      </c>
+      <c r="I335">
+        <v>0</v>
+      </c>
+      <c r="J335">
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336" s="1" t="str">
+        <f t="shared" ref="B336:C336" si="198">B331</f>
+        <v>1-2</v>
+      </c>
+      <c r="C336" s="3">
+        <f t="shared" si="198"/>
+        <v>9013</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="192"/>
+        <v>68</v>
+      </c>
+      <c r="E336">
+        <v>1</v>
+      </c>
+      <c r="F336" s="2">
+        <f t="shared" si="186"/>
+        <v>6.561681834736001E+201</v>
+      </c>
+      <c r="G336">
+        <v>1000</v>
+      </c>
+      <c r="H336">
+        <v>8</v>
+      </c>
+      <c r="I336">
+        <v>0</v>
+      </c>
+      <c r="J336">
+        <v>68800</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337" s="1" t="str">
+        <f t="shared" ref="B337:C337" si="199">B332</f>
+        <v>1-1</v>
+      </c>
+      <c r="C337" s="3">
+        <f t="shared" si="199"/>
+        <v>9018</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="192"/>
+        <v>68</v>
+      </c>
+      <c r="E337">
+        <v>1</v>
+      </c>
+      <c r="F337" s="2">
+        <f t="shared" si="186"/>
+        <v>1.4763784128156002E+202</v>
+      </c>
+      <c r="G337">
+        <v>1000</v>
+      </c>
+      <c r="H337">
+        <v>8</v>
+      </c>
+      <c r="I337">
+        <v>0</v>
+      </c>
+      <c r="J337">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338" s="1" t="str">
+        <f t="shared" ref="B338:C338" si="200">B333</f>
+        <v>1-1</v>
+      </c>
+      <c r="C338" s="3">
+        <f t="shared" si="200"/>
+        <v>9018</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="192"/>
+        <v>68</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338" s="2">
+        <f t="shared" si="186"/>
+        <v>3.3218514288351003E+202</v>
+      </c>
+      <c r="G338">
+        <v>1000</v>
+      </c>
+      <c r="H338">
+        <v>8</v>
+      </c>
+      <c r="I338">
+        <v>0</v>
+      </c>
+      <c r="J338">
+        <v>69200</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339" s="1" t="str">
+        <f t="shared" ref="B339:C339" si="201">B334</f>
+        <v>1-1</v>
+      </c>
+      <c r="C339" s="3">
+        <f t="shared" si="201"/>
+        <v>9018</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="192"/>
+        <v>68</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339" s="2">
+        <f t="shared" si="186"/>
+        <v>7.4741657148789756E+202</v>
+      </c>
+      <c r="G339">
+        <v>1000</v>
+      </c>
+      <c r="H339">
+        <v>8</v>
+      </c>
+      <c r="I339">
+        <v>0</v>
+      </c>
+      <c r="J339">
+        <v>69400</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340" s="1" t="str">
+        <f t="shared" ref="B340:C340" si="202">B335</f>
+        <v>1-1</v>
+      </c>
+      <c r="C340" s="3">
+        <f t="shared" si="202"/>
+        <v>9018</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="192"/>
+        <v>68</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340" s="2">
+        <f t="shared" si="186"/>
+        <v>1.6816872858477696E+203</v>
+      </c>
+      <c r="G340">
+        <v>1000</v>
+      </c>
+      <c r="H340">
+        <v>8</v>
+      </c>
+      <c r="I340">
+        <v>0</v>
+      </c>
+      <c r="J340">
+        <v>69600</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341" s="1" t="str">
+        <f t="shared" ref="B341:C341" si="203">B336</f>
+        <v>1-2</v>
+      </c>
+      <c r="C341" s="3">
+        <f t="shared" si="203"/>
+        <v>9013</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="192"/>
+        <v>69</v>
+      </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341" s="2">
+        <f t="shared" si="186"/>
+        <v>3.7837963931574814E+203</v>
+      </c>
+      <c r="G341">
+        <v>1000</v>
+      </c>
+      <c r="H341">
+        <v>8</v>
+      </c>
+      <c r="I341">
+        <v>0</v>
+      </c>
+      <c r="J341">
+        <v>69800</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342" s="1" t="str">
+        <f t="shared" ref="B342:C342" si="204">B337</f>
+        <v>1-1</v>
+      </c>
+      <c r="C342" s="3">
+        <f t="shared" si="204"/>
+        <v>9018</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="192"/>
+        <v>69</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342" s="2">
+        <f t="shared" si="186"/>
+        <v>8.5135418846043334E+203</v>
+      </c>
+      <c r="G342">
+        <v>1000</v>
+      </c>
+      <c r="H342">
+        <v>8</v>
+      </c>
+      <c r="I342">
+        <v>0</v>
+      </c>
+      <c r="J342">
+        <v>70000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B319 D2:J319">
+  <conditionalFormatting sqref="A2:B342 D2:J342">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA98059-3D48-4DB9-BCEC-391799CE68E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9D8D5-224F-4528-95AF-5EBC9288C3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J342"/>
+  <dimension ref="A1:J353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A322" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C336" sqref="C336"/>
+      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E349" sqref="E349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="2">
-        <f t="shared" ref="F325:F342" si="186">F324*2.25</f>
+        <f t="shared" ref="F325:F353" si="186">F324*2.25</f>
         <v>8.7701590414962922E+197</v>
       </c>
       <c r="G325">
@@ -12581,7 +12581,7 @@
         <v>9018</v>
       </c>
       <c r="D330">
-        <f t="shared" ref="D330:D342" si="192">D325+1</f>
+        <f t="shared" ref="D330:D353" si="192">D325+1</f>
         <v>66</v>
       </c>
       <c r="E330">
@@ -13036,9 +13036,405 @@
         <v>70000</v>
       </c>
     </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343" s="1" t="str">
+        <f t="shared" ref="B343:C343" si="205">B338</f>
+        <v>1-1</v>
+      </c>
+      <c r="C343" s="3">
+        <f t="shared" si="205"/>
+        <v>9018</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="192"/>
+        <v>69</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343" s="2">
+        <f t="shared" si="186"/>
+        <v>1.9155469240359749E+204</v>
+      </c>
+      <c r="G343">
+        <v>1000</v>
+      </c>
+      <c r="H343">
+        <v>8</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>70200</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344" s="1" t="str">
+        <f t="shared" ref="B344:C344" si="206">B339</f>
+        <v>1-1</v>
+      </c>
+      <c r="C344" s="3">
+        <f t="shared" si="206"/>
+        <v>9018</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="192"/>
+        <v>69</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344" s="2">
+        <f t="shared" si="186"/>
+        <v>4.3099805790809435E+204</v>
+      </c>
+      <c r="G344">
+        <v>1000</v>
+      </c>
+      <c r="H344">
+        <v>8</v>
+      </c>
+      <c r="I344">
+        <v>0</v>
+      </c>
+      <c r="J344">
+        <v>70400</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345" s="1" t="str">
+        <f t="shared" ref="B345:C345" si="207">B340</f>
+        <v>1-1</v>
+      </c>
+      <c r="C345" s="3">
+        <f t="shared" si="207"/>
+        <v>9018</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="192"/>
+        <v>69</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345" s="2">
+        <f t="shared" si="186"/>
+        <v>9.6974563029321223E+204</v>
+      </c>
+      <c r="G345">
+        <v>1000</v>
+      </c>
+      <c r="H345">
+        <v>8</v>
+      </c>
+      <c r="I345">
+        <v>0</v>
+      </c>
+      <c r="J345">
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346" s="1" t="str">
+        <f t="shared" ref="B346:C346" si="208">B341</f>
+        <v>1-2</v>
+      </c>
+      <c r="C346" s="3">
+        <f t="shared" si="208"/>
+        <v>9013</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="192"/>
+        <v>70</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1819276681597277E+205</v>
+      </c>
+      <c r="G346">
+        <v>1000</v>
+      </c>
+      <c r="H346">
+        <v>8</v>
+      </c>
+      <c r="I346">
+        <v>0</v>
+      </c>
+      <c r="J346">
+        <v>70800</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347" s="1" t="str">
+        <f t="shared" ref="B347:C347" si="209">B342</f>
+        <v>1-1</v>
+      </c>
+      <c r="C347" s="3">
+        <f t="shared" si="209"/>
+        <v>9018</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="192"/>
+        <v>70</v>
+      </c>
+      <c r="E347">
+        <v>1</v>
+      </c>
+      <c r="F347" s="2">
+        <f t="shared" si="186"/>
+        <v>4.9093372533593872E+205</v>
+      </c>
+      <c r="G347">
+        <v>1000</v>
+      </c>
+      <c r="H347">
+        <v>8</v>
+      </c>
+      <c r="I347">
+        <v>0</v>
+      </c>
+      <c r="J347">
+        <v>71000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348" s="1" t="str">
+        <f t="shared" ref="B348:C348" si="210">B343</f>
+        <v>1-1</v>
+      </c>
+      <c r="C348" s="3">
+        <f t="shared" si="210"/>
+        <v>9018</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="192"/>
+        <v>70</v>
+      </c>
+      <c r="E348">
+        <v>1</v>
+      </c>
+      <c r="F348" s="2">
+        <f t="shared" si="186"/>
+        <v>1.1046008820058622E+206</v>
+      </c>
+      <c r="G348">
+        <v>1000</v>
+      </c>
+      <c r="H348">
+        <v>8</v>
+      </c>
+      <c r="I348">
+        <v>0</v>
+      </c>
+      <c r="J348">
+        <v>71200</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349" s="1" t="str">
+        <f t="shared" ref="B349:C349" si="211">B344</f>
+        <v>1-1</v>
+      </c>
+      <c r="C349" s="3">
+        <f t="shared" si="211"/>
+        <v>9018</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="192"/>
+        <v>70</v>
+      </c>
+      <c r="E349">
+        <v>1</v>
+      </c>
+      <c r="F349" s="2">
+        <f t="shared" si="186"/>
+        <v>2.4853519845131897E+206</v>
+      </c>
+      <c r="G349">
+        <v>1000</v>
+      </c>
+      <c r="H349">
+        <v>8</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>71400</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350" s="1" t="str">
+        <f t="shared" ref="B350:C350" si="212">B345</f>
+        <v>1-1</v>
+      </c>
+      <c r="C350" s="3">
+        <f t="shared" si="212"/>
+        <v>9018</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="192"/>
+        <v>70</v>
+      </c>
+      <c r="E350">
+        <v>1</v>
+      </c>
+      <c r="F350" s="2">
+        <f t="shared" si="186"/>
+        <v>5.5920419651546771E+206</v>
+      </c>
+      <c r="G350">
+        <v>1000</v>
+      </c>
+      <c r="H350">
+        <v>8</v>
+      </c>
+      <c r="I350">
+        <v>0</v>
+      </c>
+      <c r="J350">
+        <v>71600</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351" s="1" t="str">
+        <f t="shared" ref="B351:C351" si="213">B346</f>
+        <v>1-2</v>
+      </c>
+      <c r="C351" s="3">
+        <f t="shared" si="213"/>
+        <v>9013</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="192"/>
+        <v>71</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351" s="2">
+        <f t="shared" si="186"/>
+        <v>1.2582094421598024E+207</v>
+      </c>
+      <c r="G351">
+        <v>1000</v>
+      </c>
+      <c r="H351">
+        <v>8</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352" s="1" t="str">
+        <f t="shared" ref="B352:C352" si="214">B347</f>
+        <v>1-1</v>
+      </c>
+      <c r="C352" s="3">
+        <f t="shared" si="214"/>
+        <v>9018</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="192"/>
+        <v>71</v>
+      </c>
+      <c r="E352">
+        <v>1</v>
+      </c>
+      <c r="F352" s="2">
+        <f t="shared" si="186"/>
+        <v>2.8309712448595552E+207</v>
+      </c>
+      <c r="G352">
+        <v>1000</v>
+      </c>
+      <c r="H352">
+        <v>8</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353" s="1" t="str">
+        <f t="shared" ref="B353:C353" si="215">B348</f>
+        <v>1-1</v>
+      </c>
+      <c r="C353" s="3">
+        <f t="shared" si="215"/>
+        <v>9018</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="192"/>
+        <v>71</v>
+      </c>
+      <c r="E353">
+        <v>1</v>
+      </c>
+      <c r="F353" s="2">
+        <f t="shared" si="186"/>
+        <v>6.3696853009339992E+207</v>
+      </c>
+      <c r="G353">
+        <v>1000</v>
+      </c>
+      <c r="H353">
+        <v>8</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>72200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B342 D2:J342">
+  <conditionalFormatting sqref="A2:B353 D2:J353">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE9D8D5-224F-4528-95AF-5EBC9288C3DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7290FBD-A8FA-4097-94BE-06BA23808CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J353"/>
+  <dimension ref="A1:J364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A337" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E349" sqref="E349"/>
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="2">
-        <f t="shared" ref="F325:F353" si="186">F324*2.25</f>
+        <f t="shared" ref="F325:F364" si="186">F324*2.25</f>
         <v>8.7701590414962922E+197</v>
       </c>
       <c r="G325">
@@ -12581,7 +12581,7 @@
         <v>9018</v>
       </c>
       <c r="D330">
-        <f t="shared" ref="D330:D353" si="192">D325+1</f>
+        <f t="shared" ref="D330:D364" si="192">D325+1</f>
         <v>66</v>
       </c>
       <c r="E330">
@@ -13432,9 +13432,405 @@
         <v>72200</v>
       </c>
     </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354" s="1" t="str">
+        <f t="shared" ref="B354:C354" si="216">B349</f>
+        <v>1-1</v>
+      </c>
+      <c r="C354" s="3">
+        <f t="shared" si="216"/>
+        <v>9018</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="192"/>
+        <v>71</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354" s="2">
+        <f t="shared" si="186"/>
+        <v>1.4331791927101498E+208</v>
+      </c>
+      <c r="G354">
+        <v>1000</v>
+      </c>
+      <c r="H354">
+        <v>8</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>72400</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355" s="1" t="str">
+        <f t="shared" ref="B355:C355" si="217">B350</f>
+        <v>1-1</v>
+      </c>
+      <c r="C355" s="3">
+        <f t="shared" si="217"/>
+        <v>9018</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="192"/>
+        <v>71</v>
+      </c>
+      <c r="E355">
+        <v>1</v>
+      </c>
+      <c r="F355" s="2">
+        <f t="shared" si="186"/>
+        <v>3.2246531835978372E+208</v>
+      </c>
+      <c r="G355">
+        <v>1000</v>
+      </c>
+      <c r="H355">
+        <v>8</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>72600</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356" s="1" t="str">
+        <f t="shared" ref="B356:C356" si="218">B351</f>
+        <v>1-2</v>
+      </c>
+      <c r="C356" s="3">
+        <f t="shared" si="218"/>
+        <v>9013</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="192"/>
+        <v>72</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356" s="2">
+        <f t="shared" si="186"/>
+        <v>7.2554696630951336E+208</v>
+      </c>
+      <c r="G356">
+        <v>1000</v>
+      </c>
+      <c r="H356">
+        <v>8</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>72800</v>
+      </c>
+    </row>
+    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357" s="1" t="str">
+        <f t="shared" ref="B357:C357" si="219">B352</f>
+        <v>1-1</v>
+      </c>
+      <c r="C357" s="3">
+        <f t="shared" si="219"/>
+        <v>9018</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="192"/>
+        <v>72</v>
+      </c>
+      <c r="E357">
+        <v>1</v>
+      </c>
+      <c r="F357" s="2">
+        <f t="shared" si="186"/>
+        <v>1.6324806741964051E+209</v>
+      </c>
+      <c r="G357">
+        <v>1000</v>
+      </c>
+      <c r="H357">
+        <v>8</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358" s="1" t="str">
+        <f t="shared" ref="B358:C358" si="220">B353</f>
+        <v>1-1</v>
+      </c>
+      <c r="C358" s="3">
+        <f t="shared" si="220"/>
+        <v>9018</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="192"/>
+        <v>72</v>
+      </c>
+      <c r="E358">
+        <v>1</v>
+      </c>
+      <c r="F358" s="2">
+        <f t="shared" si="186"/>
+        <v>3.6730815169419112E+209</v>
+      </c>
+      <c r="G358">
+        <v>1000</v>
+      </c>
+      <c r="H358">
+        <v>8</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>73200</v>
+      </c>
+    </row>
+    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359" s="1" t="str">
+        <f t="shared" ref="B359:C359" si="221">B354</f>
+        <v>1-1</v>
+      </c>
+      <c r="C359" s="3">
+        <f t="shared" si="221"/>
+        <v>9018</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="192"/>
+        <v>72</v>
+      </c>
+      <c r="E359">
+        <v>1</v>
+      </c>
+      <c r="F359" s="2">
+        <f t="shared" si="186"/>
+        <v>8.2644334131192999E+209</v>
+      </c>
+      <c r="G359">
+        <v>1000</v>
+      </c>
+      <c r="H359">
+        <v>8</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>73400</v>
+      </c>
+    </row>
+    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360" s="1" t="str">
+        <f t="shared" ref="B360:C360" si="222">B355</f>
+        <v>1-1</v>
+      </c>
+      <c r="C360" s="3">
+        <f t="shared" si="222"/>
+        <v>9018</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="192"/>
+        <v>72</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360" s="2">
+        <f t="shared" si="186"/>
+        <v>1.8594975179518426E+210</v>
+      </c>
+      <c r="G360">
+        <v>1000</v>
+      </c>
+      <c r="H360">
+        <v>8</v>
+      </c>
+      <c r="I360">
+        <v>0</v>
+      </c>
+      <c r="J360">
+        <v>73600</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361" s="1" t="str">
+        <f t="shared" ref="B361:C361" si="223">B356</f>
+        <v>1-2</v>
+      </c>
+      <c r="C361" s="3">
+        <f t="shared" si="223"/>
+        <v>9013</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="192"/>
+        <v>73</v>
+      </c>
+      <c r="E361">
+        <v>1</v>
+      </c>
+      <c r="F361" s="2">
+        <f t="shared" si="186"/>
+        <v>4.1838694153916456E+210</v>
+      </c>
+      <c r="G361">
+        <v>1000</v>
+      </c>
+      <c r="H361">
+        <v>8</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>73800</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362" s="1" t="str">
+        <f t="shared" ref="B362:C362" si="224">B357</f>
+        <v>1-1</v>
+      </c>
+      <c r="C362" s="3">
+        <f t="shared" si="224"/>
+        <v>9018</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="192"/>
+        <v>73</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362" s="2">
+        <f t="shared" si="186"/>
+        <v>9.4137061846312031E+210</v>
+      </c>
+      <c r="G362">
+        <v>1000</v>
+      </c>
+      <c r="H362">
+        <v>8</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363" s="1" t="str">
+        <f t="shared" ref="B363:C363" si="225">B358</f>
+        <v>1-1</v>
+      </c>
+      <c r="C363" s="3">
+        <f t="shared" si="225"/>
+        <v>9018</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="192"/>
+        <v>73</v>
+      </c>
+      <c r="E363">
+        <v>1</v>
+      </c>
+      <c r="F363" s="2">
+        <f t="shared" si="186"/>
+        <v>2.1180838915420206E+211</v>
+      </c>
+      <c r="G363">
+        <v>1000</v>
+      </c>
+      <c r="H363">
+        <v>8</v>
+      </c>
+      <c r="I363">
+        <v>0</v>
+      </c>
+      <c r="J363">
+        <v>74200</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364" s="1" t="str">
+        <f t="shared" ref="B364:C364" si="226">B359</f>
+        <v>1-1</v>
+      </c>
+      <c r="C364" s="3">
+        <f t="shared" si="226"/>
+        <v>9018</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="192"/>
+        <v>73</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364" s="2">
+        <f t="shared" si="186"/>
+        <v>4.7656887559695462E+211</v>
+      </c>
+      <c r="G364">
+        <v>1000</v>
+      </c>
+      <c r="H364">
+        <v>8</v>
+      </c>
+      <c r="I364">
+        <v>0</v>
+      </c>
+      <c r="J364">
+        <v>74400</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B353 D2:J353">
+  <conditionalFormatting sqref="A2:B364 D2:J364">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7290FBD-A8FA-4097-94BE-06BA23808CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF39AC-A2FE-4C86-8943-75EA91634E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -429,9 +429,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -469,7 +469,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -575,7 +575,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -717,7 +717,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J364"/>
+  <dimension ref="A1:J376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F373" sqref="F373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="2">
-        <f t="shared" ref="F325:F364" si="186">F324*2.25</f>
+        <f t="shared" ref="F325:F376" si="186">F324*2.25</f>
         <v>8.7701590414962922E+197</v>
       </c>
       <c r="G325">
@@ -12581,7 +12581,7 @@
         <v>9018</v>
       </c>
       <c r="D330">
-        <f t="shared" ref="D330:D364" si="192">D325+1</f>
+        <f t="shared" ref="D330:D376" si="192">D325+1</f>
         <v>66</v>
       </c>
       <c r="E330">
@@ -13828,9 +13828,441 @@
         <v>74400</v>
       </c>
     </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365" s="1" t="str">
+        <f t="shared" ref="B365:C365" si="227">B360</f>
+        <v>1-1</v>
+      </c>
+      <c r="C365" s="3">
+        <f t="shared" si="227"/>
+        <v>9018</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="192"/>
+        <v>73</v>
+      </c>
+      <c r="E365">
+        <v>1</v>
+      </c>
+      <c r="F365" s="2">
+        <f t="shared" si="186"/>
+        <v>1.072279970093148E+212</v>
+      </c>
+      <c r="G365">
+        <v>1000</v>
+      </c>
+      <c r="H365">
+        <v>8</v>
+      </c>
+      <c r="I365">
+        <v>0</v>
+      </c>
+      <c r="J365">
+        <v>74600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366" s="1" t="str">
+        <f t="shared" ref="B366:C366" si="228">B361</f>
+        <v>1-2</v>
+      </c>
+      <c r="C366" s="3">
+        <f t="shared" si="228"/>
+        <v>9013</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="192"/>
+        <v>74</v>
+      </c>
+      <c r="E366">
+        <v>1</v>
+      </c>
+      <c r="F366" s="2">
+        <f t="shared" si="186"/>
+        <v>2.4126299327095827E+212</v>
+      </c>
+      <c r="G366">
+        <v>1000</v>
+      </c>
+      <c r="H366">
+        <v>8</v>
+      </c>
+      <c r="I366">
+        <v>0</v>
+      </c>
+      <c r="J366">
+        <v>74800</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367" s="1" t="str">
+        <f t="shared" ref="B367:C367" si="229">B362</f>
+        <v>1-1</v>
+      </c>
+      <c r="C367" s="3">
+        <f t="shared" si="229"/>
+        <v>9018</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="192"/>
+        <v>74</v>
+      </c>
+      <c r="E367">
+        <v>1</v>
+      </c>
+      <c r="F367" s="2">
+        <f t="shared" si="186"/>
+        <v>5.4284173485965611E+212</v>
+      </c>
+      <c r="G367">
+        <v>1000</v>
+      </c>
+      <c r="H367">
+        <v>8</v>
+      </c>
+      <c r="I367">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368" s="1" t="str">
+        <f t="shared" ref="B368:C368" si="230">B363</f>
+        <v>1-1</v>
+      </c>
+      <c r="C368" s="3">
+        <f t="shared" si="230"/>
+        <v>9018</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="192"/>
+        <v>74</v>
+      </c>
+      <c r="E368">
+        <v>1</v>
+      </c>
+      <c r="F368" s="2">
+        <f t="shared" si="186"/>
+        <v>1.2213939034342263E+213</v>
+      </c>
+      <c r="G368">
+        <v>1000</v>
+      </c>
+      <c r="H368">
+        <v>8</v>
+      </c>
+      <c r="I368">
+        <v>0</v>
+      </c>
+      <c r="J368">
+        <v>75200</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369" s="1" t="str">
+        <f t="shared" ref="B369:C369" si="231">B364</f>
+        <v>1-1</v>
+      </c>
+      <c r="C369" s="3">
+        <f t="shared" si="231"/>
+        <v>9018</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="192"/>
+        <v>74</v>
+      </c>
+      <c r="E369">
+        <v>1</v>
+      </c>
+      <c r="F369" s="2">
+        <f t="shared" si="186"/>
+        <v>2.7481362827270089E+213</v>
+      </c>
+      <c r="G369">
+        <v>1000</v>
+      </c>
+      <c r="H369">
+        <v>8</v>
+      </c>
+      <c r="I369">
+        <v>0</v>
+      </c>
+      <c r="J369">
+        <v>75400</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370" s="1" t="str">
+        <f t="shared" ref="B370:C370" si="232">B365</f>
+        <v>1-1</v>
+      </c>
+      <c r="C370" s="3">
+        <f t="shared" si="232"/>
+        <v>9018</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="192"/>
+        <v>74</v>
+      </c>
+      <c r="E370">
+        <v>1</v>
+      </c>
+      <c r="F370" s="2">
+        <f t="shared" si="186"/>
+        <v>6.1833066361357695E+213</v>
+      </c>
+      <c r="G370">
+        <v>1000</v>
+      </c>
+      <c r="H370">
+        <v>8</v>
+      </c>
+      <c r="I370">
+        <v>0</v>
+      </c>
+      <c r="J370">
+        <v>75600</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A371">
+        <v>369</v>
+      </c>
+      <c r="B371" s="1" t="str">
+        <f t="shared" ref="B371:C371" si="233">B366</f>
+        <v>1-2</v>
+      </c>
+      <c r="C371" s="3">
+        <f t="shared" si="233"/>
+        <v>9013</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="192"/>
+        <v>75</v>
+      </c>
+      <c r="E371">
+        <v>1</v>
+      </c>
+      <c r="F371" s="2">
+        <f t="shared" si="186"/>
+        <v>1.3912439931305481E+214</v>
+      </c>
+      <c r="G371">
+        <v>1000</v>
+      </c>
+      <c r="H371">
+        <v>8</v>
+      </c>
+      <c r="I371">
+        <v>0</v>
+      </c>
+      <c r="J371">
+        <v>75800</v>
+      </c>
+    </row>
+    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A372">
+        <v>370</v>
+      </c>
+      <c r="B372" s="1" t="str">
+        <f t="shared" ref="B372:C372" si="234">B367</f>
+        <v>1-1</v>
+      </c>
+      <c r="C372" s="3">
+        <f t="shared" si="234"/>
+        <v>9018</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="192"/>
+        <v>75</v>
+      </c>
+      <c r="E372">
+        <v>1</v>
+      </c>
+      <c r="F372" s="2">
+        <f t="shared" si="186"/>
+        <v>3.1302989845437333E+214</v>
+      </c>
+      <c r="G372">
+        <v>1000</v>
+      </c>
+      <c r="H372">
+        <v>8</v>
+      </c>
+      <c r="I372">
+        <v>0</v>
+      </c>
+      <c r="J372">
+        <v>76000</v>
+      </c>
+    </row>
+    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A373">
+        <v>371</v>
+      </c>
+      <c r="B373" s="1" t="str">
+        <f t="shared" ref="B373:C373" si="235">B368</f>
+        <v>1-1</v>
+      </c>
+      <c r="C373" s="3">
+        <f t="shared" si="235"/>
+        <v>9018</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="192"/>
+        <v>75</v>
+      </c>
+      <c r="E373">
+        <v>1</v>
+      </c>
+      <c r="F373" s="2">
+        <f t="shared" si="186"/>
+        <v>7.0431727152234002E+214</v>
+      </c>
+      <c r="G373">
+        <v>1000</v>
+      </c>
+      <c r="H373">
+        <v>8</v>
+      </c>
+      <c r="I373">
+        <v>0</v>
+      </c>
+      <c r="J373">
+        <v>76200</v>
+      </c>
+    </row>
+    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A374">
+        <v>372</v>
+      </c>
+      <c r="B374" s="1" t="str">
+        <f t="shared" ref="B374:C374" si="236">B369</f>
+        <v>1-1</v>
+      </c>
+      <c r="C374" s="3">
+        <f t="shared" si="236"/>
+        <v>9018</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="192"/>
+        <v>75</v>
+      </c>
+      <c r="E374">
+        <v>1</v>
+      </c>
+      <c r="F374" s="2">
+        <f t="shared" si="186"/>
+        <v>1.5847138609252649E+215</v>
+      </c>
+      <c r="G374">
+        <v>1000</v>
+      </c>
+      <c r="H374">
+        <v>8</v>
+      </c>
+      <c r="I374">
+        <v>0</v>
+      </c>
+      <c r="J374">
+        <v>76400</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A375">
+        <v>373</v>
+      </c>
+      <c r="B375" s="1" t="str">
+        <f t="shared" ref="B375:C375" si="237">B370</f>
+        <v>1-1</v>
+      </c>
+      <c r="C375" s="3">
+        <f t="shared" si="237"/>
+        <v>9018</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="192"/>
+        <v>75</v>
+      </c>
+      <c r="E375">
+        <v>1</v>
+      </c>
+      <c r="F375" s="2">
+        <f t="shared" si="186"/>
+        <v>3.5656061870818464E+215</v>
+      </c>
+      <c r="G375">
+        <v>1000</v>
+      </c>
+      <c r="H375">
+        <v>8</v>
+      </c>
+      <c r="I375">
+        <v>0</v>
+      </c>
+      <c r="J375">
+        <v>76600</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A376">
+        <v>374</v>
+      </c>
+      <c r="B376" s="1" t="str">
+        <f t="shared" ref="B376:C376" si="238">B371</f>
+        <v>1-2</v>
+      </c>
+      <c r="C376" s="3">
+        <f t="shared" si="238"/>
+        <v>9013</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="192"/>
+        <v>76</v>
+      </c>
+      <c r="E376">
+        <v>1</v>
+      </c>
+      <c r="F376" s="2">
+        <f t="shared" si="186"/>
+        <v>8.0226139209341546E+215</v>
+      </c>
+      <c r="G376">
+        <v>1000</v>
+      </c>
+      <c r="H376">
+        <v>8</v>
+      </c>
+      <c r="I376">
+        <v>0</v>
+      </c>
+      <c r="J376">
+        <v>76800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B364 D2:J364">
+  <conditionalFormatting sqref="A2:B376 D2:J376">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BDF39AC-A2FE-4C86-8943-75EA91634E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43274FA3-F5A5-4DA8-AC23-6C457C20879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -725,11 +725,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J376"/>
+  <dimension ref="A1:J398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F373" sqref="F373"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E392" sqref="E392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12408,7 +12408,7 @@
         <v>1</v>
       </c>
       <c r="F325" s="2">
-        <f t="shared" ref="F325:F376" si="186">F324*2.25</f>
+        <f t="shared" ref="F325:F388" si="186">F324*2.25</f>
         <v>8.7701590414962922E+197</v>
       </c>
       <c r="G325">
@@ -12581,7 +12581,7 @@
         <v>9018</v>
       </c>
       <c r="D330">
-        <f t="shared" ref="D330:D376" si="192">D325+1</f>
+        <f t="shared" ref="D330:D393" si="192">D325+1</f>
         <v>66</v>
       </c>
       <c r="E330">
@@ -14260,9 +14260,801 @@
         <v>76800</v>
       </c>
     </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A377">
+        <v>375</v>
+      </c>
+      <c r="B377" s="1" t="str">
+        <f t="shared" ref="B377:C377" si="239">B372</f>
+        <v>1-1</v>
+      </c>
+      <c r="C377" s="3">
+        <f t="shared" si="239"/>
+        <v>9018</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="192"/>
+        <v>76</v>
+      </c>
+      <c r="E377">
+        <v>1</v>
+      </c>
+      <c r="F377" s="2">
+        <f t="shared" si="186"/>
+        <v>1.8050881322101848E+216</v>
+      </c>
+      <c r="G377">
+        <v>1000</v>
+      </c>
+      <c r="H377">
+        <v>8</v>
+      </c>
+      <c r="I377">
+        <v>0</v>
+      </c>
+      <c r="J377">
+        <v>77000</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A378">
+        <v>376</v>
+      </c>
+      <c r="B378" s="1" t="str">
+        <f t="shared" ref="B378:C378" si="240">B373</f>
+        <v>1-1</v>
+      </c>
+      <c r="C378" s="3">
+        <f t="shared" si="240"/>
+        <v>9018</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="192"/>
+        <v>76</v>
+      </c>
+      <c r="E378">
+        <v>1</v>
+      </c>
+      <c r="F378" s="2">
+        <f t="shared" si="186"/>
+        <v>4.0614482974729157E+216</v>
+      </c>
+      <c r="G378">
+        <v>1000</v>
+      </c>
+      <c r="H378">
+        <v>8</v>
+      </c>
+      <c r="I378">
+        <v>0</v>
+      </c>
+      <c r="J378">
+        <v>77200</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A379">
+        <v>377</v>
+      </c>
+      <c r="B379" s="1" t="str">
+        <f t="shared" ref="B379:C379" si="241">B374</f>
+        <v>1-1</v>
+      </c>
+      <c r="C379" s="3">
+        <f t="shared" si="241"/>
+        <v>9018</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="192"/>
+        <v>76</v>
+      </c>
+      <c r="E379">
+        <v>1</v>
+      </c>
+      <c r="F379" s="2">
+        <f t="shared" si="186"/>
+        <v>9.1382586693140606E+216</v>
+      </c>
+      <c r="G379">
+        <v>1000</v>
+      </c>
+      <c r="H379">
+        <v>8</v>
+      </c>
+      <c r="I379">
+        <v>0</v>
+      </c>
+      <c r="J379">
+        <v>77400</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A380">
+        <v>378</v>
+      </c>
+      <c r="B380" s="1" t="str">
+        <f t="shared" ref="B380:C380" si="242">B375</f>
+        <v>1-1</v>
+      </c>
+      <c r="C380" s="3">
+        <f t="shared" si="242"/>
+        <v>9018</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="192"/>
+        <v>76</v>
+      </c>
+      <c r="E380">
+        <v>1</v>
+      </c>
+      <c r="F380" s="2">
+        <f t="shared" si="186"/>
+        <v>2.0561082005956636E+217</v>
+      </c>
+      <c r="G380">
+        <v>1000</v>
+      </c>
+      <c r="H380">
+        <v>8</v>
+      </c>
+      <c r="I380">
+        <v>0</v>
+      </c>
+      <c r="J380">
+        <v>77600</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A381">
+        <v>379</v>
+      </c>
+      <c r="B381" s="1" t="str">
+        <f t="shared" ref="B381:C381" si="243">B376</f>
+        <v>1-2</v>
+      </c>
+      <c r="C381" s="3">
+        <f t="shared" si="243"/>
+        <v>9013</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="192"/>
+        <v>77</v>
+      </c>
+      <c r="E381">
+        <v>1</v>
+      </c>
+      <c r="F381" s="2">
+        <f t="shared" si="186"/>
+        <v>4.6262434513402435E+217</v>
+      </c>
+      <c r="G381">
+        <v>1000</v>
+      </c>
+      <c r="H381">
+        <v>8</v>
+      </c>
+      <c r="I381">
+        <v>0</v>
+      </c>
+      <c r="J381">
+        <v>77800</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A382">
+        <v>380</v>
+      </c>
+      <c r="B382" s="1" t="str">
+        <f t="shared" ref="B382:C382" si="244">B377</f>
+        <v>1-1</v>
+      </c>
+      <c r="C382" s="3">
+        <f t="shared" si="244"/>
+        <v>9018</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="192"/>
+        <v>77</v>
+      </c>
+      <c r="E382">
+        <v>1</v>
+      </c>
+      <c r="F382" s="2">
+        <f t="shared" si="186"/>
+        <v>1.0409047765515547E+218</v>
+      </c>
+      <c r="G382">
+        <v>1000</v>
+      </c>
+      <c r="H382">
+        <v>8</v>
+      </c>
+      <c r="I382">
+        <v>0</v>
+      </c>
+      <c r="J382">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A383">
+        <v>381</v>
+      </c>
+      <c r="B383" s="1" t="str">
+        <f t="shared" ref="B383:C383" si="245">B378</f>
+        <v>1-1</v>
+      </c>
+      <c r="C383" s="3">
+        <f t="shared" si="245"/>
+        <v>9018</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="192"/>
+        <v>77</v>
+      </c>
+      <c r="E383">
+        <v>1</v>
+      </c>
+      <c r="F383" s="2">
+        <f t="shared" si="186"/>
+        <v>2.3420357472409982E+218</v>
+      </c>
+      <c r="G383">
+        <v>1000</v>
+      </c>
+      <c r="H383">
+        <v>8</v>
+      </c>
+      <c r="I383">
+        <v>0</v>
+      </c>
+      <c r="J383">
+        <v>78200</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A384">
+        <v>382</v>
+      </c>
+      <c r="B384" s="1" t="str">
+        <f t="shared" ref="B384:C384" si="246">B379</f>
+        <v>1-1</v>
+      </c>
+      <c r="C384" s="3">
+        <f t="shared" si="246"/>
+        <v>9018</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="192"/>
+        <v>77</v>
+      </c>
+      <c r="E384">
+        <v>1</v>
+      </c>
+      <c r="F384" s="2">
+        <f t="shared" si="186"/>
+        <v>5.269580431292246E+218</v>
+      </c>
+      <c r="G384">
+        <v>1000</v>
+      </c>
+      <c r="H384">
+        <v>8</v>
+      </c>
+      <c r="I384">
+        <v>0</v>
+      </c>
+      <c r="J384">
+        <v>78400</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>383</v>
+      </c>
+      <c r="B385" s="1" t="str">
+        <f t="shared" ref="B385:C385" si="247">B380</f>
+        <v>1-1</v>
+      </c>
+      <c r="C385" s="3">
+        <f t="shared" si="247"/>
+        <v>9018</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="192"/>
+        <v>77</v>
+      </c>
+      <c r="E385">
+        <v>1</v>
+      </c>
+      <c r="F385" s="2">
+        <f t="shared" si="186"/>
+        <v>1.1856555970407554E+219</v>
+      </c>
+      <c r="G385">
+        <v>1000</v>
+      </c>
+      <c r="H385">
+        <v>8</v>
+      </c>
+      <c r="I385">
+        <v>0</v>
+      </c>
+      <c r="J385">
+        <v>78600</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>384</v>
+      </c>
+      <c r="B386" s="1" t="str">
+        <f t="shared" ref="B386:C386" si="248">B381</f>
+        <v>1-2</v>
+      </c>
+      <c r="C386" s="3">
+        <f t="shared" si="248"/>
+        <v>9013</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="192"/>
+        <v>78</v>
+      </c>
+      <c r="E386">
+        <v>1</v>
+      </c>
+      <c r="F386" s="2">
+        <f t="shared" si="186"/>
+        <v>2.6677250933416996E+219</v>
+      </c>
+      <c r="G386">
+        <v>1000</v>
+      </c>
+      <c r="H386">
+        <v>8</v>
+      </c>
+      <c r="I386">
+        <v>0</v>
+      </c>
+      <c r="J386">
+        <v>78800</v>
+      </c>
+    </row>
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>385</v>
+      </c>
+      <c r="B387" s="1" t="str">
+        <f t="shared" ref="B387:C387" si="249">B382</f>
+        <v>1-1</v>
+      </c>
+      <c r="C387" s="3">
+        <f t="shared" si="249"/>
+        <v>9018</v>
+      </c>
+      <c r="D387">
+        <f t="shared" si="192"/>
+        <v>78</v>
+      </c>
+      <c r="E387">
+        <v>1</v>
+      </c>
+      <c r="F387" s="2">
+        <f t="shared" si="186"/>
+        <v>6.0023814600188247E+219</v>
+      </c>
+      <c r="G387">
+        <v>1000</v>
+      </c>
+      <c r="H387">
+        <v>8</v>
+      </c>
+      <c r="I387">
+        <v>0</v>
+      </c>
+      <c r="J387">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>386</v>
+      </c>
+      <c r="B388" s="1" t="str">
+        <f t="shared" ref="B388:C388" si="250">B383</f>
+        <v>1-1</v>
+      </c>
+      <c r="C388" s="3">
+        <f t="shared" si="250"/>
+        <v>9018</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="192"/>
+        <v>78</v>
+      </c>
+      <c r="E388">
+        <v>1</v>
+      </c>
+      <c r="F388" s="2">
+        <f t="shared" si="186"/>
+        <v>1.3505358285042356E+220</v>
+      </c>
+      <c r="G388">
+        <v>1000</v>
+      </c>
+      <c r="H388">
+        <v>8</v>
+      </c>
+      <c r="I388">
+        <v>0</v>
+      </c>
+      <c r="J388">
+        <v>79200</v>
+      </c>
+    </row>
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>387</v>
+      </c>
+      <c r="B389" s="1" t="str">
+        <f t="shared" ref="B389:C389" si="251">B384</f>
+        <v>1-1</v>
+      </c>
+      <c r="C389" s="3">
+        <f t="shared" si="251"/>
+        <v>9018</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="192"/>
+        <v>78</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389" s="2">
+        <f t="shared" ref="F389:F398" si="252">F388*2.25</f>
+        <v>3.0387056141345299E+220</v>
+      </c>
+      <c r="G389">
+        <v>1000</v>
+      </c>
+      <c r="H389">
+        <v>8</v>
+      </c>
+      <c r="I389">
+        <v>0</v>
+      </c>
+      <c r="J389">
+        <v>79400</v>
+      </c>
+    </row>
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>388</v>
+      </c>
+      <c r="B390" s="1" t="str">
+        <f t="shared" ref="B390:C390" si="253">B385</f>
+        <v>1-1</v>
+      </c>
+      <c r="C390" s="3">
+        <f t="shared" si="253"/>
+        <v>9018</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="192"/>
+        <v>78</v>
+      </c>
+      <c r="E390">
+        <v>1</v>
+      </c>
+      <c r="F390" s="2">
+        <f t="shared" si="252"/>
+        <v>6.8370876318026923E+220</v>
+      </c>
+      <c r="G390">
+        <v>1000</v>
+      </c>
+      <c r="H390">
+        <v>8</v>
+      </c>
+      <c r="I390">
+        <v>0</v>
+      </c>
+      <c r="J390">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>389</v>
+      </c>
+      <c r="B391" s="1" t="str">
+        <f t="shared" ref="B391:C391" si="254">B386</f>
+        <v>1-2</v>
+      </c>
+      <c r="C391" s="3">
+        <f t="shared" si="254"/>
+        <v>9013</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="192"/>
+        <v>79</v>
+      </c>
+      <c r="E391">
+        <v>1</v>
+      </c>
+      <c r="F391" s="2">
+        <f t="shared" si="252"/>
+        <v>1.5383447171556058E+221</v>
+      </c>
+      <c r="G391">
+        <v>1000</v>
+      </c>
+      <c r="H391">
+        <v>8</v>
+      </c>
+      <c r="I391">
+        <v>0</v>
+      </c>
+      <c r="J391">
+        <v>79800</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>390</v>
+      </c>
+      <c r="B392" s="1" t="str">
+        <f t="shared" ref="B392:C392" si="255">B387</f>
+        <v>1-1</v>
+      </c>
+      <c r="C392" s="3">
+        <f t="shared" si="255"/>
+        <v>9018</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="192"/>
+        <v>79</v>
+      </c>
+      <c r="E392">
+        <v>1</v>
+      </c>
+      <c r="F392" s="2">
+        <f t="shared" si="252"/>
+        <v>3.4612756136001133E+221</v>
+      </c>
+      <c r="G392">
+        <v>1000</v>
+      </c>
+      <c r="H392">
+        <v>8</v>
+      </c>
+      <c r="I392">
+        <v>0</v>
+      </c>
+      <c r="J392">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>391</v>
+      </c>
+      <c r="B393" s="1" t="str">
+        <f t="shared" ref="B393:C393" si="256">B388</f>
+        <v>1-1</v>
+      </c>
+      <c r="C393" s="3">
+        <f t="shared" si="256"/>
+        <v>9018</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="192"/>
+        <v>79</v>
+      </c>
+      <c r="E393">
+        <v>1</v>
+      </c>
+      <c r="F393" s="2">
+        <f t="shared" si="252"/>
+        <v>7.787870130600255E+221</v>
+      </c>
+      <c r="G393">
+        <v>1000</v>
+      </c>
+      <c r="H393">
+        <v>8</v>
+      </c>
+      <c r="I393">
+        <v>0</v>
+      </c>
+      <c r="J393">
+        <v>80200</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>392</v>
+      </c>
+      <c r="B394" s="1" t="str">
+        <f t="shared" ref="B394:C394" si="257">B389</f>
+        <v>1-1</v>
+      </c>
+      <c r="C394" s="3">
+        <f t="shared" si="257"/>
+        <v>9018</v>
+      </c>
+      <c r="D394">
+        <f t="shared" ref="D394:D398" si="258">D389+1</f>
+        <v>79</v>
+      </c>
+      <c r="E394">
+        <v>1</v>
+      </c>
+      <c r="F394" s="2">
+        <f t="shared" si="252"/>
+        <v>1.7522707793850574E+222</v>
+      </c>
+      <c r="G394">
+        <v>1000</v>
+      </c>
+      <c r="H394">
+        <v>8</v>
+      </c>
+      <c r="I394">
+        <v>0</v>
+      </c>
+      <c r="J394">
+        <v>80400</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>393</v>
+      </c>
+      <c r="B395" s="1" t="str">
+        <f t="shared" ref="B395:C395" si="259">B390</f>
+        <v>1-1</v>
+      </c>
+      <c r="C395" s="3">
+        <f t="shared" si="259"/>
+        <v>9018</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="258"/>
+        <v>79</v>
+      </c>
+      <c r="E395">
+        <v>1</v>
+      </c>
+      <c r="F395" s="2">
+        <f t="shared" si="252"/>
+        <v>3.9426092536163793E+222</v>
+      </c>
+      <c r="G395">
+        <v>1000</v>
+      </c>
+      <c r="H395">
+        <v>8</v>
+      </c>
+      <c r="I395">
+        <v>0</v>
+      </c>
+      <c r="J395">
+        <v>80600</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>394</v>
+      </c>
+      <c r="B396" s="1" t="str">
+        <f t="shared" ref="B396:C396" si="260">B391</f>
+        <v>1-2</v>
+      </c>
+      <c r="C396" s="3">
+        <f t="shared" si="260"/>
+        <v>9013</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="258"/>
+        <v>80</v>
+      </c>
+      <c r="E396">
+        <v>1</v>
+      </c>
+      <c r="F396" s="2">
+        <f t="shared" si="252"/>
+        <v>8.8708708206368534E+222</v>
+      </c>
+      <c r="G396">
+        <v>1000</v>
+      </c>
+      <c r="H396">
+        <v>8</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>80800</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>395</v>
+      </c>
+      <c r="B397" s="1" t="str">
+        <f t="shared" ref="B397:C397" si="261">B392</f>
+        <v>1-1</v>
+      </c>
+      <c r="C397" s="3">
+        <f t="shared" si="261"/>
+        <v>9018</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="258"/>
+        <v>80</v>
+      </c>
+      <c r="E397">
+        <v>1</v>
+      </c>
+      <c r="F397" s="2">
+        <f t="shared" si="252"/>
+        <v>1.995945934643292E+223</v>
+      </c>
+      <c r="G397">
+        <v>1000</v>
+      </c>
+      <c r="H397">
+        <v>8</v>
+      </c>
+      <c r="I397">
+        <v>0</v>
+      </c>
+      <c r="J397">
+        <v>81000</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>396</v>
+      </c>
+      <c r="B398" s="1" t="str">
+        <f t="shared" ref="B398:C398" si="262">B393</f>
+        <v>1-1</v>
+      </c>
+      <c r="C398" s="3">
+        <f t="shared" si="262"/>
+        <v>9018</v>
+      </c>
+      <c r="D398">
+        <f t="shared" si="258"/>
+        <v>80</v>
+      </c>
+      <c r="E398">
+        <v>1</v>
+      </c>
+      <c r="F398" s="2">
+        <f t="shared" si="252"/>
+        <v>4.490878352947407E+223</v>
+      </c>
+      <c r="G398">
+        <v>1000</v>
+      </c>
+      <c r="H398">
+        <v>8</v>
+      </c>
+      <c r="I398">
+        <v>0</v>
+      </c>
+      <c r="J398">
+        <v>81200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B376 D2:J376">
+  <conditionalFormatting sqref="A2:B398 D2:J398">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable7.xlsx
+++ b/Assets/06.Table/TowerTable7.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43274FA3-F5A5-4DA8-AC23-6C457C20879E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CE09B6-2C80-4591-9285-75F8E2B06BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable7" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -725,14 +725,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J398"/>
+  <dimension ref="A1:J401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E392" sqref="E392"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="13.25" customWidth="1"/>
@@ -744,7 +744,7 @@
     <col min="9" max="9" width="27.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>0</v>
       </c>
@@ -793,7 +793,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="2">
-        <v>1.5418925822417389E+84</v>
+        <v>1.5E+83</v>
       </c>
       <c r="G2">
         <v>1000</v>
@@ -808,7 +808,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>1</v>
       </c>
@@ -825,8 +825,8 @@
         <v>1</v>
       </c>
       <c r="F3" s="2">
-        <f>F2*2.25</f>
-        <v>3.4692583100439126E+84</v>
+        <f>F2*2</f>
+        <v>3E+83</v>
       </c>
       <c r="G3">
         <v>1000</v>
@@ -841,7 +841,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>2</v>
       </c>
@@ -858,8 +858,8 @@
         <v>1</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F67" si="0">F3*2.25</f>
-        <v>7.8058311975988033E+84</v>
+        <f t="shared" ref="F4:F67" si="0">F3*2</f>
+        <v>5.9999999999999999E+83</v>
       </c>
       <c r="G4">
         <v>1000</v>
@@ -874,7 +874,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>3</v>
       </c>
@@ -892,7 +892,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" si="0"/>
-        <v>1.7563120194597308E+85</v>
+        <v>1.2E+84</v>
       </c>
       <c r="G5">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>4</v>
       </c>
@@ -925,7 +925,7 @@
       </c>
       <c r="F6" s="2">
         <f t="shared" si="0"/>
-        <v>3.9517020437843943E+85</v>
+        <v>2.4E+84</v>
       </c>
       <c r="G6">
         <v>1000</v>
@@ -940,7 +940,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="18.75" customHeight="1">
       <c r="A7">
         <v>5</v>
       </c>
@@ -961,7 +961,7 @@
       </c>
       <c r="F7" s="2">
         <f t="shared" si="0"/>
-        <v>8.8913295985148871E+85</v>
+        <v>4.7999999999999999E+84</v>
       </c>
       <c r="G7">
         <v>1000</v>
@@ -976,7 +976,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>6</v>
       </c>
@@ -997,7 +997,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>2.0005491596658497E+86</v>
+        <v>9.5999999999999999E+84</v>
       </c>
       <c r="G8">
         <v>1000</v>
@@ -1012,7 +1012,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>4.5012356092481619E+86</v>
+        <v>1.92E+85</v>
       </c>
       <c r="G9">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
         <v>3400</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F10" s="2">
         <f t="shared" si="0"/>
-        <v>1.0127780120808365E+87</v>
+        <v>3.8399999999999999E+85</v>
       </c>
       <c r="G10">
         <v>1000</v>
@@ -1084,7 +1084,7 @@
         <v>3600</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1105,7 +1105,7 @@
       </c>
       <c r="F11" s="2">
         <f t="shared" si="0"/>
-        <v>2.2787505271818822E+87</v>
+        <v>7.6799999999999999E+85</v>
       </c>
       <c r="G11">
         <v>1000</v>
@@ -1120,7 +1120,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1141,7 +1141,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="0"/>
-        <v>5.1271886861592347E+87</v>
+        <v>1.536E+86</v>
       </c>
       <c r="G12">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="0"/>
-        <v>1.1536174543858278E+88</v>
+        <v>3.072E+86</v>
       </c>
       <c r="G13">
         <v>1000</v>
@@ -1192,7 +1192,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="0"/>
-        <v>2.5956392723681127E+88</v>
+        <v>6.1439999999999999E+86</v>
       </c>
       <c r="G14">
         <v>1000</v>
@@ -1228,7 +1228,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="0"/>
-        <v>5.8401883628282538E+88</v>
+        <v>1.2288E+87</v>
       </c>
       <c r="G15">
         <v>1000</v>
@@ -1264,7 +1264,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="F16" s="2">
         <f t="shared" si="0"/>
-        <v>1.3140423816363571E+89</v>
+        <v>2.4576E+87</v>
       </c>
       <c r="G16">
         <v>1000</v>
@@ -1300,7 +1300,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" si="0"/>
-        <v>2.9565953586818034E+89</v>
+        <v>4.9151999999999999E+87</v>
       </c>
       <c r="G17">
         <v>1000</v>
@@ -1336,7 +1336,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F18" s="2">
         <f t="shared" si="0"/>
-        <v>6.6523395570340579E+89</v>
+        <v>9.8303999999999999E+87</v>
       </c>
       <c r="G18">
         <v>1000</v>
@@ -1372,7 +1372,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" si="0"/>
-        <v>1.496776400332663E+90</v>
+        <v>1.96608E+88</v>
       </c>
       <c r="G19">
         <v>1000</v>
@@ -1408,7 +1408,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="F20" s="2">
         <f t="shared" si="0"/>
-        <v>3.367746900748492E+90</v>
+        <v>3.9321599999999999E+88</v>
       </c>
       <c r="G20">
         <v>1000</v>
@@ -1444,7 +1444,7 @@
         <v>5600</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1465,7 +1465,7 @@
       </c>
       <c r="F21" s="2">
         <f t="shared" si="0"/>
-        <v>7.5774305266841073E+90</v>
+        <v>7.8643199999999999E+88</v>
       </c>
       <c r="G21">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>5800</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="0"/>
-        <v>1.7049218685039243E+91</v>
+        <v>1.572864E+89</v>
       </c>
       <c r="G22">
         <v>1000</v>
@@ -1516,7 +1516,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1537,7 +1537,7 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="0"/>
-        <v>3.8360742041338294E+91</v>
+        <v>3.145728E+89</v>
       </c>
       <c r="G23">
         <v>1000</v>
@@ -1552,7 +1552,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1573,7 +1573,7 @@
       </c>
       <c r="F24" s="2">
         <f t="shared" si="0"/>
-        <v>8.6311669593011154E+91</v>
+        <v>6.2914559999999999E+89</v>
       </c>
       <c r="G24">
         <v>1000</v>
@@ -1588,7 +1588,7 @@
         <v>6400</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" si="0"/>
-        <v>1.9420125658427509E+92</v>
+        <v>1.2582912E+90</v>
       </c>
       <c r="G25">
         <v>1000</v>
@@ -1624,7 +1624,7 @@
         <v>6600</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>4.3695282731461894E+92</v>
+        <v>2.5165824E+90</v>
       </c>
       <c r="G26">
         <v>1000</v>
@@ -1660,7 +1660,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1681,7 +1681,7 @@
       </c>
       <c r="F27" s="2">
         <f t="shared" si="0"/>
-        <v>9.8314386145789258E+92</v>
+        <v>5.0331647999999999E+90</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -1696,7 +1696,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F28" s="2">
         <f t="shared" si="0"/>
-        <v>2.2120736882802582E+93</v>
+        <v>1.00663296E+91</v>
       </c>
       <c r="G28">
         <v>1000</v>
@@ -1732,7 +1732,7 @@
         <v>7200</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
       <c r="F29" s="2">
         <f t="shared" si="0"/>
-        <v>4.977165798630581E+93</v>
+        <v>2.01326592E+91</v>
       </c>
       <c r="G29">
         <v>1000</v>
@@ -1768,7 +1768,7 @@
         <v>7400</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F30" s="2">
         <f t="shared" si="0"/>
-        <v>1.1198623046918807E+94</v>
+        <v>4.0265318399999999E+91</v>
       </c>
       <c r="G30">
         <v>1000</v>
@@ -1804,7 +1804,7 @@
         <v>7600</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F31" s="2">
         <f t="shared" si="0"/>
-        <v>2.5196901855567317E+94</v>
+        <v>8.0530636799999999E+91</v>
       </c>
       <c r="G31">
         <v>1000</v>
@@ -1840,7 +1840,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F32" s="2">
         <f t="shared" si="0"/>
-        <v>5.6693029175026464E+94</v>
+        <v>1.610612736E+92</v>
       </c>
       <c r="G32">
         <v>1000</v>
@@ -1876,7 +1876,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1897,7 +1897,7 @@
       </c>
       <c r="F33" s="2">
         <f t="shared" si="0"/>
-        <v>1.2755931564380954E+95</v>
+        <v>3.221225472E+92</v>
       </c>
       <c r="G33">
         <v>1000</v>
@@ -1912,7 +1912,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1933,7 +1933,7 @@
       </c>
       <c r="F34" s="2">
         <f t="shared" si="0"/>
-        <v>2.8700846019857145E+95</v>
+        <v>6.4424509439999999E+92</v>
       </c>
       <c r="G34">
         <v>1000</v>
@@ -1948,7 +1948,7 @@
         <v>8400</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1969,7 +1969,7 @@
       </c>
       <c r="F35" s="2">
         <f t="shared" si="0"/>
-        <v>6.4576903544678577E+95</v>
+        <v>1.2884901888E+93</v>
       </c>
       <c r="G35">
         <v>1000</v>
@@ -1984,7 +1984,7 @@
         <v>8600</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="F36" s="2">
         <f t="shared" si="0"/>
-        <v>1.4529803297552679E+96</v>
+        <v>2.5769803776E+93</v>
       </c>
       <c r="G36">
         <v>1000</v>
@@ -2020,7 +2020,7 @@
         <v>8800</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2041,7 +2041,7 @@
       </c>
       <c r="F37" s="2">
         <f t="shared" si="0"/>
-        <v>3.2692057419493529E+96</v>
+        <v>5.1539607551999999E+93</v>
       </c>
       <c r="G37">
         <v>1000</v>
@@ -2056,7 +2056,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F38" s="2">
         <f t="shared" si="0"/>
-        <v>7.3557129193860439E+96</v>
+        <v>1.03079215104E+94</v>
       </c>
       <c r="G38">
         <v>1000</v>
@@ -2092,7 +2092,7 @@
         <v>9200</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2113,7 +2113,7 @@
       </c>
       <c r="F39" s="2">
         <f t="shared" si="0"/>
-        <v>1.6550354068618599E+97</v>
+        <v>2.06158430208E+94</v>
       </c>
       <c r="G39">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
         <v>9400</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F40" s="2">
         <f t="shared" si="0"/>
-        <v>3.723829665439185E+97</v>
+        <v>4.1231686041599999E+94</v>
       </c>
       <c r="G40">
         <v>1000</v>
@@ -2164,7 +2164,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="F41" s="2">
         <f t="shared" si="0"/>
-        <v>8.3786167472381658E+97</v>
+        <v>8.2463372083199999E+94</v>
       </c>
       <c r="G41">
         <v>1000</v>
@@ -2200,7 +2200,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2221,7 +2221,7 @@
       </c>
       <c r="F42" s="2">
         <f t="shared" si="0"/>
-        <v>1.8851887681285873E+98</v>
+        <v>1.649267441664E+95</v>
       </c>
       <c r="G42">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F43" s="2">
         <f t="shared" si="0"/>
-        <v>4.2416747282893217E+98</v>
+        <v>3.298534883328E+95</v>
       </c>
       <c r="G43">
         <v>1000</v>
@@ -2272,7 +2272,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="F44" s="2">
         <f t="shared" si="0"/>
-        <v>9.5437681386509745E+98</v>
+        <v>6.5970697666559999E+95</v>
       </c>
       <c r="G44">
         <v>1000</v>
@@ -2308,7 +2308,7 @@
         <v>10400</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F45" s="2">
         <f t="shared" si="0"/>
-        <v>2.1473478311964693E+99</v>
+        <v>1.3194139533312E+96</v>
       </c>
       <c r="G45">
         <v>1000</v>
@@ -2344,7 +2344,7 @@
         <v>10600</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2365,7 +2365,7 @@
       </c>
       <c r="F46" s="2">
         <f t="shared" si="0"/>
-        <v>4.8315326201920561E+99</v>
+        <v>2.6388279066624E+96</v>
       </c>
       <c r="G46">
         <v>1000</v>
@@ -2380,7 +2380,7 @@
         <v>10800</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F47" s="2">
         <f t="shared" si="0"/>
-        <v>1.0870948395432126E+100</v>
+        <v>5.2776558133247999E+96</v>
       </c>
       <c r="G47">
         <v>1000</v>
@@ -2416,7 +2416,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2437,7 +2437,7 @@
       </c>
       <c r="F48" s="2">
         <f t="shared" si="0"/>
-        <v>2.4459633889722282E+100</v>
+        <v>1.05553116266496E+97</v>
       </c>
       <c r="G48">
         <v>1000</v>
@@ -2452,7 +2452,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="F49" s="2">
         <f t="shared" si="0"/>
-        <v>5.5034176251875133E+100</v>
+        <v>2.11106232532992E+97</v>
       </c>
       <c r="G49">
         <v>1000</v>
@@ -2488,7 +2488,7 @@
         <v>11400</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="F50" s="2">
         <f t="shared" si="0"/>
-        <v>1.2382689656671905E+101</v>
+        <v>4.2221246506598399E+97</v>
       </c>
       <c r="G50">
         <v>1000</v>
@@ -2524,7 +2524,7 @@
         <v>11600</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="F51" s="2">
         <f t="shared" si="0"/>
-        <v>2.7861051727511788E+101</v>
+        <v>8.4442493013196799E+97</v>
       </c>
       <c r="G51">
         <v>1000</v>
@@ -2560,7 +2560,7 @@
         <v>11800</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
       <c r="F52" s="2">
         <f t="shared" si="0"/>
-        <v>6.2687366386901518E+101</v>
+        <v>1.688849860263936E+98</v>
       </c>
       <c r="G52">
         <v>1000</v>
@@ -2596,7 +2596,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F53" s="2">
         <f t="shared" si="0"/>
-        <v>1.4104657437052842E+102</v>
+        <v>3.377699720527872E+98</v>
       </c>
       <c r="G53">
         <v>1000</v>
@@ -2632,7 +2632,7 @@
         <v>12200</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="F54" s="2">
         <f t="shared" si="0"/>
-        <v>3.1735479233368895E+102</v>
+        <v>6.7553994410557439E+98</v>
       </c>
       <c r="G54">
         <v>1000</v>
@@ -2668,7 +2668,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="F55" s="2">
         <f t="shared" si="0"/>
-        <v>7.140482827508002E+102</v>
+        <v>1.3510798882111488E+99</v>
       </c>
       <c r="G55">
         <v>1000</v>
@@ -2704,7 +2704,7 @@
         <v>12600</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2725,7 +2725,7 @@
       </c>
       <c r="F56" s="2">
         <f t="shared" si="0"/>
-        <v>1.6066086361893004E+103</v>
+        <v>2.7021597764222976E+99</v>
       </c>
       <c r="G56">
         <v>1000</v>
@@ -2740,7 +2740,7 @@
         <v>12800</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2761,7 +2761,7 @@
       </c>
       <c r="F57" s="2">
         <f t="shared" si="0"/>
-        <v>3.6148694314259256E+103</v>
+        <v>5.4043195528445951E+99</v>
       </c>
       <c r="G57">
         <v>1000</v>
@@ -2776,7 +2776,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2797,7 +2797,7 @@
       </c>
       <c r="F58" s="2">
         <f t="shared" si="0"/>
-        <v>8.1334562207083332E+103</v>
+        <v>1.080863910568919E+100</v>
       </c>
       <c r="G58">
         <v>1000</v>
@@ -2812,7 +2812,7 @@
         <v>13200</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="F59" s="2">
         <f t="shared" si="0"/>
-        <v>1.830027649659375E+104</v>
+        <v>2.161727821137838E+100</v>
       </c>
       <c r="G59">
         <v>1000</v>
@@ -2848,7 +2848,7 @@
         <v>13400</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F60" s="2">
         <f t="shared" si="0"/>
-        <v>4.1175622117335941E+104</v>
+        <v>4.3234556422756761E+100</v>
       </c>
       <c r="G60">
         <v>1000</v>
@@ -2884,7 +2884,7 @@
         <v>13600</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2905,7 +2905,7 @@
       </c>
       <c r="F61" s="2">
         <f t="shared" si="0"/>
-        <v>9.2645149764005872E+104</v>
+        <v>8.6469112845513522E+100</v>
       </c>
       <c r="G61">
         <v>1000</v>
@@ -2920,7 +2920,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="F62" s="2">
         <f t="shared" si="0"/>
-        <v>2.0845158696901321E+105</v>
+        <v>1.7293822569102704E+101</v>
       </c>
       <c r="G62">
         <v>1000</v>
@@ -2956,7 +2956,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F63" s="2">
         <f t="shared" si="0"/>
-        <v>4.6901607068027976E+105</v>
+        <v>3.4587645138205409E+101</v>
       </c>
       <c r="G63">
         <v>1000</v>
@@ -2992,7 +2992,7 @@
         <v>14200</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="F64" s="2">
         <f t="shared" si="0"/>
-        <v>1.0552861590306294E+106</v>
+        <v>6.9175290276410818E+101</v>
       </c>
       <c r="G64">
         <v>1000</v>
@@ -3028,7 +3028,7 @@
         <v>14400</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3049,7 +3049,7 @@
       </c>
       <c r="F65" s="2">
         <f t="shared" si="0"/>
-        <v>2.374393857818916E+106</v>
+        <v>1.3835058055282164E+102</v>
       </c>
       <c r="G65">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>14600</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3085,7 +3085,7 @@
       </c>
       <c r="F66" s="2">
         <f t="shared" si="0"/>
-        <v>5.3423861800925613E+106</v>
+        <v>2.7670116110564327E+102</v>
       </c>
       <c r="G66">
         <v>1000</v>
@@ -3100,7 +3100,7 @@
         <v>14800</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3121,7 +3121,7 @@
       </c>
       <c r="F67" s="2">
         <f t="shared" si="0"/>
-        <v>1.2020368905208263E+107</v>
+        <v>5.5340232221128654E+102</v>
       </c>
       <c r="G67">
         <v>1000</v>
@@ -3136,7 +3136,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10">
       <c r="A68">
         <v>66</v>
       </c>
@@ -3156,8 +3156,8 @@
         <v>1</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F132" si="4">F67*2.25</f>
-        <v>2.7045830036718591E+107</v>
+        <f t="shared" ref="F68:F131" si="4">F67*2</f>
+        <v>1.1068046444225731E+103</v>
       </c>
       <c r="G68">
         <v>1000</v>
@@ -3172,7 +3172,7 @@
         <v>15200</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10">
       <c r="A69">
         <v>67</v>
       </c>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F69" s="2">
         <f t="shared" si="4"/>
-        <v>6.0853117582616836E+107</v>
+        <v>2.2136092888451462E+103</v>
       </c>
       <c r="G69">
         <v>1000</v>
@@ -3208,7 +3208,7 @@
         <v>15400</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10">
       <c r="A70">
         <v>68</v>
       </c>
@@ -3229,7 +3229,7 @@
       </c>
       <c r="F70" s="2">
         <f t="shared" si="4"/>
-        <v>1.3691951456088788E+108</v>
+        <v>4.4272185776902923E+103</v>
       </c>
       <c r="G70">
         <v>1000</v>
@@ -3244,7 +3244,7 @@
         <v>15600</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10">
       <c r="A71">
         <v>69</v>
       </c>
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F71" s="2">
         <f t="shared" si="4"/>
-        <v>3.0806890776199771E+108</v>
+        <v>8.8544371553805847E+103</v>
       </c>
       <c r="G71">
         <v>1000</v>
@@ -3280,7 +3280,7 @@
         <v>15800</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10">
       <c r="A72">
         <v>70</v>
       </c>
@@ -3301,7 +3301,7 @@
       </c>
       <c r="F72" s="2">
         <f t="shared" si="4"/>
-        <v>6.9315504246449489E+108</v>
+        <v>1.7708874310761169E+104</v>
       </c>
       <c r="G72">
         <v>1000</v>
@@ -3316,7 +3316,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10">
       <c r="A73">
         <v>71</v>
       </c>
@@ -3337,7 +3337,7 @@
       </c>
       <c r="F73" s="2">
         <f t="shared" si="4"/>
-        <v>1.5595988455451135E+109</v>
+        <v>3.5417748621522339E+104</v>
       </c>
       <c r="G73">
         <v>1000</v>
@@ -3352,7 +3352,7 @@
         <v>16200</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10">
       <c r="A74">
         <v>72</v>
       </c>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="F74" s="2">
         <f t="shared" si="4"/>
-        <v>3.5090974024765051E+109</v>
+        <v>7.0835497243044677E+104</v>
       </c>
       <c r="G74">
         <v>1000</v>
@@ -3388,7 +3388,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10">
       <c r="A75">
         <v>73</v>
       </c>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="F75" s="2">
         <f t="shared" si="4"/>
-        <v>7.8954691555721363E+109</v>
+        <v>1.4167099448608935E+105</v>
       </c>
       <c r="G75">
         <v>1000</v>
@@ -3424,7 +3424,7 @@
         <v>16600</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10">
       <c r="A76">
         <v>74</v>
       </c>
@@ -3445,7 +3445,7 @@
       </c>
       <c r="F76" s="2">
         <f t="shared" si="4"/>
-        <v>1.7764805600037305E+110</v>
+        <v>2.8334198897217871E+105</v>
       </c>
       <c r="G76">
         <v>1000</v>
@@ -3460,7 +3460,7 @@
         <v>16800</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10">
       <c r="A77">
         <v>75</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
       <c r="F77" s="2">
         <f t="shared" si="4"/>
-        <v>3.997081260008394E+110</v>
+        <v>5.6668397794435742E+105</v>
       </c>
       <c r="G77">
         <v>1000</v>
@@ -3496,7 +3496,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10">
       <c r="A78">
         <v>76</v>
       </c>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F78" s="2">
         <f t="shared" si="4"/>
-        <v>8.9934328350188866E+110</v>
+        <v>1.1333679558887148E+106</v>
       </c>
       <c r="G78">
         <v>1000</v>
@@ -3532,7 +3532,7 @@
         <v>17200</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10">
       <c r="A79">
         <v>77</v>
       </c>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="F79" s="2">
         <f t="shared" si="4"/>
-        <v>2.0235223878792495E+111</v>
+        <v>2.2667359117774297E+106</v>
       </c>
       <c r="G79">
         <v>1000</v>
@@ -3568,7 +3568,7 @@
         <v>17400</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10">
       <c r="A80">
         <v>78</v>
       </c>
@@ -3589,7 +3589,7 @@
       </c>
       <c r="F80" s="2">
         <f t="shared" si="4"/>
-        <v>4.5529253727283116E+111</v>
+        <v>4.5334718235548593E+106</v>
       </c>
       <c r="G80">
         <v>1000</v>
@@ -3604,7 +3604,7 @@
         <v>17600</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>79</v>
       </c>
@@ -3625,7 +3625,7 @@
       </c>
       <c r="F81" s="2">
         <f t="shared" si="4"/>
-        <v>1.0244082088638702E+112</v>
+        <v>9.0669436471097187E+106</v>
       </c>
       <c r="G81">
         <v>1000</v>
@@ -3640,7 +3640,7 @@
         <v>17800</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>80</v>
       </c>
@@ -3661,7 +3661,7 @@
       </c>
       <c r="F82" s="2">
         <f t="shared" si="4"/>
-        <v>2.304918469943708E+112</v>
+        <v>1.8133887294219437E+107</v>
       </c>
       <c r="G82">
         <v>1000</v>
@@ -3676,7 +3676,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>81</v>
       </c>
@@ -3697,7 +3697,7 @@
       </c>
       <c r="F83" s="2">
         <f t="shared" si="4"/>
-        <v>5.1860665573733432E+112</v>
+        <v>3.6267774588438875E+107</v>
       </c>
       <c r="G83">
         <v>1000</v>
@@ -3712,7 +3712,7 @@
         <v>18200</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>82</v>
       </c>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="F84" s="2">
         <f t="shared" si="4"/>
-        <v>1.1668649754090022E+113</v>
+        <v>7.2535549176877749E+107</v>
       </c>
       <c r="G84">
         <v>1000</v>
@@ -3748,7 +3748,7 @@
         <v>18400</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>83</v>
       </c>
@@ -3769,7 +3769,7 @@
       </c>
       <c r="F85" s="2">
         <f t="shared" si="4"/>
-        <v>2.6254461946702548E+113</v>
+        <v>1.450710983537555E+108</v>
       </c>
       <c r="G85">
         <v>1000</v>
@@ -3784,7 +3784,7 @@
         <v>18600</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>84</v>
       </c>
@@ -3805,7 +3805,7 @@
       </c>
       <c r="F86" s="2">
         <f t="shared" si="4"/>
-        <v>5.9072539380080736E+113</v>
+        <v>2.90142196707511E+108</v>
       </c>
       <c r="G86">
         <v>1000</v>
@@ -3820,7 +3820,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>85</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F87" s="2">
         <f t="shared" si="4"/>
-        <v>1.3291321360518167E+114</v>
+        <v>5.80284393415022E+108</v>
       </c>
       <c r="G87">
         <v>1000</v>
@@ -3856,7 +3856,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>86</v>
       </c>
@@ -3877,7 +3877,7 @@
       </c>
       <c r="F88" s="2">
         <f t="shared" si="4"/>
-        <v>2.9905473061165878E+114</v>
+        <v>1.160568786830044E+109</v>
       </c>
       <c r="G88">
         <v>1000</v>
@@ -3892,7 +3892,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>87</v>
       </c>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="F89" s="2">
         <f t="shared" si="4"/>
-        <v>6.7287314387623229E+114</v>
+        <v>2.321137573660088E+109</v>
       </c>
       <c r="G89">
         <v>1000</v>
@@ -3928,7 +3928,7 @@
         <v>19400</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>88</v>
       </c>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="F90" s="2">
         <f t="shared" si="4"/>
-        <v>1.5139645737215227E+115</v>
+        <v>4.642275147320176E+109</v>
       </c>
       <c r="G90">
         <v>1000</v>
@@ -3964,7 +3964,7 @@
         <v>19600</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>89</v>
       </c>
@@ -3985,7 +3985,7 @@
       </c>
       <c r="F91" s="2">
         <f t="shared" si="4"/>
-        <v>3.406420290873426E+115</v>
+        <v>9.2845502946403519E+109</v>
       </c>
       <c r="G91">
         <v>1000</v>
@@ -4000,7 +4000,7 @@
         <v>19800</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>90</v>
       </c>
@@ -4021,7 +4021,7 @@
       </c>
       <c r="F92" s="2">
         <f t="shared" si="4"/>
-        <v>7.6644456544652081E+115</v>
+        <v>1.8569100589280704E+110</v>
       </c>
       <c r="G92">
         <v>1000</v>
@@ -4036,7 +4036,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>91</v>
       </c>
@@ -4057,7 +4057,7 @@
       </c>
       <c r="F93" s="2">
         <f t="shared" si="4"/>
-        <v>1.7245002722546719E+116</v>
+        <v>3.7138201178561408E+110</v>
       </c>
       <c r="G93">
         <v>1000</v>
@@ -4072,7 +4072,7 @@
         <v>20200</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>92</v>
       </c>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="F94" s="2">
         <f t="shared" si="4"/>
-        <v>3.8801256125730115E+116</v>
+        <v>7.4276402357122815E+110</v>
       </c>
       <c r="G94">
         <v>1000</v>
@@ -4108,7 +4108,7 @@
         <v>20400</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>93</v>
       </c>
@@ -4129,7 +4129,7 @@
       </c>
       <c r="F95" s="2">
         <f t="shared" si="4"/>
-        <v>8.7302826282892764E+116</v>
+        <v>1.4855280471424563E+111</v>
       </c>
       <c r="G95">
         <v>1000</v>
@@ -4144,7 +4144,7 @@
         <v>20600</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>94</v>
       </c>
@@ -4165,7 +4165,7 @@
       </c>
       <c r="F96" s="2">
         <f t="shared" si="4"/>
-        <v>1.9643135913650871E+117</v>
+        <v>2.9710560942849126E+111</v>
       </c>
       <c r="G96">
         <v>1000</v>
@@ -4180,7 +4180,7 @@
         <v>20800</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>95</v>
       </c>
@@ -4201,7 +4201,7 @@
       </c>
       <c r="F97" s="2">
         <f t="shared" si="4"/>
-        <v>4.4197055805714458E+117</v>
+        <v>5.9421121885698252E+111</v>
       </c>
       <c r="G97">
         <v>1000</v>
@@ -4216,7 +4216,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>96</v>
       </c>
@@ -4237,7 +4237,7 @@
       </c>
       <c r="F98" s="2">
         <f t="shared" si="4"/>
-        <v>9.9443375562857535E+117</v>
+        <v>1.188422437713965E+112</v>
       </c>
       <c r="G98">
         <v>1000</v>
@@ -4252,7 +4252,7 @@
         <v>21200</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>97</v>
       </c>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="F99" s="2">
         <f t="shared" si="4"/>
-        <v>2.2374759501642943E+118</v>
+        <v>2.3768448754279301E+112</v>
       </c>
       <c r="G99">
         <v>1000</v>
@@ -4288,7 +4288,7 @@
         <v>21400</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>98</v>
       </c>
@@ -4309,7 +4309,7 @@
       </c>
       <c r="F100" s="2">
         <f t="shared" si="4"/>
-        <v>5.0343208878696624E+118</v>
+        <v>4.7536897508558602E+112</v>
       </c>
       <c r="G100">
         <v>1000</v>
@@ -4324,7 +4324,7 @@
         <v>21600</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>99</v>
       </c>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F101" s="2">
         <f t="shared" si="4"/>
-        <v>1.1327221997706739E+119</v>
+        <v>9.5073795017117204E+112</v>
       </c>
       <c r="G101">
         <v>1000</v>
@@ -4360,7 +4360,7 @@
         <v>21800</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>100</v>
       </c>
@@ -4381,7 +4381,7 @@
       </c>
       <c r="F102" s="2">
         <f t="shared" si="4"/>
-        <v>2.5486249494840162E+119</v>
+        <v>1.9014759003423441E+113</v>
       </c>
       <c r="G102">
         <v>1000</v>
@@ -4396,7 +4396,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>101</v>
       </c>
@@ -4417,7 +4417,7 @@
       </c>
       <c r="F103" s="2">
         <f t="shared" si="4"/>
-        <v>5.7344061363390363E+119</v>
+        <v>3.8029518006846882E+113</v>
       </c>
       <c r="G103">
         <v>1000</v>
@@ -4432,7 +4432,7 @@
         <v>22200</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>102</v>
       </c>
@@ -4453,7 +4453,7 @@
       </c>
       <c r="F104" s="2">
         <f t="shared" si="4"/>
-        <v>1.2902413806762832E+120</v>
+        <v>7.6059036013693763E+113</v>
       </c>
       <c r="G104">
         <v>1000</v>
@@ -4468,7 +4468,7 @@
         <v>22400</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>103</v>
       </c>
@@ -4489,7 +4489,7 @@
       </c>
       <c r="F105" s="2">
         <f t="shared" si="4"/>
-        <v>2.9030431065216373E+120</v>
+        <v>1.5211807202738753E+114</v>
       </c>
       <c r="G105">
         <v>1000</v>
@@ -4504,7 +4504,7 @@
         <v>22600</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>104</v>
       </c>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="F106" s="2">
         <f t="shared" si="4"/>
-        <v>6.5318469896736843E+120</v>
+        <v>3.0423614405477505E+114</v>
       </c>
       <c r="G106">
         <v>1000</v>
@@ -4540,7 +4540,7 @@
         <v>22800</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>105</v>
       </c>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="F107" s="2">
         <f t="shared" si="4"/>
-        <v>1.4696655726765789E+121</v>
+        <v>6.084722881095501E+114</v>
       </c>
       <c r="G107">
         <v>1000</v>
@@ -4576,7 +4576,7 @@
         <v>23000</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>106</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
       <c r="F108" s="2">
         <f t="shared" si="4"/>
-        <v>3.3067475385223025E+121</v>
+        <v>1.2169445762191002E+115</v>
       </c>
       <c r="G108">
         <v>1000</v>
@@ -4612,7 +4612,7 @@
         <v>23200</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>107</v>
       </c>
@@ -4633,7 +4633,7 @@
       </c>
       <c r="F109" s="2">
         <f t="shared" si="4"/>
-        <v>7.4401819616751805E+121</v>
+        <v>2.4338891524382004E+115</v>
       </c>
       <c r="G109">
         <v>1000</v>
@@ -4648,7 +4648,7 @@
         <v>23400</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>108</v>
       </c>
@@ -4669,7 +4669,7 @@
       </c>
       <c r="F110" s="2">
         <f t="shared" si="4"/>
-        <v>1.6740409413769155E+122</v>
+        <v>4.8677783048764008E+115</v>
       </c>
       <c r="G110">
         <v>1000</v>
@@ -4684,7 +4684,7 @@
         <v>23600</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>109</v>
       </c>
@@ -4705,7 +4705,7 @@
       </c>
       <c r="F111" s="2">
         <f t="shared" si="4"/>
-        <v>3.7665921180980602E+122</v>
+        <v>9.7355566097528017E+115</v>
       </c>
       <c r="G111">
         <v>1000</v>
@@ -4720,7 +4720,7 @@
         <v>23800</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>110</v>
       </c>
@@ -4741,7 +4741,7 @@
       </c>
       <c r="F112" s="2">
         <f t="shared" si="4"/>
-        <v>8.4748322657206354E+122</v>
+        <v>1.9471113219505603E+116</v>
       </c>
       <c r="G112">
         <v>1000</v>
@@ -4756,7 +4756,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>111</v>
       </c>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="F113" s="2">
         <f t="shared" si="4"/>
-        <v>1.906837259787143E+123</v>
+        <v>3.8942226439011207E+116</v>
       </c>
       <c r="G113">
         <v>1000</v>
@@ -4792,7 +4792,7 @@
         <v>24200</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>112</v>
       </c>
@@ -4813,7 +4813,7 @@
       </c>
       <c r="F114" s="2">
         <f t="shared" si="4"/>
-        <v>4.2903838345210714E+123</v>
+        <v>7.7884452878022413E+116</v>
       </c>
       <c r="G114">
         <v>1000</v>
@@ -4828,7 +4828,7 @@
         <v>24400</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>113</v>
       </c>
@@ -4849,7 +4849,7 @@
       </c>
       <c r="F115" s="2">
         <f t="shared" si="4"/>
-        <v>9.6533636276724109E+123</v>
+        <v>1.5576890575604483E+117</v>
       </c>
       <c r="G115">
         <v>1000</v>
@@ -4864,7 +4864,7 @@
         <v>24600</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>114</v>
       </c>
@@ -4885,7 +4885,7 @@
       </c>
       <c r="F116" s="2">
         <f t="shared" si="4"/>
-        <v>2.1720068162262922E+124</v>
+        <v>3.1153781151208965E+117</v>
       </c>
       <c r="G116">
         <v>1000</v>
@@ -4900,7 +4900,7 @@
         <v>24800</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>115</v>
       </c>
@@ -4921,7 +4921,7 @@
       </c>
       <c r="F117" s="2">
         <f t="shared" si="4"/>
-        <v>4.8870153365091577E+124</v>
+        <v>6.2307562302417931E+117</v>
       </c>
       <c r="G117">
         <v>1000</v>
@@ -4936,7 +4936,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4957,7 +4957,7 @@
       </c>
       <c r="F118" s="2">
         <f t="shared" si="4"/>
-        <v>1.0995784507145604E+125</v>
+        <v>1.2461512460483586E+118</v>
       </c>
       <c r="G118">
         <v>1000</v>
@@ -4972,7 +4972,7 @@
         <v>25200</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>117</v>
       </c>
@@ -4993,7 +4993,7 @@
       </c>
       <c r="F119" s="2">
         <f t="shared" si="4"/>
-        <v>2.4740515141077609E+125</v>
+        <v>2.4923024920967172E+118</v>
       </c>
       <c r="G119">
         <v>1000</v>
@@ -5008,7 +5008,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5029,7 +5029,7 @@
       </c>
       <c r="F120" s="2">
         <f t="shared" si="4"/>
-        <v>5.5666159067424623E+125</v>
+        <v>4.9846049841934345E+118</v>
       </c>
       <c r="G120">
         <v>1000</v>
@@ -5044,7 +5044,7 @@
         <v>25600</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5065,7 +5065,7 @@
       </c>
       <c r="F121" s="2">
         <f t="shared" si="4"/>
-        <v>1.252488579017054E+126</v>
+        <v>9.9692099683868689E+118</v>
       </c>
       <c r="G121">
         <v>1000</v>
@@ -5080,7 +5080,7 @@
         <v>25800</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5101,7 +5101,7 @@
       </c>
       <c r="F122" s="2">
         <f t="shared" si="4"/>
-        <v>2.8180993027883715E+126</v>
+        <v>1.9938419936773738E+119</v>
       </c>
       <c r="G122">
         <v>1000</v>
@@ -5116,7 +5116,7 @@
         <v>26000</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="F123" s="2">
         <f t="shared" si="4"/>
-        <v>6.3407234312738354E+126</v>
+        <v>3.9876839873547476E+119</v>
       </c>
       <c r="G123">
         <v>1000</v>
@@ -5152,7 +5152,7 @@
         <v>26200</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5173,7 +5173,7 @@
       </c>
       <c r="F124" s="2">
         <f t="shared" si="4"/>
-        <v>1.4266627720366131E+127</v>
+        <v>7.9753679747094951E+119</v>
       </c>
       <c r="G124">
         <v>1000</v>
@@ -5188,7 +5188,7 @@
         <v>26400</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5209,7 +5209,7 @@
       </c>
       <c r="F125" s="2">
         <f t="shared" si="4"/>
-        <v>3.2099912370823796E+127</v>
+        <v>1.595073594941899E+120</v>
       </c>
       <c r="G125">
         <v>1000</v>
@@ -5224,7 +5224,7 @@
         <v>26600</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5245,7 +5245,7 @@
       </c>
       <c r="F126" s="2">
         <f t="shared" si="4"/>
-        <v>7.2224802834353541E+127</v>
+        <v>3.190147189883798E+120</v>
       </c>
       <c r="G126">
         <v>1000</v>
@@ -5260,7 +5260,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="F127" s="2">
         <f t="shared" si="4"/>
-        <v>1.6250580637729546E+128</v>
+        <v>6.3802943797675961E+120</v>
       </c>
       <c r="G127">
         <v>1000</v>
@@ -5296,7 +5296,7 @@
         <v>27000</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5317,7 +5317,7 @@
       </c>
       <c r="F128" s="2">
         <f t="shared" si="4"/>
-        <v>3.6563806434891482E+128</v>
+        <v>1.2760588759535192E+121</v>
       </c>
       <c r="G128">
         <v>1000</v>
@@ -5332,7 +5332,7 @@
         <v>27200</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="F129" s="2">
         <f t="shared" si="4"/>
-        <v>8.2268564478505829E+128</v>
+        <v>2.5521177519070384E+121</v>
       </c>
       <c r="G129">
         <v>1000</v>
@@ -5368,7 +5368,7 @@
         <v>27400</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5389,7 +5389,7 @@
       </c>
       <c r="F130" s="2">
         <f t="shared" si="4"/>
-        <v>1.8510427007663811E+129</v>
+        <v>5.1042355038140769E+121</v>
       </c>
       <c r="G130">
         <v>1000</v>
@@ -5404,7 +5404,7 @@
         <v>27600</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5425,7 +5425,7 @@
       </c>
       <c r="F131" s="2">
         <f t="shared" si="4"/>
-        <v>4.1648460767243574E+129</v>
+        <v>1.0208471007628154E+122</v>
       </c>
       <c r="G131">
         <v>1000</v>
@@ -5440,7 +5440,7 @@
         <v>27800</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5460,8 +5460,8 @@
         <v>1</v>
       </c>
       <c r="F132" s="2">
-        <f t="shared" si="4"/>
-        <v>9.3709036726298041E+129</v>
+        <f t="shared" ref="F132:F195" si="8">F131*2</f>
+        <v>2.0416942015256308E+122</v>
       </c>
       <c r="G132">
         <v>1000</v>
@@ -5476,7 +5476,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5496,8 +5496,8 @@
         <v>1</v>
       </c>
       <c r="F133" s="2">
-        <f t="shared" ref="F133:F196" si="8">F132*2.25</f>
-        <v>2.1084533263417059E+130</v>
+        <f t="shared" si="8"/>
+        <v>4.0833884030512615E+122</v>
       </c>
       <c r="G133">
         <v>1000</v>
@@ -5512,7 +5512,7 @@
         <v>28200</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5533,7 +5533,7 @@
       </c>
       <c r="F134" s="2">
         <f t="shared" si="8"/>
-        <v>4.7440199842688382E+130</v>
+        <v>8.166776806102523E+122</v>
       </c>
       <c r="G134">
         <v>1000</v>
@@ -5548,7 +5548,7 @@
         <v>28400</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5569,7 +5569,7 @@
       </c>
       <c r="F135" s="2">
         <f t="shared" si="8"/>
-        <v>1.0674044964604887E+131</v>
+        <v>1.6333553612205046E+123</v>
       </c>
       <c r="G135">
         <v>1000</v>
@@ -5584,7 +5584,7 @@
         <v>28600</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5605,7 +5605,7 @@
       </c>
       <c r="F136" s="2">
         <f t="shared" si="8"/>
-        <v>2.4016601170360997E+131</v>
+        <v>3.2667107224410092E+123</v>
       </c>
       <c r="G136">
         <v>1000</v>
@@ -5620,7 +5620,7 @@
         <v>28800</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5641,7 +5641,7 @@
       </c>
       <c r="F137" s="2">
         <f t="shared" si="8"/>
-        <v>5.4037352633312247E+131</v>
+        <v>6.5334214448820184E+123</v>
       </c>
       <c r="G137">
         <v>1000</v>
@@ -5656,7 +5656,7 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="F138" s="2">
         <f t="shared" si="8"/>
-        <v>1.2158404342495255E+132</v>
+        <v>1.3066842889764037E+124</v>
       </c>
       <c r="G138">
         <v>1000</v>
@@ -5692,7 +5692,7 @@
         <v>29200</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5713,7 +5713,7 @@
       </c>
       <c r="F139" s="2">
         <f t="shared" si="8"/>
-        <v>2.7356409770614324E+132</v>
+        <v>2.6133685779528074E+124</v>
       </c>
       <c r="G139">
         <v>1000</v>
@@ -5728,7 +5728,7 @@
         <v>29400</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5749,7 +5749,7 @@
       </c>
       <c r="F140" s="2">
         <f t="shared" si="8"/>
-        <v>6.1551921983882224E+132</v>
+        <v>5.2267371559056147E+124</v>
       </c>
       <c r="G140">
         <v>1000</v>
@@ -5764,7 +5764,7 @@
         <v>29600</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5785,7 +5785,7 @@
       </c>
       <c r="F141" s="2">
         <f t="shared" si="8"/>
-        <v>1.3849182446373501E+133</v>
+        <v>1.0453474311811229E+125</v>
       </c>
       <c r="G141">
         <v>1000</v>
@@ -5800,7 +5800,7 @@
         <v>29800</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5821,7 +5821,7 @@
       </c>
       <c r="F142" s="2">
         <f t="shared" si="8"/>
-        <v>3.1160660504340378E+133</v>
+        <v>2.0906948623622459E+125</v>
       </c>
       <c r="G142">
         <v>1000</v>
@@ -5836,7 +5836,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="F143" s="2">
         <f t="shared" si="8"/>
-        <v>7.0111486134765846E+133</v>
+        <v>4.1813897247244918E+125</v>
       </c>
       <c r="G143">
         <v>1000</v>
@@ -5872,7 +5872,7 @@
         <v>30200</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5893,7 +5893,7 @@
       </c>
       <c r="F144" s="2">
         <f t="shared" si="8"/>
-        <v>1.5775084380322316E+134</v>
+        <v>8.3627794494489836E+125</v>
       </c>
       <c r="G144">
         <v>1000</v>
@@ -5908,7 +5908,7 @@
         <v>30400</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5929,7 +5929,7 @@
       </c>
       <c r="F145" s="2">
         <f t="shared" si="8"/>
-        <v>3.5493939855725213E+134</v>
+        <v>1.6725558898897967E+126</v>
       </c>
       <c r="G145">
         <v>1000</v>
@@ -5944,7 +5944,7 @@
         <v>30600</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5965,7 +5965,7 @@
       </c>
       <c r="F146" s="2">
         <f t="shared" si="8"/>
-        <v>7.9861364675381733E+134</v>
+        <v>3.3451117797795934E+126</v>
       </c>
       <c r="G146">
         <v>1000</v>
@@ -5980,7 +5980,7 @@
         <v>30800</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6001,7 +6001,7 @@
       </c>
       <c r="F147" s="2">
         <f t="shared" si="8"/>
-        <v>1.7968807051960888E+135</v>
+        <v>6.6902235595591868E+126</v>
       </c>
       <c r="G147">
         <v>1000</v>
@@ -6016,7 +6016,7 @@
         <v>31000</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="F148" s="2">
         <f t="shared" si="8"/>
-        <v>4.0429815866912002E+135</v>
+        <v>1.3380447119118374E+127</v>
       </c>
       <c r="G148">
         <v>1000</v>
@@ -6052,7 +6052,7 @@
         <v>31200</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6073,7 +6073,7 @@
       </c>
       <c r="F149" s="2">
         <f t="shared" si="8"/>
-        <v>9.0967085700551998E+135</v>
+        <v>2.6760894238236747E+127</v>
       </c>
       <c r="G149">
         <v>1000</v>
@@ -6088,7 +6088,7 @@
         <v>31400</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="F150" s="2">
         <f t="shared" si="8"/>
-        <v>2.04675942826242E+136</v>
+        <v>5.3521788476473495E+127</v>
       </c>
       <c r="G150">
         <v>1000</v>
@@ -6124,7 +6124,7 @@
         <v>31600</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6145,7 +6145,7 @@
       </c>
       <c r="F151" s="2">
         <f t="shared" si="8"/>
-        <v>4.6052087135904452E+136</v>
+        <v>1.0704357695294699E+128</v>
       </c>
       <c r="G151">
         <v>1000</v>
@@ -6160,7 +6160,7 @@
         <v>31800</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6181,7 +6181,7 @@
       </c>
       <c r="F152" s="2">
         <f t="shared" si="8"/>
-        <v>1.0361719605578503E+137</v>
+        <v>2.1408715390589398E+128</v>
       </c>
       <c r="G152">
         <v>1000</v>
@@ -6196,7 +6196,7 @@
         <v>32000</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="F153" s="2">
         <f t="shared" si="8"/>
-        <v>2.3313869112551629E+137</v>
+        <v>4.2817430781178796E+128</v>
       </c>
       <c r="G153">
         <v>1000</v>
@@ -6232,7 +6232,7 @@
         <v>32200</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6253,7 +6253,7 @@
       </c>
       <c r="F154" s="2">
         <f t="shared" si="8"/>
-        <v>5.2456205503241164E+137</v>
+        <v>8.5634861562357592E+128</v>
       </c>
       <c r="G154">
         <v>1000</v>
@@ -6268,7 +6268,7 @@
         <v>32400</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6289,7 +6289,7 @@
       </c>
       <c r="F155" s="2">
         <f t="shared" si="8"/>
-        <v>1.1802646238229263E+138</v>
+        <v>1.7126972312471518E+129</v>
       </c>
       <c r="G155">
         <v>1000</v>
@@ -6304,7 +6304,7 @@
         <v>32600</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6325,7 +6325,7 @@
       </c>
       <c r="F156" s="2">
         <f t="shared" si="8"/>
-        <v>2.655595403601584E+138</v>
+        <v>3.4253944624943037E+129</v>
       </c>
       <c r="G156">
         <v>1000</v>
@@ -6340,7 +6340,7 @@
         <v>32800</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:10">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="F157" s="2">
         <f t="shared" si="8"/>
-        <v>5.9750896581035639E+138</v>
+        <v>6.8507889249886073E+129</v>
       </c>
       <c r="G157">
         <v>1000</v>
@@ -6376,7 +6376,7 @@
         <v>33000</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6397,7 +6397,7 @@
       </c>
       <c r="F158" s="2">
         <f t="shared" si="8"/>
-        <v>1.3443951730733018E+139</v>
+        <v>1.3701577849977215E+130</v>
       </c>
       <c r="G158">
         <v>1000</v>
@@ -6412,7 +6412,7 @@
         <v>33200</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6433,7 +6433,7 @@
       </c>
       <c r="F159" s="2">
         <f t="shared" si="8"/>
-        <v>3.0248891394149292E+139</v>
+        <v>2.7403155699954429E+130</v>
       </c>
       <c r="G159">
         <v>1000</v>
@@ -6448,7 +6448,7 @@
         <v>33400</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6469,7 +6469,7 @@
       </c>
       <c r="F160" s="2">
         <f t="shared" si="8"/>
-        <v>6.8060005636835911E+139</v>
+        <v>5.4806311399908859E+130</v>
       </c>
       <c r="G160">
         <v>1000</v>
@@ -6484,7 +6484,7 @@
         <v>33600</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F161" s="2">
         <f t="shared" si="8"/>
-        <v>1.5313501268288081E+140</v>
+        <v>1.0961262279981772E+131</v>
       </c>
       <c r="G161">
         <v>1000</v>
@@ -6520,7 +6520,7 @@
         <v>33800</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F162" s="2">
         <f t="shared" si="8"/>
-        <v>3.4455377853648181E+140</v>
+        <v>2.1922524559963543E+131</v>
       </c>
       <c r="G162">
         <v>1000</v>
@@ -6556,7 +6556,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6577,7 +6577,7 @@
       </c>
       <c r="F163" s="2">
         <f t="shared" si="8"/>
-        <v>7.75246001707084E+140</v>
+        <v>4.3845049119927087E+131</v>
       </c>
       <c r="G163">
         <v>1000</v>
@@ -6592,7 +6592,7 @@
         <v>34200</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6613,7 +6613,7 @@
       </c>
       <c r="F164" s="2">
         <f t="shared" si="8"/>
-        <v>1.7443035038409389E+141</v>
+        <v>8.7690098239854174E+131</v>
       </c>
       <c r="G164">
         <v>1000</v>
@@ -6628,7 +6628,7 @@
         <v>34400</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6649,7 +6649,7 @@
       </c>
       <c r="F165" s="2">
         <f t="shared" si="8"/>
-        <v>3.9246828836421125E+141</v>
+        <v>1.7538019647970835E+132</v>
       </c>
       <c r="G165">
         <v>1000</v>
@@ -6664,7 +6664,7 @@
         <v>34600</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6685,7 +6685,7 @@
       </c>
       <c r="F166" s="2">
         <f t="shared" si="8"/>
-        <v>8.8305364881947534E+141</v>
+        <v>3.507603929594167E+132</v>
       </c>
       <c r="G166">
         <v>1000</v>
@@ -6700,7 +6700,7 @@
         <v>34800</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="F167" s="2">
         <f t="shared" si="8"/>
-        <v>1.9868707098438195E+142</v>
+        <v>7.0152078591883339E+132</v>
       </c>
       <c r="G167">
         <v>1000</v>
@@ -6736,7 +6736,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6757,7 +6757,7 @@
       </c>
       <c r="F168" s="2">
         <f t="shared" si="8"/>
-        <v>4.4704590971485941E+142</v>
+        <v>1.4030415718376668E+133</v>
       </c>
       <c r="G168">
         <v>1000</v>
@@ -6772,7 +6772,7 @@
         <v>35200</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="F169" s="2">
         <f t="shared" si="8"/>
-        <v>1.0058532968584336E+143</v>
+        <v>2.8060831436753336E+133</v>
       </c>
       <c r="G169">
         <v>1000</v>
@@ -6808,7 +6808,7 @@
         <v>35400</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="F170" s="2">
         <f t="shared" si="8"/>
-        <v>2.2631699179314755E+143</v>
+        <v>5.6121662873506671E+133</v>
       </c>
       <c r="G170">
         <v>1000</v>
@@ -6844,7 +6844,7 @@
         <v>35600</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6865,7 +6865,7 @@
       </c>
       <c r="F171" s="2">
         <f t="shared" si="8"/>
-        <v>5.09213231534582E+143</v>
+        <v>1.1224332574701334E+134</v>
       </c>
       <c r="G171">
         <v>1000</v>
@@ -6880,7 +6880,7 @@
         <v>35800</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6901,7 +6901,7 @@
       </c>
       <c r="F172" s="2">
         <f t="shared" si="8"/>
-        <v>1.1457297709528095E+144</v>
+        <v>2.2448665149402669E+134</v>
       </c>
       <c r="G172">
         <v>1000</v>
@@ -6916,7 +6916,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="F173" s="2">
         <f t="shared" si="8"/>
-        <v>2.5778919846438212E+144</v>
+        <v>4.4897330298805337E+134</v>
       </c>
       <c r="G173">
         <v>1000</v>
@@ -6952,7 +6952,7 @@
         <v>36200</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="F174" s="2">
         <f t="shared" si="8"/>
-        <v>5.8002569654485974E+144</v>
+        <v>8.9794660597610674E+134</v>
       </c>
       <c r="G174">
         <v>1000</v>
@@ -6988,7 +6988,7 @@
         <v>36400</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10">
       <c r="A175">
         <v>173</v>
       </c>
@@ -7009,7 +7009,7 @@
       </c>
       <c r="F175" s="2">
         <f t="shared" si="8"/>
-        <v>1.3050578172259343E+145</v>
+        <v>1.7958932119522135E+135</v>
       </c>
       <c r="G175">
         <v>1000</v>
@@ -7024,7 +7024,7 @@
         <v>36600</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10">
       <c r="A176">
         <v>174</v>
       </c>
@@ -7045,7 +7045,7 @@
       </c>
       <c r="F176" s="2">
         <f t="shared" si="8"/>
-        <v>2.936380088758352E+145</v>
+        <v>3.591786423904427E+135</v>
       </c>
       <c r="G176">
         <v>1000</v>
@@ -7060,7 +7060,7 @@
         <v>36800</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10">
       <c r="A177">
         <v>175</v>
       </c>
@@ -7081,7 +7081,7 @@
       </c>
       <c r="F177" s="2">
         <f t="shared" si="8"/>
-        <v>6.6068551997062918E+145</v>
+        <v>7.1835728478088539E+135</v>
       </c>
       <c r="G177">
         <v>1000</v>
@@ -7096,7 +7096,7 @@
         <v>37000</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:10">
       <c r="A178">
         <v>176</v>
       </c>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="F178" s="2">
         <f t="shared" si="8"/>
-        <v>1.4865424199339157E+146</v>
+        <v>1.4367145695617708E+136</v>
       </c>
       <c r="G178">
         <v>1000</v>
@@ -7132,7 +7132,7 @@
         <v>37200</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:10">
       <c r="A179">
         <v>177</v>
       </c>
@@ -7153,7 +7153,7 @@
       </c>
       <c r="F179" s="2">
         <f t="shared" si="8"/>
-        <v>3.3447204448513102E+146</v>
+        <v>2.8734291391235416E+136</v>
       </c>
       <c r="G179">
         <v>1000</v>
@@ -7168,7 +7168,7 @@
         <v>37400</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10">
       <c r="A180">
         <v>178</v>
       </c>
@@ -7189,7 +7189,7 @@
       </c>
       <c r="F180" s="2">
         <f t="shared" si="8"/>
-        <v>7.5256210009154483E+146</v>
+        <v>5.7468582782470831E+136</v>
       </c>
       <c r="G180">
         <v>1000</v>
@@ -7204,7 +7204,7 @@
         <v>37600</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10">
       <c r="A181">
         <v>179</v>
       </c>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="F181" s="2">
         <f t="shared" si="8"/>
-        <v>1.6932647252059759E+147</v>
+        <v>1.1493716556494166E+137</v>
       </c>
       <c r="G181">
         <v>1000</v>
@@ -7240,7 +7240,7 @@
         <v>37800</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10">
       <c r="A182">
         <v>180</v>
       </c>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="F182" s="2">
         <f t="shared" si="8"/>
-        <v>3.8098456317134454E+147</v>
+        <v>2.2987433112988333E+137</v>
       </c>
       <c r="G182">
         <v>1000</v>
@@ -7276,7 +7276,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10">
       <c r="A183">
         <v>181</v>
       </c>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="F183" s="2">
         <f t="shared" si="8"/>
-        <v>8.5721526713552517E+147</v>
+        <v>4.5974866225976665E+137</v>
       </c>
       <c r="G183">
         <v>1000</v>
@@ -7312,7 +7312,7 @@
         <v>38200</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10">
       <c r="A184">
         <v>182</v>
       </c>
@@ -7333,7 +7333,7 @@
       </c>
       <c r="F184" s="2">
         <f t="shared" si="8"/>
-        <v>1.9287343510549317E+148</v>
+        <v>9.194973245195333E+137</v>
       </c>
       <c r="G184">
         <v>1000</v>
@@ -7348,7 +7348,7 @@
         <v>38400</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10">
       <c r="A185">
         <v>183</v>
       </c>
@@ -7369,7 +7369,7 @@
       </c>
       <c r="F185" s="2">
         <f t="shared" si="8"/>
-        <v>4.3396522898735962E+148</v>
+        <v>1.8389946490390666E+138</v>
       </c>
       <c r="G185">
         <v>1000</v>
@@ -7384,7 +7384,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10">
       <c r="A186">
         <v>184</v>
       </c>
@@ -7405,7 +7405,7 @@
       </c>
       <c r="F186" s="2">
         <f t="shared" si="8"/>
-        <v>9.7642176522155919E+148</v>
+        <v>3.6779892980781332E+138</v>
       </c>
       <c r="G186">
         <v>1000</v>
@@ -7420,7 +7420,7 @@
         <v>38800</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10">
       <c r="A187">
         <v>185</v>
       </c>
@@ -7441,7 +7441,7 @@
       </c>
       <c r="F187" s="2">
         <f t="shared" si="8"/>
-        <v>2.1969489717485084E+149</v>
+        <v>7.3559785961562664E+138</v>
       </c>
       <c r="G187">
         <v>1000</v>
@@ -7456,7 +7456,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10">
       <c r="A188">
         <v>186</v>
       </c>
@@ -7477,7 +7477,7 @@
       </c>
       <c r="F188" s="2">
         <f t="shared" si="8"/>
-        <v>4.9431351864341441E+149</v>
+        <v>1.4711957192312533E+139</v>
       </c>
       <c r="G188">
         <v>1000</v>
@@ -7492,7 +7492,7 @@
         <v>39200</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10">
       <c r="A189">
         <v>187</v>
       </c>
@@ -7513,7 +7513,7 @@
       </c>
       <c r="F189" s="2">
         <f t="shared" si="8"/>
-        <v>1.1122054169476824E+150</v>
+        <v>2.9423914384625066E+139</v>
       </c>
       <c r="G189">
         <v>1000</v>
@@ -7528,7 +7528,7 @@
         <v>39400</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10">
       <c r="A190">
         <v>188</v>
       </c>
@@ -7549,7 +7549,7 @@
       </c>
       <c r="F190" s="2">
         <f t="shared" si="8"/>
-        <v>2.5024621881322855E+150</v>
+        <v>5.8847828769250131E+139</v>
       </c>
       <c r="G190">
         <v>1000</v>
@@ -7564,7 +7564,7 @@
         <v>39600</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10">
       <c r="A191">
         <v>189</v>
       </c>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="F191" s="2">
         <f t="shared" si="8"/>
-        <v>5.6305399232976427E+150</v>
+        <v>1.1769565753850026E+140</v>
       </c>
       <c r="G191">
         <v>1000</v>
@@ -7600,7 +7600,7 @@
         <v>39800</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10">
       <c r="A192">
         <v>190</v>
       </c>
@@ -7621,7 +7621,7 @@
       </c>
       <c r="F192" s="2">
         <f t="shared" si="8"/>
-        <v>1.2668714827419696E+151</v>
+        <v>2.3539131507700053E+140</v>
       </c>
       <c r="G192">
         <v>1000</v>
@@ -7636,7 +7636,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10">
       <c r="A193">
         <v>191</v>
       </c>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F193" s="2">
         <f t="shared" si="8"/>
-        <v>2.8504608361694319E+151</v>
+        <v>4.7078263015400105E+140</v>
       </c>
       <c r="G193">
         <v>1000</v>
@@ -7672,7 +7672,7 @@
         <v>40200</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10">
       <c r="A194">
         <v>192</v>
       </c>
@@ -7693,7 +7693,7 @@
       </c>
       <c r="F194" s="2">
         <f t="shared" si="8"/>
-        <v>6.4135368813812221E+151</v>
+        <v>9.415652603080021E+140</v>
       </c>
       <c r="G194">
         <v>1000</v>
@@ -7708,7 +7708,7 @@
         <v>40400</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10">
       <c r="A195">
         <v>193</v>
       </c>
@@ -7729,7 +7729,7 @@
       </c>
       <c r="F195" s="2">
         <f t="shared" si="8"/>
-        <v>1.443045798310775E+152</v>
+        <v>1.8831305206160042E+141</v>
       </c>
       <c r="G195">
         <v>1000</v>
@@ -7744,7 +7744,7 @@
         <v>40600</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10">
       <c r="A196">
         <v>194</v>
       </c>
@@ -7764,8 +7764,8 @@
         <v>1</v>
       </c>
       <c r="F196" s="2">
-        <f t="shared" si="8"/>
-        <v>3.2468530461992435E+152</v>
+        <f t="shared" ref="F196:F259" si="55">F195*2</f>
+        <v>3.7662610412320084E+141</v>
       </c>
       <c r="G196">
         <v>1000</v>
@@ -7780,16 +7780,16 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10">
       <c r="A197">
         <v>195</v>
       </c>
       <c r="B197" s="1" t="str">
-        <f t="shared" ref="B197:C197" si="55">B192</f>
+        <f t="shared" ref="B197:C197" si="56">B192</f>
         <v>1-1</v>
       </c>
       <c r="C197" s="3">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>9018</v>
       </c>
       <c r="D197">
@@ -7800,8 +7800,8 @@
         <v>1</v>
       </c>
       <c r="F197" s="2">
-        <f t="shared" ref="F197:F260" si="56">F196*2.25</f>
-        <v>7.3054193539482981E+152</v>
+        <f t="shared" si="55"/>
+        <v>7.5325220824640168E+141</v>
       </c>
       <c r="G197">
         <v>1000</v>
@@ -7816,7 +7816,7 @@
         <v>41000</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10">
       <c r="A198">
         <v>196</v>
       </c>
@@ -7836,8 +7836,8 @@
         <v>1</v>
       </c>
       <c r="F198" s="2">
-        <f t="shared" si="56"/>
-        <v>1.643719354638367E+153</v>
+        <f t="shared" si="55"/>
+        <v>1.5065044164928034E+142</v>
       </c>
       <c r="G198">
         <v>1000</v>
@@ -7852,7 +7852,7 @@
         <v>41200</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10">
       <c r="A199">
         <v>197</v>
       </c>
@@ -7872,8 +7872,8 @@
         <v>1</v>
       </c>
       <c r="F199" s="2">
-        <f t="shared" si="56"/>
-        <v>3.6983685479363257E+153</v>
+        <f t="shared" si="55"/>
+        <v>3.0130088329856067E+142</v>
       </c>
       <c r="G199">
         <v>1000</v>
@@ -7888,7 +7888,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10">
       <c r="A200">
         <v>198</v>
       </c>
@@ -7908,8 +7908,8 @@
         <v>1</v>
       </c>
       <c r="F200" s="2">
-        <f t="shared" si="56"/>
-        <v>8.3213292328567333E+153</v>
+        <f t="shared" si="55"/>
+        <v>6.0260176659712134E+142</v>
       </c>
       <c r="G200">
         <v>1000</v>
@@ -7924,7 +7924,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10">
       <c r="A201">
         <v>199</v>
       </c>
@@ -7944,8 +7944,8 @@
         <v>1</v>
       </c>
       <c r="F201" s="2">
-        <f t="shared" si="56"/>
-        <v>1.8722990773927651E+154</v>
+        <f t="shared" si="55"/>
+        <v>1.2052035331942427E+143</v>
       </c>
       <c r="G201">
         <v>1000</v>
@@ -7960,7 +7960,7 @@
         <v>41800</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10">
       <c r="A202">
         <v>200</v>
       </c>
@@ -7980,8 +7980,8 @@
         <v>1</v>
       </c>
       <c r="F202" s="2">
-        <f t="shared" si="56"/>
-        <v>4.2126729241337217E+154</v>
+        <f t="shared" si="55"/>
+        <v>2.4104070663884854E+143</v>
       </c>
       <c r="G202">
         <v>1000</v>
@@ -7996,7 +7996,7 @@
         <v>42000</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10">
       <c r="A203">
         <v>201</v>
       </c>
@@ -8016,8 +8016,8 @@
         <v>1</v>
       </c>
       <c r="F203" s="2">
-        <f t="shared" si="56"/>
-        <v>9.4785140793008735E+154</v>
+        <f t="shared" si="55"/>
+        <v>4.8208141327769708E+143</v>
       </c>
       <c r="G203">
         <v>1000</v>
@@ -8032,7 +8032,7 @@
         <v>42200</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10">
       <c r="A204">
         <v>202</v>
       </c>
@@ -8052,8 +8052,8 @@
         <v>1</v>
       </c>
       <c r="F204" s="2">
-        <f t="shared" si="56"/>
-        <v>2.1326656678426964E+155</v>
+        <f t="shared" si="55"/>
+        <v>9.6416282655539415E+143</v>
       </c>
       <c r="G204">
         <v>1000</v>
@@ -8068,7 +8068,7 @@
         <v>42400</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10">
       <c r="A205">
         <v>203</v>
       </c>
@@ -8088,8 +8088,8 @@
         <v>1</v>
       </c>
       <c r="F205" s="2">
-        <f t="shared" si="56"/>
-        <v>4.7984977526460673E+155</v>
+        <f t="shared" si="55"/>
+        <v>1.9283256531107883E+144</v>
       </c>
       <c r="G205">
         <v>1000</v>
@@ -8104,7 +8104,7 @@
         <v>42600</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10">
       <c r="A206">
         <v>204</v>
       </c>
@@ -8124,8 +8124,8 @@
         <v>1</v>
       </c>
       <c r="F206" s="2">
-        <f t="shared" si="56"/>
-        <v>1.0796619943453651E+156</v>
+        <f t="shared" si="55"/>
+        <v>3.8566513062215766E+144</v>
       </c>
       <c r="G206">
         <v>1000</v>
@@ -8140,7 +8140,7 @@
         <v>42800</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10">
       <c r="A207">
         <v>205</v>
       </c>
@@ -8160,8 +8160,8 @@
         <v>1</v>
       </c>
       <c r="F207" s="2">
-        <f t="shared" si="56"/>
-        <v>2.4292394872770713E+156</v>
+        <f t="shared" si="55"/>
+        <v>7.7133026124431532E+144</v>
       </c>
       <c r="G207">
         <v>1000</v>
@@ -8176,7 +8176,7 @@
         <v>43000</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10">
       <c r="A208">
         <v>206</v>
       </c>
@@ -8196,8 +8196,8 @@
         <v>1</v>
       </c>
       <c r="F208" s="2">
-        <f t="shared" si="56"/>
-        <v>5.4657888463734103E+156</v>
+        <f t="shared" si="55"/>
+        <v>1.5426605224886306E+145</v>
       </c>
       <c r="G208">
         <v>1000</v>
@@ -8212,7 +8212,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:10">
       <c r="A209">
         <v>207</v>
       </c>
@@ -8232,8 +8232,8 @@
         <v>1</v>
       </c>
       <c r="F209" s="2">
-        <f t="shared" si="56"/>
-        <v>1.2298024904340173E+157</v>
+        <f t="shared" si="55"/>
+        <v>3.0853210449772613E+145</v>
       </c>
       <c r="G209">
         <v>1000</v>
@@ -8248,7 +8248,7 @@
         <v>43400</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:10">
       <c r="A210">
         <v>208</v>
       </c>
@@ -8268,8 +8268,8 @@
         <v>1</v>
       </c>
       <c r="F210" s="2">
-        <f t="shared" si="56"/>
-        <v>2.7670556034765388E+157</v>
+        <f t="shared" si="55"/>
+        <v>6.1706420899545226E+145</v>
       </c>
       <c r="G210">
         <v>1000</v>
@@ -8284,7 +8284,7 @@
         <v>43600</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:10">
       <c r="A211">
         <v>209</v>
       </c>
@@ -8304,8 +8304,8 @@
         <v>1</v>
       </c>
       <c r="F211" s="2">
-        <f t="shared" si="56"/>
-        <v>6.2258751078222122E+157</v>
+        <f t="shared" si="55"/>
+        <v>1.2341284179909045E+146</v>
       </c>
       <c r="G211">
         <v>1000</v>
@@ -8320,7 +8320,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:10">
       <c r="A212">
         <v>210</v>
       </c>
@@ -8340,8 +8340,8 @@
         <v>1</v>
       </c>
       <c r="F212" s="2">
-        <f t="shared" si="56"/>
-        <v>1.4008218992599976E+158</v>
+        <f t="shared" si="55"/>
+        <v>2.468256835981809E+146</v>
       </c>
       <c r="G212">
         <v>1000</v>
@@ -8356,7 +8356,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:10">
       <c r="A213">
         <v>211</v>
       </c>
@@ -8376,8 +8376,8 @@
         <v>1</v>
       </c>
       <c r="F213" s="2">
-        <f t="shared" si="56"/>
-        <v>3.1518492733349948E+158</v>
+        <f t="shared" si="55"/>
+        <v>4.9365136719636181E+146</v>
       </c>
       <c r="G213">
         <v>1000</v>
@@ -8392,7 +8392,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:10">
       <c r="A214">
         <v>212</v>
       </c>
@@ -8412,8 +8412,8 @@
         <v>1</v>
       </c>
       <c r="F214" s="2">
-        <f t="shared" si="56"/>
-        <v>7.0916608650037381E+158</v>
+        <f t="shared" si="55"/>
+        <v>9.8730273439272361E+146</v>
       </c>
       <c r="G214">
         <v>1000</v>
@@ -8428,7 +8428,7 @@
         <v>44400</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:10">
       <c r="A215">
         <v>213</v>
       </c>
@@ -8448,8 +8448,8 @@
         <v>1</v>
       </c>
       <c r="F215" s="2">
-        <f t="shared" si="56"/>
-        <v>1.595623694625841E+159</v>
+        <f t="shared" si="55"/>
+        <v>1.9746054687854472E+147</v>
       </c>
       <c r="G215">
         <v>1000</v>
@@ -8464,7 +8464,7 @@
         <v>44600</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:10">
       <c r="A216">
         <v>214</v>
       </c>
@@ -8484,8 +8484,8 @@
         <v>1</v>
       </c>
       <c r="F216" s="2">
-        <f t="shared" si="56"/>
-        <v>3.590153312908142E+159</v>
+        <f t="shared" si="55"/>
+        <v>3.9492109375708944E+147</v>
       </c>
       <c r="G216">
         <v>1000</v>
@@ -8500,7 +8500,7 @@
         <v>44800</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:10">
       <c r="A217">
         <v>215</v>
       </c>
@@ -8520,8 +8520,8 @@
         <v>1</v>
       </c>
       <c r="F217" s="2">
-        <f t="shared" si="56"/>
-        <v>8.07784495404332E+159</v>
+        <f t="shared" si="55"/>
+        <v>7.8984218751417889E+147</v>
       </c>
       <c r="G217">
         <v>1000</v>
@@ -8536,7 +8536,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:10">
       <c r="A218">
         <v>216</v>
       </c>
@@ -8556,8 +8556,8 @@
         <v>1</v>
       </c>
       <c r="F218" s="2">
-        <f t="shared" si="56"/>
-        <v>1.8175151146597471E+160</v>
+        <f t="shared" si="55"/>
+        <v>1.5796843750283578E+148</v>
       </c>
       <c r="G218">
         <v>1000</v>
@@ -8572,7 +8572,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:10">
       <c r="A219">
         <v>217</v>
       </c>
@@ -8592,8 +8592,8 @@
         <v>1</v>
       </c>
       <c r="F219" s="2">
-        <f t="shared" si="56"/>
-        <v>4.0894090079844309E+160</v>
+        <f t="shared" si="55"/>
+        <v>3.1593687500567156E+148</v>
       </c>
       <c r="G219">
         <v>1000</v>
@@ -8608,7 +8608,7 @@
         <v>45400</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:10">
       <c r="A220">
         <v>218</v>
       </c>
@@ -8628,8 +8628,8 @@
         <v>1</v>
       </c>
       <c r="F220" s="2">
-        <f t="shared" si="56"/>
-        <v>9.2011702679649691E+160</v>
+        <f t="shared" si="55"/>
+        <v>6.3187375001134311E+148</v>
       </c>
       <c r="G220">
         <v>1000</v>
@@ -8644,7 +8644,7 @@
         <v>45600</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:10">
       <c r="A221">
         <v>219</v>
       </c>
@@ -8664,8 +8664,8 @@
         <v>1</v>
       </c>
       <c r="F221" s="2">
-        <f t="shared" si="56"/>
-        <v>2.070263310292118E+161</v>
+        <f t="shared" si="55"/>
+        <v>1.2637475000226862E+149</v>
       </c>
       <c r="G221">
         <v>1000</v>
@@ -8680,7 +8680,7 @@
         <v>45800</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:10">
       <c r="A222">
         <v>220</v>
       </c>
@@ -8700,8 +8700,8 @@
         <v>1</v>
       </c>
       <c r="F222" s="2">
-        <f t="shared" si="56"/>
-        <v>4.6580924481572654E+161</v>
+        <f t="shared" si="55"/>
+        <v>2.5274950000453724E+149</v>
       </c>
       <c r="G222">
         <v>1000</v>
@@ -8716,7 +8716,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:10">
       <c r="A223">
         <v>221</v>
       </c>
@@ -8736,8 +8736,8 @@
         <v>1</v>
       </c>
       <c r="F223" s="2">
-        <f t="shared" si="56"/>
-        <v>1.0480708008353847E+162</v>
+        <f t="shared" si="55"/>
+        <v>5.0549900000907449E+149</v>
       </c>
       <c r="G223">
         <v>1000</v>
@@ -8752,7 +8752,7 @@
         <v>46200</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:10">
       <c r="A224">
         <v>222</v>
       </c>
@@ -8772,8 +8772,8 @@
         <v>1</v>
       </c>
       <c r="F224" s="2">
-        <f t="shared" si="56"/>
-        <v>2.3581593018796158E+162</v>
+        <f t="shared" si="55"/>
+        <v>1.010998000018149E+150</v>
       </c>
       <c r="G224">
         <v>1000</v>
@@ -8788,7 +8788,7 @@
         <v>46400</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10">
       <c r="A225">
         <v>223</v>
       </c>
@@ -8808,8 +8808,8 @@
         <v>1</v>
       </c>
       <c r="F225" s="2">
-        <f t="shared" si="56"/>
-        <v>5.3058584292291351E+162</v>
+        <f t="shared" si="55"/>
+        <v>2.021996000036298E+150</v>
       </c>
       <c r="G225">
         <v>1000</v>
@@ -8824,7 +8824,7 @@
         <v>46600</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10">
       <c r="A226">
         <v>224</v>
       </c>
@@ -8844,8 +8844,8 @@
         <v>1</v>
       </c>
       <c r="F226" s="2">
-        <f t="shared" si="56"/>
-        <v>1.1938181465765553E+163</v>
+        <f t="shared" si="55"/>
+        <v>4.0439920000725959E+150</v>
       </c>
       <c r="G226">
         <v>1000</v>
@@ -8860,7 +8860,7 @@
         <v>46800</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10">
       <c r="A227">
         <v>225</v>
       </c>
@@ -8880,8 +8880,8 @@
         <v>1</v>
       </c>
       <c r="F227" s="2">
-        <f t="shared" si="56"/>
-        <v>2.6860908297972496E+163</v>
+        <f t="shared" si="55"/>
+        <v>8.0879840001451918E+150</v>
       </c>
       <c r="G227">
         <v>1000</v>
@@ -8896,7 +8896,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10">
       <c r="A228">
         <v>226</v>
       </c>
@@ -8916,8 +8916,8 @@
         <v>1</v>
       </c>
       <c r="F228" s="2">
-        <f t="shared" si="56"/>
-        <v>6.043704367043811E+163</v>
+        <f t="shared" si="55"/>
+        <v>1.6175968000290384E+151</v>
       </c>
       <c r="G228">
         <v>1000</v>
@@ -8932,7 +8932,7 @@
         <v>47200</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10">
       <c r="A229">
         <v>227</v>
       </c>
@@ -8952,8 +8952,8 @@
         <v>1</v>
       </c>
       <c r="F229" s="2">
-        <f t="shared" si="56"/>
-        <v>1.3598334825848575E+164</v>
+        <f t="shared" si="55"/>
+        <v>3.2351936000580767E+151</v>
       </c>
       <c r="G229">
         <v>1000</v>
@@ -8968,7 +8968,7 @@
         <v>47400</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10">
       <c r="A230">
         <v>228</v>
       </c>
@@ -8988,8 +8988,8 @@
         <v>1</v>
       </c>
       <c r="F230" s="2">
-        <f t="shared" si="56"/>
-        <v>3.0596253358159293E+164</v>
+        <f t="shared" si="55"/>
+        <v>6.4703872001161535E+151</v>
       </c>
       <c r="G230">
         <v>1000</v>
@@ -9004,7 +9004,7 @@
         <v>47600</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10">
       <c r="A231">
         <v>229</v>
       </c>
@@ -9024,8 +9024,8 @@
         <v>1</v>
       </c>
       <c r="F231" s="2">
-        <f t="shared" si="56"/>
-        <v>6.8841570055858412E+164</v>
+        <f t="shared" si="55"/>
+        <v>1.2940774400232307E+152</v>
       </c>
       <c r="G231">
         <v>1000</v>
@@ -9040,7 +9040,7 @@
         <v>47800</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10">
       <c r="A232">
         <v>230</v>
       </c>
@@ -9060,8 +9060,8 @@
         <v>1</v>
       </c>
       <c r="F232" s="2">
-        <f t="shared" si="56"/>
-        <v>1.5489353262568144E+165</v>
+        <f t="shared" si="55"/>
+        <v>2.5881548800464614E+152</v>
       </c>
       <c r="G232">
         <v>1000</v>
@@ -9076,7 +9076,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10">
       <c r="A233">
         <v>231</v>
       </c>
@@ -9096,8 +9096,8 @@
         <v>1</v>
       </c>
       <c r="F233" s="2">
-        <f t="shared" si="56"/>
-        <v>3.4851044840778322E+165</v>
+        <f t="shared" si="55"/>
+        <v>5.1763097600929228E+152</v>
       </c>
       <c r="G233">
         <v>1000</v>
@@ -9112,7 +9112,7 @@
         <v>48200</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10">
       <c r="A234">
         <v>232</v>
       </c>
@@ -9132,8 +9132,8 @@
         <v>1</v>
       </c>
       <c r="F234" s="2">
-        <f t="shared" si="56"/>
-        <v>7.8414850891751218E+165</v>
+        <f t="shared" si="55"/>
+        <v>1.0352619520185846E+153</v>
       </c>
       <c r="G234">
         <v>1000</v>
@@ -9148,7 +9148,7 @@
         <v>48400</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10">
       <c r="A235">
         <v>233</v>
       </c>
@@ -9168,8 +9168,8 @@
         <v>1</v>
       </c>
       <c r="F235" s="2">
-        <f t="shared" si="56"/>
-        <v>1.7643341450644026E+166</v>
+        <f t="shared" si="55"/>
+        <v>2.0705239040371691E+153</v>
       </c>
       <c r="G235">
         <v>1000</v>
@@ -9184,7 +9184,7 @@
         <v>48600</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10">
       <c r="A236">
         <v>234</v>
       </c>
@@ -9204,8 +9204,8 @@
         <v>1</v>
       </c>
       <c r="F236" s="2">
-        <f t="shared" si="56"/>
-        <v>3.969751826394906E+166</v>
+        <f t="shared" si="55"/>
+        <v>4.1410478080743382E+153</v>
       </c>
       <c r="G236">
         <v>1000</v>
@@ -9220,7 +9220,7 @@
         <v>48800</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10">
       <c r="A237">
         <v>235</v>
       </c>
@@ -9240,8 +9240,8 @@
         <v>1</v>
       </c>
       <c r="F237" s="2">
-        <f t="shared" si="56"/>
-        <v>8.9319416093885384E+166</v>
+        <f t="shared" si="55"/>
+        <v>8.2820956161486764E+153</v>
       </c>
       <c r="G237">
         <v>1000</v>
@@ -9256,7 +9256,7 @@
         <v>49000</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10">
       <c r="A238">
         <v>236</v>
       </c>
@@ -9276,8 +9276,8 @@
         <v>1</v>
       </c>
       <c r="F238" s="2">
-        <f t="shared" si="56"/>
-        <v>2.0096868621124211E+167</v>
+        <f t="shared" si="55"/>
+        <v>1.6564191232297353E+154</v>
       </c>
       <c r="G238">
         <v>1000</v>
@@ -9292,7 +9292,7 @@
         <v>49200</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10">
       <c r="A239">
         <v>237</v>
       </c>
@@ -9312,8 +9312,8 @@
         <v>1</v>
       </c>
       <c r="F239" s="2">
-        <f t="shared" si="56"/>
-        <v>4.5217954397529474E+167</v>
+        <f t="shared" si="55"/>
+        <v>3.3128382464594706E+154</v>
       </c>
       <c r="G239">
         <v>1000</v>
@@ -9328,7 +9328,7 @@
         <v>49400</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10">
       <c r="A240">
         <v>238</v>
       </c>
@@ -9348,8 +9348,8 @@
         <v>1</v>
       </c>
       <c r="F240" s="2">
-        <f t="shared" si="56"/>
-        <v>1.0174039739444131E+168</v>
+        <f t="shared" si="55"/>
+        <v>6.6256764929189411E+154</v>
       </c>
       <c r="G240">
         <v>1000</v>
@@ -9364,7 +9364,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10">
       <c r="A241">
         <v>239</v>
       </c>
@@ -9384,8 +9384,8 @@
         <v>1</v>
       </c>
       <c r="F241" s="2">
-        <f t="shared" si="56"/>
-        <v>2.2891589413749297E+168</v>
+        <f t="shared" si="55"/>
+        <v>1.3251352985837882E+155</v>
       </c>
       <c r="G241">
         <v>1000</v>
@@ -9400,7 +9400,7 @@
         <v>49800</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10">
       <c r="A242">
         <v>240</v>
       </c>
@@ -9420,8 +9420,8 @@
         <v>1</v>
       </c>
       <c r="F242" s="2">
-        <f t="shared" si="56"/>
-        <v>5.1506076180935915E+168</v>
+        <f t="shared" si="55"/>
+        <v>2.6502705971675765E+155</v>
       </c>
       <c r="G242">
         <v>1000</v>
@@ -9436,7 +9436,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10">
       <c r="A243">
         <v>241</v>
       </c>
@@ -9456,8 +9456,8 @@
         <v>1</v>
       </c>
       <c r="F243" s="2">
-        <f t="shared" si="56"/>
-        <v>1.158886714071058E+169</v>
+        <f t="shared" si="55"/>
+        <v>5.3005411943351529E+155</v>
       </c>
       <c r="G243">
         <v>1000</v>
@@ -9472,7 +9472,7 @@
         <v>50200</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10">
       <c r="A244">
         <v>242</v>
       </c>
@@ -9492,8 +9492,8 @@
         <v>1</v>
       </c>
       <c r="F244" s="2">
-        <f t="shared" si="56"/>
-        <v>2.6074951066598806E+169</v>
+        <f t="shared" si="55"/>
+        <v>1.0601082388670306E+156</v>
       </c>
       <c r="G244">
         <v>1000</v>
@@ -9508,7 +9508,7 @@
         <v>50400</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10">
       <c r="A245">
         <v>243</v>
       </c>
@@ -9528,8 +9528,8 @@
         <v>1</v>
       </c>
       <c r="F245" s="2">
-        <f t="shared" si="56"/>
-        <v>5.8668639899847315E+169</v>
+        <f t="shared" si="55"/>
+        <v>2.1202164777340612E+156</v>
       </c>
       <c r="G245">
         <v>1000</v>
@@ -9544,7 +9544,7 @@
         <v>50600</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10">
       <c r="A246">
         <v>244</v>
       </c>
@@ -9564,8 +9564,8 @@
         <v>1</v>
       </c>
       <c r="F246" s="2">
-        <f t="shared" si="56"/>
-        <v>1.3200443977465647E+170</v>
+        <f t="shared" si="55"/>
+        <v>4.2404329554681223E+156</v>
       </c>
       <c r="G246">
         <v>1000</v>
@@ -9580,7 +9580,7 @@
         <v>50800</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10">
       <c r="A247">
         <v>245</v>
       </c>
@@ -9600,8 +9600,8 @@
         <v>1</v>
       </c>
       <c r="F247" s="2">
-        <f t="shared" si="56"/>
-        <v>2.9700998949297708E+170</v>
+        <f t="shared" si="55"/>
+        <v>8.4808659109362447E+156</v>
       </c>
       <c r="G247">
         <v>1000</v>
@@ -9616,7 +9616,7 @@
         <v>51000</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10">
       <c r="A248">
         <v>246</v>
       </c>
@@ -9636,8 +9636,8 @@
         <v>1</v>
       </c>
       <c r="F248" s="2">
-        <f t="shared" si="56"/>
-        <v>6.6827247635919842E+170</v>
+        <f t="shared" si="55"/>
+        <v>1.6961731821872489E+157</v>
       </c>
       <c r="G248">
         <v>1000</v>
@@ -9652,7 +9652,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10">
       <c r="A249">
         <v>247</v>
       </c>
@@ -9672,8 +9672,8 @@
         <v>1</v>
       </c>
       <c r="F249" s="2">
-        <f t="shared" si="56"/>
-        <v>1.5036130718081964E+171</v>
+        <f t="shared" si="55"/>
+        <v>3.3923463643744979E+157</v>
       </c>
       <c r="G249">
         <v>1000</v>
@@ -9688,7 +9688,7 @@
         <v>51400</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10">
       <c r="A250">
         <v>248</v>
       </c>
@@ -9708,8 +9708,8 @@
         <v>1</v>
       </c>
       <c r="F250" s="2">
-        <f t="shared" si="56"/>
-        <v>3.3831294115684418E+171</v>
+        <f t="shared" si="55"/>
+        <v>6.7846927287489957E+157</v>
       </c>
       <c r="G250">
         <v>1000</v>
@@ -9724,7 +9724,7 @@
         <v>51600</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10">
       <c r="A251">
         <v>249</v>
       </c>
@@ -9744,8 +9744,8 @@
         <v>1</v>
       </c>
       <c r="F251" s="2">
-        <f t="shared" si="56"/>
-        <v>7.6120411760289941E+171</v>
+        <f t="shared" si="55"/>
+        <v>1.3569385457497991E+158</v>
       </c>
       <c r="G251">
         <v>1000</v>
@@ -9760,7 +9760,7 @@
         <v>51800</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10">
       <c r="A252">
         <v>250</v>
       </c>
@@ -9780,8 +9780,8 @@
         <v>1</v>
       </c>
       <c r="F252" s="2">
-        <f t="shared" si="56"/>
-        <v>1.7127092646065238E+172</v>
+        <f t="shared" si="55"/>
+        <v>2.7138770914995983E+158</v>
       </c>
       <c r="G252">
         <v>1000</v>
@@ -9796,7 +9796,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10">
       <c r="A253">
         <v>251</v>
       </c>
@@ -9816,8 +9816,8 @@
         <v>1</v>
       </c>
       <c r="F253" s="2">
-        <f t="shared" si="56"/>
-        <v>3.8535958453646784E+172</v>
+        <f t="shared" si="55"/>
+        <v>5.4277541829991966E+158</v>
       </c>
       <c r="G253">
         <v>1000</v>
@@ -9832,7 +9832,7 @@
         <v>52200</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10">
       <c r="A254">
         <v>252</v>
       </c>
@@ -9852,8 +9852,8 @@
         <v>1</v>
       </c>
       <c r="F254" s="2">
-        <f t="shared" si="56"/>
-        <v>8.6705906520705265E+172</v>
+        <f t="shared" si="55"/>
+        <v>1.0855508365998393E+159</v>
       </c>
       <c r="G254">
         <v>1000</v>
@@ -9868,7 +9868,7 @@
         <v>52400</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10">
       <c r="A255">
         <v>253</v>
       </c>
@@ -9888,8 +9888,8 @@
         <v>1</v>
       </c>
       <c r="F255" s="2">
-        <f t="shared" si="56"/>
-        <v>1.9508828967158685E+173</v>
+        <f t="shared" si="55"/>
+        <v>2.1711016731996786E+159</v>
       </c>
       <c r="G255">
         <v>1000</v>
@@ -9904,7 +9904,7 @@
         <v>52600</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10">
       <c r="A256">
         <v>254</v>
       </c>
@@ -9924,8 +9924,8 @@
         <v>1</v>
       </c>
       <c r="F256" s="2">
-        <f t="shared" si="56"/>
-        <v>4.3894865176107043E+173</v>
+        <f t="shared" si="55"/>
+        <v>4.3422033463993573E+159</v>
       </c>
       <c r="G256">
         <v>1000</v>
@@ -9940,7 +9940,7 @@
         <v>52800</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:10">
       <c r="A257">
         <v>255</v>
       </c>
@@ -9960,8 +9960,8 @@
         <v>1</v>
       </c>
       <c r="F257" s="2">
-        <f t="shared" si="56"/>
-        <v>9.8763446646240846E+173</v>
+        <f t="shared" si="55"/>
+        <v>8.6844066927987145E+159</v>
       </c>
       <c r="G257">
         <v>1000</v>
@@ -9976,7 +9976,7 @@
         <v>53000</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:10">
       <c r="A258">
         <v>256</v>
       </c>
@@ -9996,8 +9996,8 @@
         <v>1</v>
       </c>
       <c r="F258" s="2">
-        <f t="shared" si="56"/>
-        <v>2.2221775495404189E+174</v>
+        <f t="shared" si="55"/>
+        <v>1.7368813385597429E+160</v>
       </c>
       <c r="G258">
         <v>1000</v>
@@ -10012,7 +10012,7 @@
         <v>53200</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:10">
       <c r="A259">
         <v>257</v>
       </c>
@@ -10032,8 +10032,8 @@
         <v>1</v>
       </c>
       <c r="F259" s="2">
-        <f t="shared" si="56"/>
-        <v>4.9998994864659424E+174</v>
+        <f t="shared" si="55"/>
+        <v>3.4737626771194858E+160</v>
       </c>
       <c r="G259">
         <v>1000</v>
@@ -10048,7 +10048,7 @@
         <v>53400</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:10">
       <c r="A260">
         <v>258</v>
       </c>
@@ -10068,8 +10068,8 @@
         <v>1</v>
       </c>
       <c r="F260" s="2">
-        <f t="shared" si="56"/>
-        <v>1.1249773844548371E+175</v>
+        <f t="shared" ref="F260:F323" si="120">F259*2</f>
+        <v>6.9475253542389716E+160</v>
       </c>
       <c r="G260">
         <v>1000</v>
@@ -10084,16 +10084,16 @@
         <v>53600</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:10">
       <c r="A261">
         <v>259</v>
       </c>
       <c r="B261" s="1" t="str">
-        <f t="shared" ref="B261:C261" si="120">B256</f>
+        <f t="shared" ref="B261:C261" si="121">B256</f>
         <v>1-2</v>
       </c>
       <c r="C261" s="3">
-        <f t="shared" si="120"/>
+        <f t="shared" si="121"/>
         <v>9013</v>
       </c>
       <c r="D261">
@@ -10104,8 +10104,8 @@
         <v>1</v>
       </c>
       <c r="F261" s="2">
-        <f t="shared" ref="F261:F324" si="121">F260*2.25</f>
-        <v>2.5311991150233836E+175</v>
+        <f t="shared" si="120"/>
+        <v>1.3895050708477943E+161</v>
       </c>
       <c r="G261">
         <v>1000</v>
@@ -10120,7 +10120,7 @@
         <v>53800</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:10">
       <c r="A262">
         <v>260</v>
       </c>
@@ -10140,8 +10140,8 @@
         <v>1</v>
       </c>
       <c r="F262" s="2">
-        <f t="shared" si="121"/>
-        <v>5.6951980088026133E+175</v>
+        <f t="shared" si="120"/>
+        <v>2.7790101416955887E+161</v>
       </c>
       <c r="G262">
         <v>1000</v>
@@ -10156,7 +10156,7 @@
         <v>54000</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:10">
       <c r="A263">
         <v>261</v>
       </c>
@@ -10176,8 +10176,8 @@
         <v>1</v>
       </c>
       <c r="F263" s="2">
-        <f t="shared" si="121"/>
-        <v>1.281419551980588E+176</v>
+        <f t="shared" si="120"/>
+        <v>5.5580202833911773E+161</v>
       </c>
       <c r="G263">
         <v>1000</v>
@@ -10192,7 +10192,7 @@
         <v>54200</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:10">
       <c r="A264">
         <v>262</v>
       </c>
@@ -10212,8 +10212,8 @@
         <v>1</v>
       </c>
       <c r="F264" s="2">
-        <f t="shared" si="121"/>
-        <v>2.883193991956323E+176</v>
+        <f t="shared" si="120"/>
+        <v>1.1116040566782355E+162</v>
       </c>
       <c r="G264">
         <v>1000</v>
@@ -10228,7 +10228,7 @@
         <v>54400</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:10">
       <c r="A265">
         <v>263</v>
       </c>
@@ -10248,8 +10248,8 @@
         <v>1</v>
       </c>
       <c r="F265" s="2">
-        <f t="shared" si="121"/>
-        <v>6.4871864819017261E+176</v>
+        <f t="shared" si="120"/>
+        <v>2.2232081133564709E+162</v>
       </c>
       <c r="G265">
         <v>1000</v>
@@ -10264,7 +10264,7 @@
         <v>54600</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:10">
       <c r="A266">
         <v>264</v>
       </c>
@@ -10284,8 +10284,8 @@
         <v>1</v>
       </c>
       <c r="F266" s="2">
-        <f t="shared" si="121"/>
-        <v>1.4596169584278884E+177</v>
+        <f t="shared" si="120"/>
+        <v>4.4464162267129418E+162</v>
       </c>
       <c r="G266">
         <v>1000</v>
@@ -10300,7 +10300,7 @@
         <v>54800</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:10">
       <c r="A267">
         <v>265</v>
       </c>
@@ -10320,8 +10320,8 @@
         <v>1</v>
       </c>
       <c r="F267" s="2">
-        <f t="shared" si="121"/>
-        <v>3.2841381564627487E+177</v>
+        <f t="shared" si="120"/>
+        <v>8.8928324534258837E+162</v>
       </c>
       <c r="G267">
         <v>1000</v>
@@ -10336,7 +10336,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:10">
       <c r="A268">
         <v>266</v>
       </c>
@@ -10356,8 +10356,8 @@
         <v>1</v>
       </c>
       <c r="F268" s="2">
-        <f t="shared" si="121"/>
-        <v>7.3893108520411846E+177</v>
+        <f t="shared" si="120"/>
+        <v>1.7785664906851767E+163</v>
       </c>
       <c r="G268">
         <v>1000</v>
@@ -10372,7 +10372,7 @@
         <v>55200</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:10">
       <c r="A269">
         <v>267</v>
       </c>
@@ -10392,8 +10392,8 @@
         <v>1</v>
       </c>
       <c r="F269" s="2">
-        <f t="shared" si="121"/>
-        <v>1.6625949417092666E+178</v>
+        <f t="shared" si="120"/>
+        <v>3.5571329813703535E+163</v>
       </c>
       <c r="G269">
         <v>1000</v>
@@ -10408,7 +10408,7 @@
         <v>55400</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:10">
       <c r="A270">
         <v>268</v>
       </c>
@@ -10428,8 +10428,8 @@
         <v>1</v>
       </c>
       <c r="F270" s="2">
-        <f t="shared" si="121"/>
-        <v>3.7408386188458502E+178</v>
+        <f t="shared" si="120"/>
+        <v>7.1142659627407069E+163</v>
       </c>
       <c r="G270">
         <v>1000</v>
@@ -10444,7 +10444,7 @@
         <v>55600</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:10">
       <c r="A271">
         <v>269</v>
       </c>
@@ -10464,8 +10464,8 @@
         <v>1</v>
       </c>
       <c r="F271" s="2">
-        <f t="shared" si="121"/>
-        <v>8.4168868924031633E+178</v>
+        <f t="shared" si="120"/>
+        <v>1.4228531925481414E+164</v>
       </c>
       <c r="G271">
         <v>1000</v>
@@ -10480,7 +10480,7 @@
         <v>55800</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:10">
       <c r="A272">
         <v>270</v>
       </c>
@@ -10500,8 +10500,8 @@
         <v>1</v>
       </c>
       <c r="F272" s="2">
-        <f t="shared" si="121"/>
-        <v>1.8937995507907117E+179</v>
+        <f t="shared" si="120"/>
+        <v>2.8457063850962828E+164</v>
       </c>
       <c r="G272">
         <v>1000</v>
@@ -10516,7 +10516,7 @@
         <v>56000</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:10">
       <c r="A273">
         <v>271</v>
       </c>
@@ -10536,8 +10536,8 @@
         <v>1</v>
       </c>
       <c r="F273" s="2">
-        <f t="shared" si="121"/>
-        <v>4.2610489892791011E+179</v>
+        <f t="shared" si="120"/>
+        <v>5.6914127701925656E+164</v>
       </c>
       <c r="G273">
         <v>1000</v>
@@ -10552,7 +10552,7 @@
         <v>56200</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:10">
       <c r="A274">
         <v>272</v>
       </c>
@@ -10572,8 +10572,8 @@
         <v>1</v>
       </c>
       <c r="F274" s="2">
-        <f t="shared" si="121"/>
-        <v>9.5873602258779775E+179</v>
+        <f t="shared" si="120"/>
+        <v>1.1382825540385131E+165</v>
       </c>
       <c r="G274">
         <v>1000</v>
@@ -10588,7 +10588,7 @@
         <v>56400</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10">
       <c r="A275">
         <v>273</v>
       </c>
@@ -10608,8 +10608,8 @@
         <v>1</v>
       </c>
       <c r="F275" s="2">
-        <f t="shared" si="121"/>
-        <v>2.157156050822545E+180</v>
+        <f t="shared" si="120"/>
+        <v>2.2765651080770262E+165</v>
       </c>
       <c r="G275">
         <v>1000</v>
@@ -10624,7 +10624,7 @@
         <v>56600</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10">
       <c r="A276">
         <v>274</v>
       </c>
@@ -10644,8 +10644,8 @@
         <v>1</v>
       </c>
       <c r="F276" s="2">
-        <f t="shared" si="121"/>
-        <v>4.8536011143507263E+180</v>
+        <f t="shared" si="120"/>
+        <v>4.5531302161540524E+165</v>
       </c>
       <c r="G276">
         <v>1000</v>
@@ -10660,7 +10660,7 @@
         <v>56800</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10">
       <c r="A277">
         <v>275</v>
       </c>
@@ -10680,8 +10680,8 @@
         <v>1</v>
       </c>
       <c r="F277" s="2">
-        <f t="shared" si="121"/>
-        <v>1.0920602507289134E+181</v>
+        <f t="shared" si="120"/>
+        <v>9.1062604323081049E+165</v>
       </c>
       <c r="G277">
         <v>1000</v>
@@ -10696,7 +10696,7 @@
         <v>57000</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10">
       <c r="A278">
         <v>276</v>
       </c>
@@ -10716,8 +10716,8 @@
         <v>1</v>
       </c>
       <c r="F278" s="2">
-        <f t="shared" si="121"/>
-        <v>2.4571355641400551E+181</v>
+        <f t="shared" si="120"/>
+        <v>1.821252086461621E+166</v>
       </c>
       <c r="G278">
         <v>1000</v>
@@ -10732,7 +10732,7 @@
         <v>57200</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10">
       <c r="A279">
         <v>277</v>
       </c>
@@ -10752,8 +10752,8 @@
         <v>1</v>
       </c>
       <c r="F279" s="2">
-        <f t="shared" si="121"/>
-        <v>5.528555019315124E+181</v>
+        <f t="shared" si="120"/>
+        <v>3.642504172923242E+166</v>
       </c>
       <c r="G279">
         <v>1000</v>
@@ -10768,7 +10768,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10">
       <c r="A280">
         <v>278</v>
       </c>
@@ -10788,8 +10788,8 @@
         <v>1</v>
       </c>
       <c r="F280" s="2">
-        <f t="shared" si="121"/>
-        <v>1.2439248793459029E+182</v>
+        <f t="shared" si="120"/>
+        <v>7.2850083458464839E+166</v>
       </c>
       <c r="G280">
         <v>1000</v>
@@ -10804,7 +10804,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10">
       <c r="A281">
         <v>279</v>
       </c>
@@ -10824,8 +10824,8 @@
         <v>1</v>
       </c>
       <c r="F281" s="2">
-        <f t="shared" si="121"/>
-        <v>2.7988309785282818E+182</v>
+        <f t="shared" si="120"/>
+        <v>1.4570016691692968E+167</v>
       </c>
       <c r="G281">
         <v>1000</v>
@@ -10840,7 +10840,7 @@
         <v>57800</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10">
       <c r="A282">
         <v>280</v>
       </c>
@@ -10860,8 +10860,8 @@
         <v>1</v>
       </c>
       <c r="F282" s="2">
-        <f t="shared" si="121"/>
-        <v>6.2973697016886343E+182</v>
+        <f t="shared" si="120"/>
+        <v>2.9140033383385936E+167</v>
       </c>
       <c r="G282">
         <v>1000</v>
@@ -10876,7 +10876,7 @@
         <v>58000</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10">
       <c r="A283">
         <v>281</v>
       </c>
@@ -10896,8 +10896,8 @@
         <v>1</v>
       </c>
       <c r="F283" s="2">
-        <f t="shared" si="121"/>
-        <v>1.4169081828799427E+183</v>
+        <f t="shared" si="120"/>
+        <v>5.8280066766771871E+167</v>
       </c>
       <c r="G283">
         <v>1000</v>
@@ -10912,7 +10912,7 @@
         <v>58200</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10">
       <c r="A284">
         <v>282</v>
       </c>
@@ -10932,8 +10932,8 @@
         <v>1</v>
       </c>
       <c r="F284" s="2">
-        <f t="shared" si="121"/>
-        <v>3.1880434114798712E+183</v>
+        <f t="shared" si="120"/>
+        <v>1.1656013353354374E+168</v>
       </c>
       <c r="G284">
         <v>1000</v>
@@ -10948,7 +10948,7 @@
         <v>58400</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10">
       <c r="A285">
         <v>283</v>
       </c>
@@ -10968,8 +10968,8 @@
         <v>1</v>
       </c>
       <c r="F285" s="2">
-        <f t="shared" si="121"/>
-        <v>7.1730976758297101E+183</v>
+        <f t="shared" si="120"/>
+        <v>2.3312026706708749E+168</v>
       </c>
       <c r="G285">
         <v>1000</v>
@@ -10984,7 +10984,7 @@
         <v>58600</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10">
       <c r="A286">
         <v>284</v>
       </c>
@@ -11004,8 +11004,8 @@
         <v>1</v>
       </c>
       <c r="F286" s="2">
-        <f t="shared" si="121"/>
-        <v>1.6139469770616848E+184</v>
+        <f t="shared" si="120"/>
+        <v>4.6624053413417497E+168</v>
       </c>
       <c r="G286">
         <v>1000</v>
@@ -11020,7 +11020,7 @@
         <v>58800</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:10">
       <c r="A287">
         <v>285</v>
       </c>
@@ -11040,8 +11040,8 @@
         <v>1</v>
       </c>
       <c r="F287" s="2">
-        <f t="shared" si="121"/>
-        <v>3.6313806983887906E+184</v>
+        <f t="shared" si="120"/>
+        <v>9.3248106826834994E+168</v>
       </c>
       <c r="G287">
         <v>1000</v>
@@ -11056,7 +11056,7 @@
         <v>59000</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:10">
       <c r="A288">
         <v>286</v>
       </c>
@@ -11076,8 +11076,8 @@
         <v>1</v>
       </c>
       <c r="F288" s="2">
-        <f t="shared" si="121"/>
-        <v>8.1706065713747789E+184</v>
+        <f t="shared" si="120"/>
+        <v>1.8649621365366999E+169</v>
       </c>
       <c r="G288">
         <v>1000</v>
@@ -11092,7 +11092,7 @@
         <v>59200</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10">
       <c r="A289">
         <v>287</v>
       </c>
@@ -11112,8 +11112,8 @@
         <v>1</v>
       </c>
       <c r="F289" s="2">
-        <f t="shared" si="121"/>
-        <v>1.8383864785593253E+185</v>
+        <f t="shared" si="120"/>
+        <v>3.7299242730733998E+169</v>
       </c>
       <c r="G289">
         <v>1000</v>
@@ -11128,7 +11128,7 @@
         <v>59400</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10">
       <c r="A290">
         <v>288</v>
       </c>
@@ -11148,8 +11148,8 @@
         <v>1</v>
       </c>
       <c r="F290" s="2">
-        <f t="shared" si="121"/>
-        <v>4.136369576758482E+185</v>
+        <f t="shared" si="120"/>
+        <v>7.4598485461467995E+169</v>
       </c>
       <c r="G290">
         <v>1000</v>
@@ -11164,7 +11164,7 @@
         <v>59600</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10">
       <c r="A291">
         <v>289</v>
       </c>
@@ -11184,8 +11184,8 @@
         <v>1</v>
       </c>
       <c r="F291" s="2">
-        <f t="shared" si="121"/>
-        <v>9.3068315477065851E+185</v>
+        <f t="shared" si="120"/>
+        <v>1.4919697092293599E+170</v>
       </c>
       <c r="G291">
         <v>1000</v>
@@ -11200,7 +11200,7 @@
         <v>59800</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10">
       <c r="A292">
         <v>290</v>
       </c>
@@ -11220,8 +11220,8 @@
         <v>1</v>
       </c>
       <c r="F292" s="2">
-        <f t="shared" si="121"/>
-        <v>2.0940370982339816E+186</v>
+        <f t="shared" si="120"/>
+        <v>2.9839394184587198E+170</v>
       </c>
       <c r="G292">
         <v>1000</v>
@@ -11236,7 +11236,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10">
       <c r="A293">
         <v>291</v>
       </c>
@@ -11256,8 +11256,8 @@
         <v>1</v>
       </c>
       <c r="F293" s="2">
-        <f t="shared" si="121"/>
-        <v>4.7115834710264586E+186</v>
+        <f t="shared" si="120"/>
+        <v>5.9678788369174396E+170</v>
       </c>
       <c r="G293">
         <v>1000</v>
@@ -11272,7 +11272,7 @@
         <v>60200</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10">
       <c r="A294">
         <v>292</v>
       </c>
@@ -11292,8 +11292,8 @@
         <v>1</v>
       </c>
       <c r="F294" s="2">
-        <f t="shared" si="121"/>
-        <v>1.0601062809809532E+187</v>
+        <f t="shared" si="120"/>
+        <v>1.1935757673834879E+171</v>
       </c>
       <c r="G294">
         <v>1000</v>
@@ -11308,7 +11308,7 @@
         <v>60400</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10">
       <c r="A295">
         <v>293</v>
       </c>
@@ -11328,8 +11328,8 @@
         <v>1</v>
       </c>
       <c r="F295" s="2">
-        <f t="shared" si="121"/>
-        <v>2.3852391322071447E+187</v>
+        <f t="shared" si="120"/>
+        <v>2.3871515347669758E+171</v>
       </c>
       <c r="G295">
         <v>1000</v>
@@ -11344,7 +11344,7 @@
         <v>60600</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10">
       <c r="A296">
         <v>294</v>
       </c>
@@ -11364,8 +11364,8 @@
         <v>1</v>
       </c>
       <c r="F296" s="2">
-        <f t="shared" si="121"/>
-        <v>5.3667880474660756E+187</v>
+        <f t="shared" si="120"/>
+        <v>4.7743030695339517E+171</v>
       </c>
       <c r="G296">
         <v>1000</v>
@@ -11380,7 +11380,7 @@
         <v>60800</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10">
       <c r="A297">
         <v>295</v>
       </c>
@@ -11400,8 +11400,8 @@
         <v>1</v>
       </c>
       <c r="F297" s="2">
-        <f t="shared" si="121"/>
-        <v>1.207527310679867E+188</v>
+        <f t="shared" si="120"/>
+        <v>9.5486061390679034E+171</v>
       </c>
       <c r="G297">
         <v>1000</v>
@@ -11416,7 +11416,7 @@
         <v>61000</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10">
       <c r="A298">
         <v>296</v>
       </c>
@@ -11436,8 +11436,8 @@
         <v>1</v>
       </c>
       <c r="F298" s="2">
-        <f t="shared" si="121"/>
-        <v>2.7169364490297008E+188</v>
+        <f t="shared" si="120"/>
+        <v>1.9097212278135807E+172</v>
       </c>
       <c r="G298">
         <v>1000</v>
@@ -11452,7 +11452,7 @@
         <v>61200</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10">
       <c r="A299">
         <v>297</v>
       </c>
@@ -11472,8 +11472,8 @@
         <v>1</v>
       </c>
       <c r="F299" s="2">
-        <f t="shared" si="121"/>
-        <v>6.1131070103168272E+188</v>
+        <f t="shared" si="120"/>
+        <v>3.8194424556271614E+172</v>
       </c>
       <c r="G299">
         <v>1000</v>
@@ -11488,7 +11488,7 @@
         <v>61400</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10">
       <c r="A300">
         <v>298</v>
       </c>
@@ -11508,8 +11508,8 @@
         <v>1</v>
       </c>
       <c r="F300" s="2">
-        <f t="shared" si="121"/>
-        <v>1.3754490773212862E+189</v>
+        <f t="shared" si="120"/>
+        <v>7.6388849112543227E+172</v>
       </c>
       <c r="G300">
         <v>1000</v>
@@ -11524,7 +11524,7 @@
         <v>61600</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10">
       <c r="A301">
         <v>299</v>
       </c>
@@ -11544,8 +11544,8 @@
         <v>1</v>
       </c>
       <c r="F301" s="2">
-        <f t="shared" si="121"/>
-        <v>3.094760423972894E+189</v>
+        <f t="shared" si="120"/>
+        <v>1.5277769822508645E+173</v>
       </c>
       <c r="G301">
         <v>1000</v>
@@ -11560,7 +11560,7 @@
         <v>61800</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10">
       <c r="A302">
         <v>300</v>
       </c>
@@ -11580,8 +11580,8 @@
         <v>1</v>
       </c>
       <c r="F302" s="2">
-        <f t="shared" si="121"/>
-        <v>6.9632109539390116E+189</v>
+        <f t="shared" si="120"/>
+        <v>3.0555539645017291E+173</v>
       </c>
       <c r="G302">
         <v>1000</v>
@@ -11596,7 +11596,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10">
       <c r="A303">
         <v>301</v>
       </c>
@@ -11616,8 +11616,8 @@
         <v>1</v>
       </c>
       <c r="F303" s="2">
-        <f t="shared" si="121"/>
-        <v>1.5667224646362776E+190</v>
+        <f t="shared" si="120"/>
+        <v>6.1111079290034582E+173</v>
       </c>
       <c r="G303">
         <v>1000</v>
@@ -11632,7 +11632,7 @@
         <v>62200</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10">
       <c r="A304">
         <v>302</v>
       </c>
@@ -11652,8 +11652,8 @@
         <v>1</v>
       </c>
       <c r="F304" s="2">
-        <f t="shared" si="121"/>
-        <v>3.5251255454316246E+190</v>
+        <f t="shared" si="120"/>
+        <v>1.2222215858006916E+174</v>
       </c>
       <c r="G304">
         <v>1000</v>
@@ -11668,7 +11668,7 @@
         <v>62400</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:10">
       <c r="A305">
         <v>303</v>
       </c>
@@ -11688,8 +11688,8 @@
         <v>1</v>
       </c>
       <c r="F305" s="2">
-        <f t="shared" si="121"/>
-        <v>7.9315324772211548E+190</v>
+        <f t="shared" si="120"/>
+        <v>2.4444431716013833E+174</v>
       </c>
       <c r="G305">
         <v>1000</v>
@@ -11704,7 +11704,7 @@
         <v>62600</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:10">
       <c r="A306">
         <v>304</v>
       </c>
@@ -11724,8 +11724,8 @@
         <v>1</v>
       </c>
       <c r="F306" s="2">
-        <f t="shared" si="121"/>
-        <v>1.78459480737476E+191</v>
+        <f t="shared" si="120"/>
+        <v>4.8888863432027665E+174</v>
       </c>
       <c r="G306">
         <v>1000</v>
@@ -11740,7 +11740,7 @@
         <v>62800</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:10">
       <c r="A307">
         <v>305</v>
       </c>
@@ -11760,8 +11760,8 @@
         <v>1</v>
       </c>
       <c r="F307" s="2">
-        <f t="shared" si="121"/>
-        <v>4.0153383165932103E+191</v>
+        <f t="shared" si="120"/>
+        <v>9.7777726864055331E+174</v>
       </c>
       <c r="G307">
         <v>1000</v>
@@ -11776,7 +11776,7 @@
         <v>63000</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:10">
       <c r="A308">
         <v>306</v>
       </c>
@@ -11796,8 +11796,8 @@
         <v>1</v>
       </c>
       <c r="F308" s="2">
-        <f t="shared" si="121"/>
-        <v>9.0345112123347228E+191</v>
+        <f t="shared" si="120"/>
+        <v>1.9555545372811066E+175</v>
       </c>
       <c r="G308">
         <v>1000</v>
@@ -11812,7 +11812,7 @@
         <v>63200</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:10">
       <c r="A309">
         <v>307</v>
       </c>
@@ -11832,8 +11832,8 @@
         <v>1</v>
       </c>
       <c r="F309" s="2">
-        <f t="shared" si="121"/>
-        <v>2.0327650227753127E+192</v>
+        <f t="shared" si="120"/>
+        <v>3.9111090745622132E+175</v>
       </c>
       <c r="G309">
         <v>1000</v>
@@ -11848,7 +11848,7 @@
         <v>63400</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:10">
       <c r="A310">
         <v>308</v>
       </c>
@@ -11868,8 +11868,8 @@
         <v>1</v>
       </c>
       <c r="F310" s="2">
-        <f t="shared" si="121"/>
-        <v>4.5737213012444532E+192</v>
+        <f t="shared" si="120"/>
+        <v>7.8222181491244265E+175</v>
       </c>
       <c r="G310">
         <v>1000</v>
@@ -11884,7 +11884,7 @@
         <v>63600</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:10">
       <c r="A311">
         <v>309</v>
       </c>
@@ -11904,8 +11904,8 @@
         <v>1</v>
       </c>
       <c r="F311" s="2">
-        <f t="shared" si="121"/>
-        <v>1.029087292780002E+193</v>
+        <f t="shared" si="120"/>
+        <v>1.5644436298248853E+176</v>
       </c>
       <c r="G311">
         <v>1000</v>
@@ -11920,7 +11920,7 @@
         <v>63800</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:10">
       <c r="A312">
         <v>310</v>
       </c>
@@ -11940,8 +11940,8 @@
         <v>1</v>
       </c>
       <c r="F312" s="2">
-        <f t="shared" si="121"/>
-        <v>2.3154464087550047E+193</v>
+        <f t="shared" si="120"/>
+        <v>3.1288872596497706E+176</v>
       </c>
       <c r="G312">
         <v>1000</v>
@@ -11956,7 +11956,7 @@
         <v>64000</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:10">
       <c r="A313">
         <v>311</v>
       </c>
@@ -11976,8 +11976,8 @@
         <v>1</v>
       </c>
       <c r="F313" s="2">
-        <f t="shared" si="121"/>
-        <v>5.2097544196987607E+193</v>
+        <f t="shared" si="120"/>
+        <v>6.2577745192995412E+176</v>
       </c>
       <c r="G313">
         <v>1000</v>
@@ -11992,7 +11992,7 @@
         <v>64200</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:10">
       <c r="A314">
         <v>312</v>
       </c>
@@ -12012,8 +12012,8 @@
         <v>1</v>
       </c>
       <c r="F314" s="2">
-        <f t="shared" si="121"/>
-        <v>1.1721947444322212E+194</v>
+        <f t="shared" si="120"/>
+        <v>1.2515549038599082E+177</v>
       </c>
       <c r="G314">
         <v>1000</v>
@@ -12028,7 +12028,7 @@
         <v>64400</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:10">
       <c r="A315">
         <v>313</v>
       </c>
@@ -12048,8 +12048,8 @@
         <v>1</v>
       </c>
       <c r="F315" s="2">
-        <f t="shared" si="121"/>
-        <v>2.6374381749724978E+194</v>
+        <f t="shared" si="120"/>
+        <v>2.5031098077198165E+177</v>
       </c>
       <c r="G315">
         <v>1000</v>
@@ -12064,7 +12064,7 @@
         <v>64600</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:10">
       <c r="A316">
         <v>314</v>
       </c>
@@ -12084,8 +12084,8 @@
         <v>1</v>
       </c>
       <c r="F316" s="2">
-        <f t="shared" si="121"/>
-        <v>5.9342358936881207E+194</v>
+        <f t="shared" si="120"/>
+        <v>5.0062196154396329E+177</v>
       </c>
       <c r="G316">
         <v>1000</v>
@@ -12100,7 +12100,7 @@
         <v>64800</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:10">
       <c r="A317">
         <v>315</v>
       </c>
@@ -12120,8 +12120,8 @@
         <v>1</v>
       </c>
       <c r="F317" s="2">
-        <f t="shared" si="121"/>
-        <v>1.3352030760798272E+195</v>
+        <f t="shared" si="120"/>
+        <v>1.0012439230879266E+178</v>
       </c>
       <c r="G317">
         <v>1000</v>
@@ -12136,7 +12136,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:10">
       <c r="A318">
         <v>316</v>
       </c>
@@ -12156,8 +12156,8 @@
         <v>1</v>
       </c>
       <c r="F318" s="2">
-        <f t="shared" si="121"/>
-        <v>3.0042069211796114E+195</v>
+        <f t="shared" si="120"/>
+        <v>2.0024878461758532E+178</v>
       </c>
       <c r="G318">
         <v>1000</v>
@@ -12172,7 +12172,7 @@
         <v>65200</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:10">
       <c r="A319">
         <v>317</v>
       </c>
@@ -12192,8 +12192,8 @@
         <v>1</v>
       </c>
       <c r="F319" s="2">
-        <f t="shared" si="121"/>
-        <v>6.7594655726541257E+195</v>
+        <f t="shared" si="120"/>
+        <v>4.0049756923517063E+178</v>
       </c>
       <c r="G319">
         <v>1000</v>
@@ -12208,7 +12208,7 @@
         <v>65400</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:10">
       <c r="A320">
         <v>318</v>
       </c>
@@ -12228,8 +12228,8 @@
         <v>1</v>
       </c>
       <c r="F320" s="2">
-        <f t="shared" si="121"/>
-        <v>1.5208797538471783E+196</v>
+        <f t="shared" si="120"/>
+        <v>8.0099513847034127E+178</v>
       </c>
       <c r="G320">
         <v>1000</v>
@@ -12244,7 +12244,7 @@
         <v>65600</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:10">
       <c r="A321">
         <v>319</v>
       </c>
@@ -12264,8 +12264,8 @@
         <v>1</v>
       </c>
       <c r="F321" s="2">
-        <f t="shared" si="121"/>
-        <v>3.4219794461561512E+196</v>
+        <f t="shared" si="120"/>
+        <v>1.6019902769406825E+179</v>
       </c>
       <c r="G321">
         <v>1000</v>
@@ -12280,7 +12280,7 @@
         <v>65800</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:10">
       <c r="A322">
         <v>320</v>
       </c>
@@ -12300,8 +12300,8 @@
         <v>1</v>
       </c>
       <c r="F322" s="2">
-        <f t="shared" si="121"/>
-        <v>7.69945375385134E+196</v>
+        <f t="shared" si="120"/>
+        <v>3.2039805538813651E+179</v>
       </c>
       <c r="G322">
         <v>1000</v>
@@ -12316,7 +12316,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:10">
       <c r="A323">
         <v>321</v>
       </c>
@@ -12336,8 +12336,8 @@
         <v>1</v>
       </c>
       <c r="F323" s="2">
-        <f t="shared" si="121"/>
-        <v>1.7323770946165516E+197</v>
+        <f t="shared" si="120"/>
+        <v>6.4079611077627302E+179</v>
       </c>
       <c r="G323">
         <v>1000</v>
@@ -12352,7 +12352,7 @@
         <v>66200</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:10">
       <c r="A324">
         <v>322</v>
       </c>
@@ -12372,8 +12372,8 @@
         <v>1</v>
       </c>
       <c r="F324" s="2">
-        <f t="shared" si="121"/>
-        <v>3.897848462887241E+197</v>
+        <f t="shared" ref="F324:F387" si="185">F323*2</f>
+        <v>1.281592221552546E+180</v>
       </c>
       <c r="G324">
         <v>1000</v>
@@ -12388,16 +12388,16 @@
         <v>66400</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:10">
       <c r="A325">
         <v>323</v>
       </c>
       <c r="B325" s="1" t="str">
-        <f t="shared" ref="B325:C325" si="185">B320</f>
+        <f t="shared" ref="B325:C325" si="186">B320</f>
         <v>1-1</v>
       </c>
       <c r="C325" s="3">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>9018</v>
       </c>
       <c r="D325">
@@ -12408,8 +12408,8 @@
         <v>1</v>
       </c>
       <c r="F325" s="2">
-        <f t="shared" ref="F325:F388" si="186">F324*2.25</f>
-        <v>8.7701590414962922E+197</v>
+        <f t="shared" si="185"/>
+        <v>2.5631844431050921E+180</v>
       </c>
       <c r="G325">
         <v>1000</v>
@@ -12424,7 +12424,7 @@
         <v>66600</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:10">
       <c r="A326">
         <v>324</v>
       </c>
@@ -12444,8 +12444,8 @@
         <v>1</v>
       </c>
       <c r="F326" s="2">
-        <f t="shared" si="186"/>
-        <v>1.9732857843366657E+198</v>
+        <f t="shared" si="185"/>
+        <v>5.1263688862101841E+180</v>
       </c>
       <c r="G326">
         <v>1000</v>
@@ -12460,7 +12460,7 @@
         <v>66800</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:10">
       <c r="A327">
         <v>325</v>
       </c>
@@ -12480,8 +12480,8 @@
         <v>1</v>
       </c>
       <c r="F327" s="2">
-        <f t="shared" si="186"/>
-        <v>4.4398930147574977E+198</v>
+        <f t="shared" si="185"/>
+        <v>1.0252737772420368E+181</v>
       </c>
       <c r="G327">
         <v>1000</v>
@@ -12496,7 +12496,7 @@
         <v>67000</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:10">
       <c r="A328">
         <v>326</v>
       </c>
@@ -12516,8 +12516,8 @@
         <v>1</v>
       </c>
       <c r="F328" s="2">
-        <f t="shared" si="186"/>
-        <v>9.9897592832043688E+198</v>
+        <f t="shared" si="185"/>
+        <v>2.0505475544840737E+181</v>
       </c>
       <c r="G328">
         <v>1000</v>
@@ -12532,7 +12532,7 @@
         <v>67200</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:10">
       <c r="A329">
         <v>327</v>
       </c>
@@ -12552,8 +12552,8 @@
         <v>1</v>
       </c>
       <c r="F329" s="2">
-        <f t="shared" si="186"/>
-        <v>2.2476958387209832E+199</v>
+        <f t="shared" si="185"/>
+        <v>4.1010951089681473E+181</v>
       </c>
       <c r="G329">
         <v>1000</v>
@@ -12568,7 +12568,7 @@
         <v>67400</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:10">
       <c r="A330">
         <v>328</v>
       </c>
@@ -12588,8 +12588,8 @@
         <v>1</v>
       </c>
       <c r="F330" s="2">
-        <f t="shared" si="186"/>
-        <v>5.057315637122212E+199</v>
+        <f t="shared" si="185"/>
+        <v>8.2021902179362946E+181</v>
       </c>
       <c r="G330">
         <v>1000</v>
@@ -12604,7 +12604,7 @@
         <v>67600</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:10">
       <c r="A331">
         <v>329</v>
       </c>
@@ -12624,8 +12624,8 @@
         <v>1</v>
       </c>
       <c r="F331" s="2">
-        <f t="shared" si="186"/>
-        <v>1.1378960183524977E+200</v>
+        <f t="shared" si="185"/>
+        <v>1.6404380435872589E+182</v>
       </c>
       <c r="G331">
         <v>1000</v>
@@ -12640,7 +12640,7 @@
         <v>67800</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:10">
       <c r="A332">
         <v>330</v>
       </c>
@@ -12660,8 +12660,8 @@
         <v>1</v>
       </c>
       <c r="F332" s="2">
-        <f t="shared" si="186"/>
-        <v>2.5602660412931199E+200</v>
+        <f t="shared" si="185"/>
+        <v>3.2808760871745178E+182</v>
       </c>
       <c r="G332">
         <v>1000</v>
@@ -12676,7 +12676,7 @@
         <v>68000</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:10">
       <c r="A333">
         <v>331</v>
       </c>
@@ -12696,8 +12696,8 @@
         <v>1</v>
       </c>
       <c r="F333" s="2">
-        <f t="shared" si="186"/>
-        <v>5.7605985929095196E+200</v>
+        <f t="shared" si="185"/>
+        <v>6.5617521743490357E+182</v>
       </c>
       <c r="G333">
         <v>1000</v>
@@ -12712,7 +12712,7 @@
         <v>68200</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:10">
       <c r="A334">
         <v>332</v>
       </c>
@@ -12732,8 +12732,8 @@
         <v>1</v>
       </c>
       <c r="F334" s="2">
-        <f t="shared" si="186"/>
-        <v>1.296134683404642E+201</v>
+        <f t="shared" si="185"/>
+        <v>1.3123504348698071E+183</v>
       </c>
       <c r="G334">
         <v>1000</v>
@@ -12748,7 +12748,7 @@
         <v>68400</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:10">
       <c r="A335">
         <v>333</v>
       </c>
@@ -12768,8 +12768,8 @@
         <v>1</v>
       </c>
       <c r="F335" s="2">
-        <f t="shared" si="186"/>
-        <v>2.9163030376604447E+201</v>
+        <f t="shared" si="185"/>
+        <v>2.6247008697396143E+183</v>
       </c>
       <c r="G335">
         <v>1000</v>
@@ -12784,7 +12784,7 @@
         <v>68600</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:10">
       <c r="A336">
         <v>334</v>
       </c>
@@ -12804,8 +12804,8 @@
         <v>1</v>
       </c>
       <c r="F336" s="2">
-        <f t="shared" si="186"/>
-        <v>6.561681834736001E+201</v>
+        <f t="shared" si="185"/>
+        <v>5.2494017394792285E+183</v>
       </c>
       <c r="G336">
         <v>1000</v>
@@ -12820,7 +12820,7 @@
         <v>68800</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10">
       <c r="A337">
         <v>335</v>
       </c>
@@ -12840,8 +12840,8 @@
         <v>1</v>
       </c>
       <c r="F337" s="2">
-        <f t="shared" si="186"/>
-        <v>1.4763784128156002E+202</v>
+        <f t="shared" si="185"/>
+        <v>1.0498803478958457E+184</v>
       </c>
       <c r="G337">
         <v>1000</v>
@@ -12856,7 +12856,7 @@
         <v>69000</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10">
       <c r="A338">
         <v>336</v>
       </c>
@@ -12876,8 +12876,8 @@
         <v>1</v>
       </c>
       <c r="F338" s="2">
-        <f t="shared" si="186"/>
-        <v>3.3218514288351003E+202</v>
+        <f t="shared" si="185"/>
+        <v>2.0997606957916914E+184</v>
       </c>
       <c r="G338">
         <v>1000</v>
@@ -12892,7 +12892,7 @@
         <v>69200</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10">
       <c r="A339">
         <v>337</v>
       </c>
@@ -12912,8 +12912,8 @@
         <v>1</v>
       </c>
       <c r="F339" s="2">
-        <f t="shared" si="186"/>
-        <v>7.4741657148789756E+202</v>
+        <f t="shared" si="185"/>
+        <v>4.1995213915833828E+184</v>
       </c>
       <c r="G339">
         <v>1000</v>
@@ -12928,7 +12928,7 @@
         <v>69400</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10">
       <c r="A340">
         <v>338</v>
       </c>
@@ -12948,8 +12948,8 @@
         <v>1</v>
       </c>
       <c r="F340" s="2">
-        <f t="shared" si="186"/>
-        <v>1.6816872858477696E+203</v>
+        <f t="shared" si="185"/>
+        <v>8.3990427831667657E+184</v>
       </c>
       <c r="G340">
         <v>1000</v>
@@ -12964,7 +12964,7 @@
         <v>69600</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10">
       <c r="A341">
         <v>339</v>
       </c>
@@ -12984,8 +12984,8 @@
         <v>1</v>
       </c>
       <c r="F341" s="2">
-        <f t="shared" si="186"/>
-        <v>3.7837963931574814E+203</v>
+        <f t="shared" si="185"/>
+        <v>1.6798085566333531E+185</v>
       </c>
       <c r="G341">
         <v>1000</v>
@@ -13000,7 +13000,7 @@
         <v>69800</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10">
       <c r="A342">
         <v>340</v>
       </c>
@@ -13020,8 +13020,8 @@
         <v>1</v>
       </c>
       <c r="F342" s="2">
-        <f t="shared" si="186"/>
-        <v>8.5135418846043334E+203</v>
+        <f t="shared" si="185"/>
+        <v>3.3596171132667063E+185</v>
       </c>
       <c r="G342">
         <v>1000</v>
@@ -13036,7 +13036,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10">
       <c r="A343">
         <v>341</v>
       </c>
@@ -13056,8 +13056,8 @@
         <v>1</v>
       </c>
       <c r="F343" s="2">
-        <f t="shared" si="186"/>
-        <v>1.9155469240359749E+204</v>
+        <f t="shared" si="185"/>
+        <v>6.7192342265334125E+185</v>
       </c>
       <c r="G343">
         <v>1000</v>
@@ -13072,7 +13072,7 @@
         <v>70200</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10">
       <c r="A344">
         <v>342</v>
       </c>
@@ -13092,8 +13092,8 @@
         <v>1</v>
       </c>
       <c r="F344" s="2">
-        <f t="shared" si="186"/>
-        <v>4.3099805790809435E+204</v>
+        <f t="shared" si="185"/>
+        <v>1.3438468453066825E+186</v>
       </c>
       <c r="G344">
         <v>1000</v>
@@ -13108,7 +13108,7 @@
         <v>70400</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10">
       <c r="A345">
         <v>343</v>
       </c>
@@ -13128,8 +13128,8 @@
         <v>1</v>
       </c>
       <c r="F345" s="2">
-        <f t="shared" si="186"/>
-        <v>9.6974563029321223E+204</v>
+        <f t="shared" si="185"/>
+        <v>2.687693690613365E+186</v>
       </c>
       <c r="G345">
         <v>1000</v>
@@ -13144,7 +13144,7 @@
         <v>70600</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10">
       <c r="A346">
         <v>344</v>
       </c>
@@ -13164,8 +13164,8 @@
         <v>1</v>
       </c>
       <c r="F346" s="2">
-        <f t="shared" si="186"/>
-        <v>2.1819276681597277E+205</v>
+        <f t="shared" si="185"/>
+        <v>5.37538738122673E+186</v>
       </c>
       <c r="G346">
         <v>1000</v>
@@ -13180,7 +13180,7 @@
         <v>70800</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10">
       <c r="A347">
         <v>345</v>
       </c>
@@ -13200,8 +13200,8 @@
         <v>1</v>
       </c>
       <c r="F347" s="2">
-        <f t="shared" si="186"/>
-        <v>4.9093372533593872E+205</v>
+        <f t="shared" si="185"/>
+        <v>1.075077476245346E+187</v>
       </c>
       <c r="G347">
         <v>1000</v>
@@ -13216,7 +13216,7 @@
         <v>71000</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10">
       <c r="A348">
         <v>346</v>
       </c>
@@ -13236,8 +13236,8 @@
         <v>1</v>
       </c>
       <c r="F348" s="2">
-        <f t="shared" si="186"/>
-        <v>1.1046008820058622E+206</v>
+        <f t="shared" si="185"/>
+        <v>2.150154952490692E+187</v>
       </c>
       <c r="G348">
         <v>1000</v>
@@ -13252,7 +13252,7 @@
         <v>71200</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10">
       <c r="A349">
         <v>347</v>
       </c>
@@ -13272,8 +13272,8 @@
         <v>1</v>
       </c>
       <c r="F349" s="2">
-        <f t="shared" si="186"/>
-        <v>2.4853519845131897E+206</v>
+        <f t="shared" si="185"/>
+        <v>4.300309904981384E+187</v>
       </c>
       <c r="G349">
         <v>1000</v>
@@ -13288,7 +13288,7 @@
         <v>71400</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10">
       <c r="A350">
         <v>348</v>
       </c>
@@ -13308,8 +13308,8 @@
         <v>1</v>
       </c>
       <c r="F350" s="2">
-        <f t="shared" si="186"/>
-        <v>5.5920419651546771E+206</v>
+        <f t="shared" si="185"/>
+        <v>8.600619809962768E+187</v>
       </c>
       <c r="G350">
         <v>1000</v>
@@ -13324,7 +13324,7 @@
         <v>71600</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10">
       <c r="A351">
         <v>349</v>
       </c>
@@ -13344,8 +13344,8 @@
         <v>1</v>
       </c>
       <c r="F351" s="2">
-        <f t="shared" si="186"/>
-        <v>1.2582094421598024E+207</v>
+        <f t="shared" si="185"/>
+        <v>1.7201239619925536E+188</v>
       </c>
       <c r="G351">
         <v>1000</v>
@@ -13360,7 +13360,7 @@
         <v>71800</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10">
       <c r="A352">
         <v>350</v>
       </c>
@@ -13380,8 +13380,8 @@
         <v>1</v>
       </c>
       <c r="F352" s="2">
-        <f t="shared" si="186"/>
-        <v>2.8309712448595552E+207</v>
+        <f t="shared" si="185"/>
+        <v>3.4402479239851072E+188</v>
       </c>
       <c r="G352">
         <v>1000</v>
@@ -13396,7 +13396,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:10">
       <c r="A353">
         <v>351</v>
       </c>
@@ -13416,8 +13416,8 @@
         <v>1</v>
       </c>
       <c r="F353" s="2">
-        <f t="shared" si="186"/>
-        <v>6.3696853009339992E+207</v>
+        <f t="shared" si="185"/>
+        <v>6.8804958479702144E+188</v>
       </c>
       <c r="G353">
         <v>1000</v>
@@ -13432,7 +13432,7 @@
         <v>72200</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:10">
       <c r="A354">
         <v>352</v>
       </c>
@@ -13452,8 +13452,8 @@
         <v>1</v>
       </c>
       <c r="F354" s="2">
-        <f t="shared" si="186"/>
-        <v>1.4331791927101498E+208</v>
+        <f t="shared" si="185"/>
+        <v>1.3760991695940429E+189</v>
       </c>
       <c r="G354">
         <v>1000</v>
@@ -13468,7 +13468,7 @@
         <v>72400</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:10">
       <c r="A355">
         <v>353</v>
       </c>
@@ -13488,8 +13488,8 @@
         <v>1</v>
       </c>
       <c r="F355" s="2">
-        <f t="shared" si="186"/>
-        <v>3.2246531835978372E+208</v>
+        <f t="shared" si="185"/>
+        <v>2.7521983391880858E+189</v>
       </c>
       <c r="G355">
         <v>1000</v>
@@ -13504,7 +13504,7 @@
         <v>72600</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:10">
       <c r="A356">
         <v>354</v>
       </c>
@@ -13524,8 +13524,8 @@
         <v>1</v>
       </c>
       <c r="F356" s="2">
-        <f t="shared" si="186"/>
-        <v>7.2554696630951336E+208</v>
+        <f t="shared" si="185"/>
+        <v>5.5043966783761716E+189</v>
       </c>
       <c r="G356">
         <v>1000</v>
@@ -13540,7 +13540,7 @@
         <v>72800</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:10">
       <c r="A357">
         <v>355</v>
       </c>
@@ -13560,8 +13560,8 @@
         <v>1</v>
       </c>
       <c r="F357" s="2">
-        <f t="shared" si="186"/>
-        <v>1.6324806741964051E+209</v>
+        <f t="shared" si="185"/>
+        <v>1.1008793356752343E+190</v>
       </c>
       <c r="G357">
         <v>1000</v>
@@ -13576,7 +13576,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:10">
       <c r="A358">
         <v>356</v>
       </c>
@@ -13596,8 +13596,8 @@
         <v>1</v>
       </c>
       <c r="F358" s="2">
-        <f t="shared" si="186"/>
-        <v>3.6730815169419112E+209</v>
+        <f t="shared" si="185"/>
+        <v>2.2017586713504686E+190</v>
       </c>
       <c r="G358">
         <v>1000</v>
@@ -13612,7 +13612,7 @@
         <v>73200</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:10">
       <c r="A359">
         <v>357</v>
       </c>
@@ -13632,8 +13632,8 @@
         <v>1</v>
       </c>
       <c r="F359" s="2">
-        <f t="shared" si="186"/>
-        <v>8.2644334131192999E+209</v>
+        <f t="shared" si="185"/>
+        <v>4.4035173427009372E+190</v>
       </c>
       <c r="G359">
         <v>1000</v>
@@ -13648,7 +13648,7 @@
         <v>73400</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:10">
       <c r="A360">
         <v>358</v>
       </c>
@@ -13668,8 +13668,8 @@
         <v>1</v>
       </c>
       <c r="F360" s="2">
-        <f t="shared" si="186"/>
-        <v>1.8594975179518426E+210</v>
+        <f t="shared" si="185"/>
+        <v>8.8070346854018745E+190</v>
       </c>
       <c r="G360">
         <v>1000</v>
@@ -13684,7 +13684,7 @@
         <v>73600</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:10">
       <c r="A361">
         <v>359</v>
       </c>
@@ -13704,8 +13704,8 @@
         <v>1</v>
       </c>
       <c r="F361" s="2">
-        <f t="shared" si="186"/>
-        <v>4.1838694153916456E+210</v>
+        <f t="shared" si="185"/>
+        <v>1.7614069370803749E+191</v>
       </c>
       <c r="G361">
         <v>1000</v>
@@ -13720,7 +13720,7 @@
         <v>73800</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:10">
       <c r="A362">
         <v>360</v>
       </c>
@@ -13740,8 +13740,8 @@
         <v>1</v>
       </c>
       <c r="F362" s="2">
-        <f t="shared" si="186"/>
-        <v>9.4137061846312031E+210</v>
+        <f t="shared" si="185"/>
+        <v>3.5228138741607498E+191</v>
       </c>
       <c r="G362">
         <v>1000</v>
@@ -13756,7 +13756,7 @@
         <v>74000</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:10">
       <c r="A363">
         <v>361</v>
       </c>
@@ -13776,8 +13776,8 @@
         <v>1</v>
       </c>
       <c r="F363" s="2">
-        <f t="shared" si="186"/>
-        <v>2.1180838915420206E+211</v>
+        <f t="shared" si="185"/>
+        <v>7.0456277483214996E+191</v>
       </c>
       <c r="G363">
         <v>1000</v>
@@ -13792,7 +13792,7 @@
         <v>74200</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:10">
       <c r="A364">
         <v>362</v>
       </c>
@@ -13812,8 +13812,8 @@
         <v>1</v>
       </c>
       <c r="F364" s="2">
-        <f t="shared" si="186"/>
-        <v>4.7656887559695462E+211</v>
+        <f t="shared" si="185"/>
+        <v>1.4091255496642999E+192</v>
       </c>
       <c r="G364">
         <v>1000</v>
@@ -13828,7 +13828,7 @@
         <v>74400</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:10">
       <c r="A365">
         <v>363</v>
       </c>
@@ -13848,8 +13848,8 @@
         <v>1</v>
       </c>
       <c r="F365" s="2">
-        <f t="shared" si="186"/>
-        <v>1.072279970093148E+212</v>
+        <f t="shared" si="185"/>
+        <v>2.8182510993285998E+192</v>
       </c>
       <c r="G365">
         <v>1000</v>
@@ -13864,7 +13864,7 @@
         <v>74600</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:10">
       <c r="A366">
         <v>364</v>
       </c>
@@ -13884,8 +13884,8 @@
         <v>1</v>
       </c>
       <c r="F366" s="2">
-        <f t="shared" si="186"/>
-        <v>2.4126299327095827E+212</v>
+        <f t="shared" si="185"/>
+        <v>5.6365021986571997E+192</v>
       </c>
       <c r="G366">
         <v>1000</v>
@@ -13900,7 +13900,7 @@
         <v>74800</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:10">
       <c r="A367">
         <v>365</v>
       </c>
@@ -13920,8 +13920,8 @@
         <v>1</v>
       </c>
       <c r="F367" s="2">
-        <f t="shared" si="186"/>
-        <v>5.4284173485965611E+212</v>
+        <f t="shared" si="185"/>
+        <v>1.1273004397314399E+193</v>
       </c>
       <c r="G367">
         <v>1000</v>
@@ -13936,7 +13936,7 @@
         <v>75000</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:10">
       <c r="A368">
         <v>366</v>
       </c>
@@ -13956,8 +13956,8 @@
         <v>1</v>
       </c>
       <c r="F368" s="2">
-        <f t="shared" si="186"/>
-        <v>1.2213939034342263E+213</v>
+        <f t="shared" si="185"/>
+        <v>2.2546008794628799E+193</v>
       </c>
       <c r="G368">
         <v>1000</v>
@@ -13972,7 +13972,7 @@
         <v>75200</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:10">
       <c r="A369">
         <v>367</v>
       </c>
@@ -13992,8 +13992,8 @@
         <v>1</v>
       </c>
       <c r="F369" s="2">
-        <f t="shared" si="186"/>
-        <v>2.7481362827270089E+213</v>
+        <f t="shared" si="185"/>
+        <v>4.5092017589257597E+193</v>
       </c>
       <c r="G369">
         <v>1000</v>
@@ -14008,7 +14008,7 @@
         <v>75400</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:10">
       <c r="A370">
         <v>368</v>
       </c>
@@ -14028,8 +14028,8 @@
         <v>1</v>
       </c>
       <c r="F370" s="2">
-        <f t="shared" si="186"/>
-        <v>6.1833066361357695E+213</v>
+        <f t="shared" si="185"/>
+        <v>9.0184035178515195E+193</v>
       </c>
       <c r="G370">
         <v>1000</v>
@@ -14044,7 +14044,7 @@
         <v>75600</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:10">
       <c r="A371">
         <v>369</v>
       </c>
@@ -14064,8 +14064,8 @@
         <v>1</v>
       </c>
       <c r="F371" s="2">
-        <f t="shared" si="186"/>
-        <v>1.3912439931305481E+214</v>
+        <f t="shared" si="185"/>
+        <v>1.8036807035703039E+194</v>
       </c>
       <c r="G371">
         <v>1000</v>
@@ -14080,7 +14080,7 @@
         <v>75800</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:10">
       <c r="A372">
         <v>370</v>
       </c>
@@ -14100,8 +14100,8 @@
         <v>1</v>
       </c>
       <c r="F372" s="2">
-        <f t="shared" si="186"/>
-        <v>3.1302989845437333E+214</v>
+        <f t="shared" si="185"/>
+        <v>3.6073614071406078E+194</v>
       </c>
       <c r="G372">
         <v>1000</v>
@@ -14116,7 +14116,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:10">
       <c r="A373">
         <v>371</v>
       </c>
@@ -14136,8 +14136,8 @@
         <v>1</v>
       </c>
       <c r="F373" s="2">
-        <f t="shared" si="186"/>
-        <v>7.0431727152234002E+214</v>
+        <f t="shared" si="185"/>
+        <v>7.2147228142812156E+194</v>
       </c>
       <c r="G373">
         <v>1000</v>
@@ -14152,7 +14152,7 @@
         <v>76200</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:10">
       <c r="A374">
         <v>372</v>
       </c>
@@ -14172,8 +14172,8 @@
         <v>1</v>
       </c>
       <c r="F374" s="2">
-        <f t="shared" si="186"/>
-        <v>1.5847138609252649E+215</v>
+        <f t="shared" si="185"/>
+        <v>1.4429445628562431E+195</v>
       </c>
       <c r="G374">
         <v>1000</v>
@@ -14188,7 +14188,7 @@
         <v>76400</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:10">
       <c r="A375">
         <v>373</v>
       </c>
@@ -14208,8 +14208,8 @@
         <v>1</v>
       </c>
       <c r="F375" s="2">
-        <f t="shared" si="186"/>
-        <v>3.5656061870818464E+215</v>
+        <f t="shared" si="185"/>
+        <v>2.8858891257124862E+195</v>
       </c>
       <c r="G375">
         <v>1000</v>
@@ -14224,7 +14224,7 @@
         <v>76600</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:10">
       <c r="A376">
         <v>374</v>
       </c>
@@ -14244,8 +14244,8 @@
         <v>1</v>
       </c>
       <c r="F376" s="2">
-        <f t="shared" si="186"/>
-        <v>8.0226139209341546E+215</v>
+        <f t="shared" si="185"/>
+        <v>5.7717782514249725E+195</v>
       </c>
       <c r="G376">
         <v>1000</v>
@@ -14260,7 +14260,7 @@
         <v>76800</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:10">
       <c r="A377">
         <v>375</v>
       </c>
@@ -14280,8 +14280,8 @@
         <v>1</v>
       </c>
       <c r="F377" s="2">
-        <f t="shared" si="186"/>
-        <v>1.8050881322101848E+216</v>
+        <f t="shared" si="185"/>
+        <v>1.1543556502849945E+196</v>
       </c>
       <c r="G377">
         <v>1000</v>
@@ -14296,7 +14296,7 @@
         <v>77000</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:10">
       <c r="A378">
         <v>376</v>
       </c>
@@ -14316,8 +14316,8 @@
         <v>1</v>
       </c>
       <c r="F378" s="2">
-        <f t="shared" si="186"/>
-        <v>4.0614482974729157E+216</v>
+        <f t="shared" si="185"/>
+        <v>2.308711300569989E+196</v>
       </c>
       <c r="G378">
         <v>1000</v>
@@ -14332,7 +14332,7 @@
         <v>77200</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:10">
       <c r="A379">
         <v>377</v>
       </c>
@@ -14352,8 +14352,8 @@
         <v>1</v>
       </c>
       <c r="F379" s="2">
-        <f t="shared" si="186"/>
-        <v>9.1382586693140606E+216</v>
+        <f t="shared" si="185"/>
+        <v>4.617422601139978E+196</v>
       </c>
       <c r="G379">
         <v>1000</v>
@@ -14368,7 +14368,7 @@
         <v>77400</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:10">
       <c r="A380">
         <v>378</v>
       </c>
@@ -14388,8 +14388,8 @@
         <v>1</v>
       </c>
       <c r="F380" s="2">
-        <f t="shared" si="186"/>
-        <v>2.0561082005956636E+217</v>
+        <f t="shared" si="185"/>
+        <v>9.2348452022799559E+196</v>
       </c>
       <c r="G380">
         <v>1000</v>
@@ -14404,7 +14404,7 @@
         <v>77600</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:10">
       <c r="A381">
         <v>379</v>
       </c>
@@ -14424,8 +14424,8 @@
         <v>1</v>
       </c>
       <c r="F381" s="2">
-        <f t="shared" si="186"/>
-        <v>4.6262434513402435E+217</v>
+        <f t="shared" si="185"/>
+        <v>1.8469690404559912E+197</v>
       </c>
       <c r="G381">
         <v>1000</v>
@@ -14440,7 +14440,7 @@
         <v>77800</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:10">
       <c r="A382">
         <v>380</v>
       </c>
@@ -14460,8 +14460,8 @@
         <v>1</v>
       </c>
       <c r="F382" s="2">
-        <f t="shared" si="186"/>
-        <v>1.0409047765515547E+218</v>
+        <f t="shared" si="185"/>
+        <v>3.6939380809119824E+197</v>
       </c>
       <c r="G382">
         <v>1000</v>
@@ -14476,7 +14476,7 @@
         <v>78000</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:10">
       <c r="A383">
         <v>381</v>
       </c>
@@ -14496,8 +14496,8 @@
         <v>1</v>
       </c>
       <c r="F383" s="2">
-        <f t="shared" si="186"/>
-        <v>2.3420357472409982E+218</v>
+        <f t="shared" si="185"/>
+        <v>7.3878761618239647E+197</v>
       </c>
       <c r="G383">
         <v>1000</v>
@@ -14512,7 +14512,7 @@
         <v>78200</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:10">
       <c r="A384">
         <v>382</v>
       </c>
@@ -14532,8 +14532,8 @@
         <v>1</v>
       </c>
       <c r="F384" s="2">
-        <f t="shared" si="186"/>
-        <v>5.269580431292246E+218</v>
+        <f t="shared" si="185"/>
+        <v>1.4775752323647929E+198</v>
       </c>
       <c r="G384">
         <v>1000</v>
@@ -14548,7 +14548,7 @@
         <v>78400</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10">
       <c r="A385">
         <v>383</v>
       </c>
@@ -14568,8 +14568,8 @@
         <v>1</v>
       </c>
       <c r="F385" s="2">
-        <f t="shared" si="186"/>
-        <v>1.1856555970407554E+219</v>
+        <f t="shared" si="185"/>
+        <v>2.9551504647295859E+198</v>
       </c>
       <c r="G385">
         <v>1000</v>
@@ -14584,7 +14584,7 @@
         <v>78600</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10">
       <c r="A386">
         <v>384</v>
       </c>
@@ -14604,8 +14604,8 @@
         <v>1</v>
       </c>
       <c r="F386" s="2">
-        <f t="shared" si="186"/>
-        <v>2.6677250933416996E+219</v>
+        <f t="shared" si="185"/>
+        <v>5.9103009294591718E+198</v>
       </c>
       <c r="G386">
         <v>1000</v>
@@ -14620,7 +14620,7 @@
         <v>78800</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10">
       <c r="A387">
         <v>385</v>
       </c>
@@ -14640,8 +14640,8 @@
         <v>1</v>
       </c>
       <c r="F387" s="2">
-        <f t="shared" si="186"/>
-        <v>6.0023814600188247E+219</v>
+        <f t="shared" si="185"/>
+        <v>1.1820601858918344E+199</v>
       </c>
       <c r="G387">
         <v>1000</v>
@@ -14656,7 +14656,7 @@
         <v>79000</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10">
       <c r="A388">
         <v>386</v>
       </c>
@@ -14676,8 +14676,8 @@
         <v>1</v>
       </c>
       <c r="F388" s="2">
-        <f t="shared" si="186"/>
-        <v>1.3505358285042356E+220</v>
+        <f t="shared" ref="F388:F401" si="251">F387*2</f>
+        <v>2.3641203717836687E+199</v>
       </c>
       <c r="G388">
         <v>1000</v>
@@ -14692,16 +14692,16 @@
         <v>79200</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10">
       <c r="A389">
         <v>387</v>
       </c>
       <c r="B389" s="1" t="str">
-        <f t="shared" ref="B389:C389" si="251">B384</f>
+        <f t="shared" ref="B389:C389" si="252">B384</f>
         <v>1-1</v>
       </c>
       <c r="C389" s="3">
-        <f t="shared" si="251"/>
+        <f t="shared" si="252"/>
         <v>9018</v>
       </c>
       <c r="D389">
@@ -14712,8 +14712,8 @@
         <v>1</v>
       </c>
       <c r="F389" s="2">
-        <f t="shared" ref="F389:F398" si="252">F388*2.25</f>
-        <v>3.0387056141345299E+220</v>
+        <f t="shared" si="251"/>
+        <v>4.7282407435673374E+199</v>
       </c>
       <c r="G389">
         <v>1000</v>
@@ -14728,7 +14728,7 @@
         <v>79400</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10">
       <c r="A390">
         <v>388</v>
       </c>
@@ -14748,8 +14748,8 @@
         <v>1</v>
       </c>
       <c r="F390" s="2">
-        <f t="shared" si="252"/>
-        <v>6.8370876318026923E+220</v>
+        <f t="shared" si="251"/>
+        <v>9.4564814871346749E+199</v>
       </c>
       <c r="G390">
         <v>1000</v>
@@ -14764,7 +14764,7 @@
         <v>79600</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10">
       <c r="A391">
         <v>389</v>
       </c>
@@ -14784,8 +14784,8 @@
         <v>1</v>
       </c>
       <c r="F391" s="2">
-        <f t="shared" si="252"/>
-        <v>1.5383447171556058E+221</v>
+        <f t="shared" si="251"/>
+        <v>1.891296297426935E+200</v>
       </c>
       <c r="G391">
         <v>1000</v>
@@ -14800,7 +14800,7 @@
         <v>79800</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10">
       <c r="A392">
         <v>390</v>
       </c>
@@ -14820,8 +14820,8 @@
         <v>1</v>
       </c>
       <c r="F392" s="2">
-        <f t="shared" si="252"/>
-        <v>3.4612756136001133E+221</v>
+        <f t="shared" si="251"/>
+        <v>3.78259259485387E+200</v>
       </c>
       <c r="G392">
         <v>1000</v>
@@ -14836,7 +14836,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10">
       <c r="A393">
         <v>391</v>
       </c>
@@ -14856,8 +14856,8 @@
         <v>1</v>
       </c>
       <c r="F393" s="2">
-        <f t="shared" si="252"/>
-        <v>7.787870130600255E+221</v>
+        <f t="shared" si="251"/>
+        <v>7.5651851897077399E+200</v>
       </c>
       <c r="G393">
         <v>1000</v>
@@ -14872,7 +14872,7 @@
         <v>80200</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10">
       <c r="A394">
         <v>392</v>
       </c>
@@ -14885,15 +14885,15 @@
         <v>9018</v>
       </c>
       <c r="D394">
-        <f t="shared" ref="D394:D398" si="258">D389+1</f>
+        <f t="shared" ref="D394:D401" si="258">D389+1</f>
         <v>79</v>
       </c>
       <c r="E394">
         <v>1</v>
       </c>
       <c r="F394" s="2">
-        <f t="shared" si="252"/>
-        <v>1.7522707793850574E+222</v>
+        <f t="shared" si="251"/>
+        <v>1.513037037941548E+201</v>
       </c>
       <c r="G394">
         <v>1000</v>
@@ -14908,7 +14908,7 @@
         <v>80400</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10">
       <c r="A395">
         <v>393</v>
       </c>
@@ -14928,8 +14928,8 @@
         <v>1</v>
       </c>
       <c r="F395" s="2">
-        <f t="shared" si="252"/>
-        <v>3.9426092536163793E+222</v>
+        <f t="shared" si="251"/>
+        <v>3.026074075883096E+201</v>
       </c>
       <c r="G395">
         <v>1000</v>
@@ -14944,7 +14944,7 @@
         <v>80600</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10">
       <c r="A396">
         <v>394</v>
       </c>
@@ -14964,8 +14964,8 @@
         <v>1</v>
       </c>
       <c r="F396" s="2">
-        <f t="shared" si="252"/>
-        <v>8.8708708206368534E+222</v>
+        <f t="shared" si="251"/>
+        <v>6.0521481517661919E+201</v>
       </c>
       <c r="G396">
         <v>1000</v>
@@ -14980,7 +14980,7 @@
         <v>80800</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10">
       <c r="A397">
         <v>395</v>
       </c>
@@ -15000,8 +15000,8 @@
         <v>1</v>
       </c>
       <c r="F397" s="2">
-        <f t="shared" si="252"/>
-        <v>1.995945934643292E+223</v>
+        <f t="shared" si="251"/>
+        <v>1.2104296303532384E+202</v>
       </c>
       <c r="G397">
         <v>1000</v>
@@ -15016,7 +15016,7 @@
         <v>81000</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10">
       <c r="A398">
         <v>396</v>
       </c>
@@ -15036,8 +15036,8 @@
         <v>1</v>
       </c>
       <c r="F398" s="2">
-        <f t="shared" si="252"/>
-        <v>4.490878352947407E+223</v>
+        <f t="shared" si="251"/>
+        <v>2.4208592607064768E+202</v>
       </c>
       <c r="G398">
         <v>1000</v>
@@ -15052,9 +15052,117 @@
         <v>81200</v>
       </c>
     </row>
+    <row r="399" spans="1:10">
+      <c r="A399">
+        <v>397</v>
+      </c>
+      <c r="B399" s="1" t="str">
+        <f t="shared" ref="B399:C399" si="263">B394</f>
+        <v>1-1</v>
+      </c>
+      <c r="C399" s="3">
+        <f t="shared" si="263"/>
+        <v>9018</v>
+      </c>
+      <c r="D399">
+        <f t="shared" si="258"/>
+        <v>80</v>
+      </c>
+      <c r="E399">
+        <v>1</v>
+      </c>
+      <c r="F399" s="2">
+        <f t="shared" si="251"/>
+        <v>4.8417185214129535E+202</v>
+      </c>
+      <c r="G399">
+        <v>1000</v>
+      </c>
+      <c r="H399">
+        <v>8</v>
+      </c>
+      <c r="I399">
+        <v>0</v>
+      </c>
+      <c r="J399">
+        <v>81400</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10">
+      <c r="A400">
+        <v>398</v>
+      </c>
+      <c r="B400" s="1" t="str">
+        <f t="shared" ref="B400:C400" si="264">B395</f>
+        <v>1-1</v>
+      </c>
+      <c r="C400" s="3">
+        <f t="shared" si="264"/>
+        <v>9018</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="258"/>
+        <v>80</v>
+      </c>
+      <c r="E400">
+        <v>1</v>
+      </c>
+      <c r="F400" s="2">
+        <f t="shared" si="251"/>
+        <v>9.6834370428259071E+202</v>
+      </c>
+      <c r="G400">
+        <v>1000</v>
+      </c>
+      <c r="H400">
+        <v>8</v>
+      </c>
+      <c r="I400">
+        <v>0</v>
+      </c>
+      <c r="J400">
+        <v>81600</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10">
+      <c r="A401">
+        <v>399</v>
+      </c>
+      <c r="B401" s="1" t="str">
+        <f t="shared" ref="B401:C401" si="265">B396</f>
+        <v>1-2</v>
+      </c>
+      <c r="C401" s="3">
+        <f t="shared" si="265"/>
+        <v>9013</v>
+      </c>
+      <c r="D401">
+        <f t="shared" si="258"/>
+        <v>81</v>
+      </c>
+      <c r="E401">
+        <v>1</v>
+      </c>
+      <c r="F401" s="2">
+        <f t="shared" si="251"/>
+        <v>1.9366874085651814E+203</v>
+      </c>
+      <c r="G401">
+        <v>1000</v>
+      </c>
+      <c r="H401">
+        <v>8</v>
+      </c>
+      <c r="I401">
+        <v>0</v>
+      </c>
+      <c r="J401">
+        <v>81800</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:B398 D2:J398">
+  <conditionalFormatting sqref="A2:B401 D2:J401">
     <cfRule type="expression" dxfId="0" priority="50">
       <formula>$C2=5</formula>
     </cfRule>
@@ -15072,7 +15180,7 @@
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.625" style="9" bestFit="1" customWidth="1"/>
@@ -15080,24 +15188,24 @@
     <col min="4" max="16384" width="8.75" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="17.25" thickBot="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="7"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="B6" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="17.25" thickBot="1">
       <c r="B7" s="11" t="s">
         <v>14</v>
       </c>
@@ -15107,7 +15215,7 @@
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="17.25" thickTop="1">
       <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
@@ -15123,7 +15231,7 @@
         <v>0000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -15139,7 +15247,7 @@
         <v>00000000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="B10" s="12" t="s">
         <v>19</v>
       </c>
@@ -15155,7 +15263,7 @@
         <v>000000000000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -15171,7 +15279,7 @@
         <v>0000000000000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="B12" s="12" t="s">
         <v>21</v>
       </c>
@@ -15187,7 +15295,7 @@
         <v>1E+20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="B13" s="12" t="s">
         <v>22</v>
       </c>
@@ -15203,7 +15311,7 @@
         <v>1E+24</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="B14" s="12" t="s">
         <v>23</v>
       </c>
@@ -15219,7 +15327,7 @@
         <v>1E+28</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
@@ -15235,7 +15343,7 @@
         <v>1E+32</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
@@ -15251,7 +15359,7 @@
         <v>1E+36</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5">
       <c r="B17" s="12" t="s">
         <v>26</v>
       </c>
@@ -15267,7 +15375,7 @@
         <v>1E+40</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5">
       <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
@@ -15283,7 +15391,7 @@
         <v>1E+44</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5">
       <c r="B19" s="12" t="s">
         <v>28</v>
       </c>
@@ -15299,7 +15407,7 @@
         <v>1E+48</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5">
       <c r="B20" s="12" t="s">
         <v>30</v>
       </c>
@@ -15315,7 +15423,7 @@
         <v>1E+52</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5">
       <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
@@ -15331,7 +15439,7 @@
         <v>1E+56</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5">
       <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
@@ -15347,7 +15455,7 @@
         <v>1E+60</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5">
       <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
@@ -15363,7 +15471,7 @@
         <v>1E+64</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5">
       <c r="B24" s="12" t="s">
         <v>34</v>
       </c>
@@ -15379,7 +15487,7 @@
         <v>1E+68</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5">
       <c r="B25" s="12" t="s">
         <v>35</v>
       </c>
@@ -15395,7 +15503,7 @@
         <v>1E+72</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5">
       <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
@@ -15411,7 +15519,7 @@
         <v>1E+76</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5">
       <c r="B27" s="12" t="s">
         <v>37</v>
       </c>
@@ -15427,7 +15535,7 @@
         <v>1E+80</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5">
       <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
@@ -15443,7 +15551,7 @@
         <v>1E+84</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5">
       <c r="B29" s="12" t="s">
         <v>17</v>
       </c>
@@ -15459,7 +15567,7 @@
         <v>1E+88</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5">
       <c r="B30" s="12" t="s">
         <v>29</v>
       </c>
@@ -15475,7 +15583,7 @@
         <v>1E+92</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5">
       <c r="B31" s="12" t="s">
         <v>39</v>
       </c>
@@ -15491,13 +15599,13 @@
         <v>1E+96</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5">
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14">
       <c r="B33" s="10"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -15512,7 +15620,7 @@
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14">
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -15527,7 +15635,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14">
       <c r="B35" s="10"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -15542,7 +15650,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14">
       <c r="B36" s="10"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -15557,7 +15665,7 @@
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -15572,7 +15680,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14">
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
@@ -15587,7 +15695,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14">
       <c r="B39" s="10"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -15602,7 +15710,7 @@
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14">
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -15615,7 +15723,7 @@
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14">
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -15628,7 +15736,7 @@
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14">
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -15641,7 +15749,7 @@
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14">
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -15654,7 +15762,7 @@
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14">
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -15667,7 +15775,7 @@
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14">
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -15680,7 +15788,7 @@
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:14">
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -15693,7 +15801,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14">
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -15706,7 +15814,7 @@
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14">
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -15719,7 +15827,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:14">
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -15732,7 +15840,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:14">
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -15745,7 +15853,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:14">
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -15758,7 +15866,7 @@
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
     </row>
-    <row r="52" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:14">
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -15771,7 +15879,7 @@
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
     </row>
-    <row r="53" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:14">
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -15784,7 +15892,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:14">
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -15797,7 +15905,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:14">
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -15810,7 +15918,7 @@
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
     </row>
-    <row r="56" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:14">
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -15823,7 +15931,7 @@
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
     </row>
-    <row r="57" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:14">
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -15836,7 +15944,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:14">
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -15849,7 +15957,7 @@
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
     </row>
-    <row r="59" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:14">
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -15862,7 +15970,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:14">
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -15875,7 +15983,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:14">
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -15888,7 +15996,7 @@
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
     </row>
-    <row r="62" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:14">
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -15901,7 +16009,7 @@
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
     </row>
-    <row r="63" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:14">
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -15914,7 +16022,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:14">
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -15927,7 +16035,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:14">
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -15940,7 +16048,7 @@
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
     </row>
-    <row r="66" spans="4:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:14">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
